--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.27</v>
+        <v>-2.04</v>
       </c>
       <c r="D2" t="n">
-        <v>476</v>
+        <v>192</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.25</v>
+        <v>16.9</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -725,20 +725,20 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -748,32 +748,32 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
@@ -785,11 +785,11 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>18835</v>
+        <v>21708</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>1.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,36 +881,36 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.91</v>
+        <v>4.27</v>
       </c>
       <c r="D3" t="n">
-        <v>974</v>
+        <v>476</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-2.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.5</v>
+        <v>17.25</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.35</v>
+        <v>-2.07</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -919,55 +919,55 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -979,11 +979,11 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>4149</v>
+        <v>18835</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>1.2</v>
       </c>
       <c r="AK3" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,36 +1075,36 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.61</v>
+        <v>2.91</v>
       </c>
       <c r="D4" t="n">
-        <v>390</v>
+        <v>974</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>15.40</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.25</v>
+        <v>2.37</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1113,55 +1113,55 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-5.16</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X4" t="n">
-        <v>-81</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-13208</v>
+        <v>4149</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>1.2</v>
       </c>
       <c r="AK4" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,36 +1269,36 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-11.08</v>
+        <v>-4.61</v>
       </c>
       <c r="D5" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-0.90</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.7</v>
+        <v>16</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.19</v>
+        <v>5.33</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1307,55 +1307,55 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-5.16</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-0.57</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>-0.09</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-14.21</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="W5" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X5" t="n">
-        <v>-45</v>
+        <v>-81</v>
       </c>
       <c r="Y5" t="n">
-        <v>-22</v>
+        <v>-15</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
@@ -1367,11 +1367,11 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-6593</v>
+        <v>-13208</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>1.2</v>
       </c>
       <c r="AK5" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.54</v>
+        <v>-11.08</v>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
@@ -1476,23 +1476,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.86</v>
+        <v>1.48</v>
       </c>
       <c r="J6" t="n">
-        <v>18.55</v>
+        <v>16.7</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-7.54</v>
+        <v>1.18</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1501,55 +1501,55 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-14.21</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>-45</v>
       </c>
       <c r="Y6" t="n">
-        <v>-30</v>
+        <v>-22</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-3845</v>
+        <v>-6593</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>1.2</v>
       </c>
       <c r="AK6" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,36 +1657,36 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.54</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J7" t="n">
-        <v>18.65</v>
+        <v>18.55</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-8.119999999999999</v>
+        <v>-9.76</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1704,46 +1704,46 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1755,11 +1755,11 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-4836</v>
+        <v>-3845</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>1.2</v>
       </c>
       <c r="AK7" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,36 +1851,36 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.64</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.93</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>0.85</v>
       </c>
       <c r="J8" t="n">
-        <v>18.5</v>
+        <v>18.65</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-7.25</v>
+        <v>-10.36</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1889,55 +1889,55 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-1.33</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>-7</v>
+        <v>-28</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
@@ -1949,11 +1949,11 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-6209</v>
+        <v>-4836</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>1.2</v>
       </c>
       <c r="AK8" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,36 +2045,36 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.27</v>
+        <v>-4.64</v>
       </c>
       <c r="D9" t="n">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-2.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>19.4</v>
+        <v>18.5</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-12.46</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -2083,55 +2083,55 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>-0.03</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
@@ -2143,11 +2143,11 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-3808</v>
+        <v>-6209</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>1.2</v>
       </c>
       <c r="AK9" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,36 +2239,36 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>-2.27</v>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-2.43</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.85</v>
+        <v>19.4</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-15.07</v>
+        <v>-14.79</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2277,71 +2277,71 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>192</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-1232</v>
+        <v>-3808</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>1.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>101.47</v>
+        <v>99.41</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,32 +2433,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.460000000000001</v>
+        <v>-1.71</v>
       </c>
       <c r="D11" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>26.9</v>
+        <v>26.45</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
@@ -2466,25 +2466,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2494,32 +2494,32 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
           <t>-0.61</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-0.54</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>-99</v>
       </c>
       <c r="X11" t="n">
-        <v>-85</v>
+        <v>-71</v>
       </c>
       <c r="Y11" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
@@ -2531,11 +2531,11 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>-4431</v>
+        <v>-2371</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2554,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>2.53</v>
       </c>
       <c r="AK11" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,11 +2574,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,93 +2627,93 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-4.77</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.7</v>
+        <v>26.9</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.18</v>
+        <v>-1.7</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>-99</v>
       </c>
       <c r="X12" t="n">
-        <v>-110</v>
+        <v>-85</v>
       </c>
       <c r="Y12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -2725,11 +2725,11 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>-11788</v>
+        <v>-4431</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>2.53</v>
       </c>
       <c r="AK12" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2768,11 +2768,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,93 +2821,93 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-4.77</v>
       </c>
       <c r="D13" t="n">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-9.07</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-2.99</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>46.37</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.9</v>
+        <v>24.7</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.72</v>
+        <v>6.62</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>-0.06</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>-99</v>
       </c>
       <c r="X13" t="n">
-        <v>-95</v>
+        <v>-110</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
@@ -2919,11 +2919,11 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>-6777</v>
+        <v>-11788</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>2.53</v>
       </c>
       <c r="AK13" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,25 +3015,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-9.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>-2.99</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>49.44</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -3044,16 +3044,16 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.72</v>
+        <v>2.08</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3062,46 +3062,46 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W14" t="n">
         <v>-99</v>
       </c>
       <c r="X14" t="n">
-        <v>-91</v>
+        <v>-95</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3113,11 +3113,11 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-5785</v>
+        <v>-6777</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>2.53</v>
       </c>
       <c r="AK14" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3156,11 +3156,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3209,93 +3209,93 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.23</v>
+        <v>-11</v>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>49.44</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>28.75</v>
+        <v>25.9</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-6.88</v>
+        <v>2.08</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>-99</v>
       </c>
       <c r="X15" t="n">
-        <v>-42</v>
+        <v>-91</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
@@ -3307,11 +3307,11 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-2821</v>
+        <v>-5785</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>2.53</v>
       </c>
       <c r="AK15" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3350,11 +3350,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3403,63 +3403,63 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-5.46</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>28.4</v>
+        <v>28.75</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>-5.58</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -3469,27 +3469,27 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="W16" t="n">
         <v>-99</v>
       </c>
       <c r="X16" t="n">
-        <v>-20</v>
+        <v>-42</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
@@ -3501,11 +3501,11 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-5321</v>
+        <v>-2821</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3524,14 +3524,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>2.53</v>
       </c>
       <c r="AK16" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3597,25 +3597,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.22</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-5.46</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15.92</t>
+          <t>19.55</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -3626,16 +3626,16 @@
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-5.58</v>
+        <v>-7.37</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3644,11 +3644,11 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3683,7 +3683,7 @@
         <v>-20</v>
       </c>
       <c r="Y17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3695,11 +3695,11 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-3975</v>
+        <v>-5321</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3718,14 +3718,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>2.53</v>
       </c>
       <c r="AK17" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.17</v>
+        <v>-1.22</v>
       </c>
       <c r="D18" t="n">
         <v>57</v>
@@ -3799,12 +3799,12 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3816,33 +3816,33 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>28.75</v>
+        <v>28.4</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-6.88</v>
+        <v>-7.37</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3857,27 +3857,27 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>-99</v>
       </c>
       <c r="X18" t="n">
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
@@ -3889,11 +3889,11 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>-599</v>
+        <v>-3975</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>2.53</v>
       </c>
       <c r="AK18" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3985,58 +3985,58 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.86</v>
+        <v>-0.17</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>15.92</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>28.8</v>
+        <v>28.75</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-7.06</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4051,27 +4051,27 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="W19" t="n">
         <v>-99</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="Y19" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
@@ -4083,11 +4083,11 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-488</v>
+        <v>-599</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>2.53</v>
       </c>
       <c r="AK19" t="n">
-        <v>25.14</v>
+        <v>24.72</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4126,11 +4126,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4179,32 +4179,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.87</v>
+        <v>-4.21</v>
       </c>
       <c r="D20" t="n">
-        <v>1198</v>
+        <v>240</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>20.03</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>17.85</v>
+        <v>17.1</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -4212,60 +4212,60 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>-95</v>
       </c>
       <c r="X20" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y20" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4277,11 +4277,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>10930</v>
+        <v>11565</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4318,11 +4318,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4362,7 +4362,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4371,93 +4371,93 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-10.5</v>
+        <v>4.87</v>
       </c>
       <c r="D21" t="n">
-        <v>273</v>
+        <v>1198</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-5.85</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.1</v>
+        <v>17.85</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>4.2</v>
+        <v>-4.39</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="W21" t="n">
         <v>-95</v>
       </c>
       <c r="X21" t="n">
-        <v>-5</v>
+        <v>68</v>
       </c>
       <c r="Y21" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
@@ -4469,11 +4469,11 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-10074</v>
+        <v>10930</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4510,11 +4510,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4554,7 +4554,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4563,93 +4563,93 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-8.380000000000001</v>
+        <v>-10.5</v>
       </c>
       <c r="D22" t="n">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-5.85</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>21.54</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>17.1</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-6.44</v>
+        <v>0</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>-95</v>
       </c>
       <c r="X22" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="Y22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -4661,11 +4661,11 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-8124</v>
+        <v>-10074</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4746,7 +4746,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4755,93 +4755,93 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-10.95</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>20.55</v>
+        <v>19</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>-15.13</v>
+        <v>-11.11</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="W23" t="n">
         <v>-95</v>
       </c>
       <c r="X23" t="n">
-        <v>-31</v>
+        <v>-15</v>
       </c>
       <c r="Y23" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4853,11 +4853,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-575</v>
+        <v>-8124</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4894,11 +4894,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4938,7 +4938,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4947,90 +4947,90 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-2.16</v>
+        <v>-10.95</v>
       </c>
       <c r="D24" t="n">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>22.8</v>
+        <v>20.55</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>-27.73</v>
+        <v>-20.18</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-95</v>
       </c>
       <c r="X24" t="n">
-        <v>-36</v>
+        <v>-31</v>
       </c>
       <c r="Y24" t="n">
         <v>24</v>
@@ -5049,7 +5049,7 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-5072</v>
+        <v>-575</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5086,11 +5086,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5130,7 +5130,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5139,93 +5139,93 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.85</v>
+        <v>-2.16</v>
       </c>
       <c r="D25" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>-30.53</v>
+        <v>-33.33</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-95</v>
       </c>
       <c r="X25" t="n">
-        <v>-42</v>
+        <v>-36</v>
       </c>
       <c r="Y25" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
@@ -5237,11 +5237,11 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-7749</v>
+        <v>-5072</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5278,11 +5278,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5322,7 +5322,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5331,93 +5331,93 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-6</v>
+        <v>0.85</v>
       </c>
       <c r="D26" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-29.41</v>
+        <v>-36.26</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>-95</v>
       </c>
       <c r="X26" t="n">
-        <v>-108</v>
+        <v>-42</v>
       </c>
       <c r="Y26" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
@@ -5429,11 +5429,11 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-11532</v>
+        <v>-7749</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5470,11 +5470,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5514,7 +5514,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5523,93 +5523,93 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.21</v>
+        <v>-6</v>
       </c>
       <c r="D27" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>18.70</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.5</v>
+        <v>23.1</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-37.25</v>
+        <v>-35.09</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W27" t="n">
         <v>-95</v>
       </c>
       <c r="X27" t="n">
-        <v>-112</v>
+        <v>-108</v>
       </c>
       <c r="Y27" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5621,11 +5621,11 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-5012</v>
+        <v>-11532</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5706,7 +5706,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5715,58 +5715,58 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-1.21</v>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>18.70</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-38.94</v>
+        <v>-43.27</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -5776,29 +5776,29 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W28" t="n">
         <v>-95</v>
       </c>
       <c r="X28" t="n">
-        <v>-85</v>
+        <v>-112</v>
       </c>
       <c r="Y28" t="n">
         <v>-1</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-9208</v>
+        <v>-5012</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5854,11 +5854,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>983</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5898,7 +5898,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5907,32 +5907,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-9.25</v>
+        <v>-0.36</v>
       </c>
       <c r="D29" t="n">
-        <v>3924</v>
+        <v>782</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>19.93</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
@@ -5940,12 +5940,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5954,52 +5954,52 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="W29" t="n">
         <v>95</v>
       </c>
       <c r="X29" t="n">
-        <v>-6</v>
+        <v>-32</v>
       </c>
       <c r="Y29" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -6013,11 +6013,11 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>-162277</v>
+        <v>-212240</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6036,14 +6036,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>17.51</v>
       </c>
       <c r="AK29" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6056,11 +6056,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6109,63 +6109,63 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.890000000000001</v>
+        <v>-9.25</v>
       </c>
       <c r="D30" t="n">
-        <v>1348</v>
+        <v>3924</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>-22.10</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>34.35</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="J30" t="n">
-        <v>62.3</v>
+        <v>56.1</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-11.05</v>
+        <v>-0.36</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -6192,16 +6192,16 @@
         <v>95</v>
       </c>
       <c r="X30" t="n">
-        <v>151</v>
+        <v>-6</v>
       </c>
       <c r="Y30" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -6215,11 +6215,11 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>83956</v>
+        <v>-162277</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6238,14 +6238,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>17.51</v>
       </c>
       <c r="AK30" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6258,11 +6258,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
@@ -6302,7 +6302,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6311,109 +6311,117 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.79</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>122</v>
+        <v>1348</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="J31" t="n">
-        <v>56.7</v>
+        <v>62.3</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>-1.07</v>
+        <v>-11.45</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>95</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="Y31" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>195</v>
+        <v>83956</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6432,14 +6440,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>17.51</v>
       </c>
       <c r="AK31" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6452,11 +6460,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6496,7 +6504,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6505,93 +6513,93 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-9.619999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="D32" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>52.6</v>
+        <v>56.7</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>6.24</v>
+        <v>-1.43</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>95</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
@@ -6599,23 +6607,15 @@
       <c r="AA32" t="n">
         <v>0</v>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-4677</v>
+        <v>195</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6634,14 +6634,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>17.51</v>
       </c>
       <c r="AK32" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6654,11 +6654,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6698,7 +6698,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6707,93 +6707,93 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>57.6</v>
+        <v>52.6</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>-2.67</v>
+        <v>5.9</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>95</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6813,11 +6813,11 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-676</v>
+        <v>-4677</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6836,14 +6836,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>17.51</v>
       </c>
       <c r="AK33" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6856,11 +6856,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6900,7 +6900,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6909,45 +6909,45 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>57.6</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>-2.67</v>
+        <v>-3.04</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -6956,52 +6956,52 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>95</v>
       </c>
       <c r="X34" t="n">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
@@ -7015,11 +7015,11 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-3740</v>
+        <v>-676</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7038,14 +7038,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>17.51</v>
       </c>
       <c r="AK34" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7058,11 +7058,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7111,58 +7111,58 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="J35" t="n">
-        <v>57.4</v>
+        <v>57.6</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>-2.32</v>
+        <v>-3.04</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -7172,38 +7172,38 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="W35" t="n">
         <v>95</v>
       </c>
       <c r="X35" t="n">
-        <v>115</v>
+        <v>-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -7217,11 +7217,11 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-3079</v>
+        <v>-3740</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7240,14 +7240,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>17.51</v>
       </c>
       <c r="AK35" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7260,11 +7260,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7304,7 +7304,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7313,45 +7313,45 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-2.21</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J36" t="n">
         <v>57.4</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>-2.32</v>
+        <v>-2.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7360,11 +7360,11 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -7379,27 +7379,27 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="W36" t="n">
         <v>95</v>
       </c>
       <c r="X36" t="n">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="Y36" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
@@ -7419,11 +7419,11 @@
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-6420</v>
+        <v>-3079</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7442,14 +7442,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>17.51</v>
       </c>
       <c r="AK36" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7462,11 +7462,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7506,7 +7506,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7515,63 +7515,63 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.17</v>
+        <v>-2.21</v>
       </c>
       <c r="D37" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-1.56</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
       <c r="J37" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>-4.63</v>
+        <v>-2.68</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>782</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-22.10</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -7591,14 +7591,14 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="W37" t="n">
         <v>95</v>
       </c>
       <c r="X37" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Y37" t="n">
         <v>68</v>
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>22462</v>
+        <v>-6420</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7644,14 +7644,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>17.51</v>
       </c>
       <c r="AK37" t="n">
-        <v>12.93</v>
+        <v>12.88</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7664,11 +7664,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>46.51</v>
+        <v>45.67</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -715,12 +715,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -728,42 +728,42 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="W2" t="n">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="X2" t="b">
         <v>1</v>
@@ -772,20 +772,20 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>2.45</v>
+        <v>25.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>-19.46</v>
+        <v>17.8</v>
       </c>
       <c r="AD2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -804,14 +804,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>0.95</v>
       </c>
       <c r="AK2" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,26 +877,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.29</v>
+        <v>0.29</v>
       </c>
       <c r="D3" t="n">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -918,64 +918,64 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="W3" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="X3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-1.55</v>
+        <v>2.45</v>
       </c>
       <c r="AC3" t="n">
-        <v>-26</v>
+        <v>-19.46</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -994,14 +994,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>0.95</v>
       </c>
       <c r="AK3" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1067,26 +1067,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.59</v>
+        <v>-0.29</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
-        <v>17.1</v>
+        <v>17.05</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1108,42 +1108,42 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="W4" t="n">
-        <v>-36</v>
+        <v>-21</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -1152,20 +1152,20 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>16.99</v>
+        <v>-1.55</v>
       </c>
       <c r="AC4" t="n">
-        <v>-24.37</v>
+        <v>-26</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>0.95</v>
       </c>
       <c r="AK4" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1204,11 +1204,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1298,42 +1298,42 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>25.92</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="W5" t="n">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1342,20 +1342,20 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>-8.609999999999999</v>
+        <v>16.99</v>
       </c>
       <c r="AC5" t="n">
-        <v>-27.24</v>
+        <v>-24.37</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>0.95</v>
       </c>
       <c r="AK5" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1447,26 +1447,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.88</v>
+        <v>0.88</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16.85</v>
+        <v>17</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1475,12 +1475,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1488,42 +1488,42 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="W6" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1532,20 +1532,20 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-3.35</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-26.02</v>
+        <v>-27.24</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1564,14 +1564,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>0.95</v>
       </c>
       <c r="AK6" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1637,26 +1637,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.19</v>
+        <v>-0.88</v>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>16.85</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.58</v>
+        <v>2.03</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1678,42 +1678,42 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="W7" t="n">
-        <v>17</v>
+        <v>-31</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1722,20 +1722,20 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-27.63</v>
+        <v>-3.35</v>
       </c>
       <c r="AC7" t="n">
-        <v>-25.4</v>
+        <v>-26.02</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>0.95</v>
       </c>
       <c r="AK7" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1827,26 +1827,26 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1868,42 +1868,42 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="W8" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1912,20 +1912,20 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-36.74</v>
+        <v>-27.63</v>
       </c>
       <c r="AC8" t="n">
-        <v>-28.26</v>
+        <v>-25.4</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.3</v>
+        <v>-0.09</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>0.95</v>
       </c>
       <c r="AK8" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1964,11 +1964,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2017,15 +2017,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2058,22 +2058,22 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2083,17 +2083,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-33</v>
+        <v>-15</v>
       </c>
       <c r="W9" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2102,20 +2102,20 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-38.43</v>
+        <v>-36.74</v>
       </c>
       <c r="AC9" t="n">
-        <v>-25.87</v>
+        <v>-28.26</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.49</v>
+        <v>-0.3</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2134,14 +2134,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>0.95</v>
       </c>
       <c r="AK9" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2154,11 +2154,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2207,26 +2207,26 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="D10" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2235,12 +2235,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2248,22 +2248,22 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2273,17 +2273,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-40</v>
+        <v>-33</v>
       </c>
       <c r="W10" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2292,20 +2292,20 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-37.55</v>
+        <v>-38.43</v>
       </c>
       <c r="AC10" t="n">
-        <v>-25.98</v>
+        <v>-25.87</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.45</v>
+        <v>-0.49</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2324,14 +2324,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>0.95</v>
       </c>
       <c r="AK10" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2344,11 +2344,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2397,26 +2397,26 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.18</v>
+        <v>0.59</v>
       </c>
       <c r="D11" t="n">
-        <v>284</v>
+        <v>91</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2425,12 +2425,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2438,42 +2438,42 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-16</v>
+        <v>-40</v>
       </c>
       <c r="W11" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2482,20 +2482,20 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-36.65</v>
+        <v>-37.55</v>
       </c>
       <c r="AC11" t="n">
-        <v>-29.92</v>
+        <v>-25.98</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.22</v>
+        <v>-0.45</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2514,14 +2514,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>0.95</v>
       </c>
       <c r="AK11" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2534,11 +2534,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2587,26 +2587,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.29</v>
+        <v>-1.18</v>
       </c>
       <c r="D12" t="n">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0.58</v>
+        <v>2.33</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -2615,12 +2615,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2628,22 +2628,22 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2653,17 +2653,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>-16</v>
       </c>
       <c r="W12" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2672,20 +2672,20 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-22.95</v>
+        <v>-36.65</v>
       </c>
       <c r="AC12" t="n">
-        <v>-19.52</v>
+        <v>-29.92</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2704,14 +2704,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>0.95</v>
       </c>
       <c r="AK12" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2724,11 +2724,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2777,26 +2777,26 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.58</v>
+        <v>-0.29</v>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="H13" t="n">
-        <v>17.05</v>
+        <v>17</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.29</v>
+        <v>1.16</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2818,42 +2818,42 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>22.72</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2862,20 +2862,20 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-15.72</v>
+        <v>-22.95</v>
       </c>
       <c r="AC13" t="n">
-        <v>-13.02</v>
+        <v>-19.52</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.21</v>
+        <v>-0.18</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2894,14 +2894,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>0.95</v>
       </c>
       <c r="AK13" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2914,11 +2914,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2967,26 +2967,26 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.14</v>
+        <v>-0.58</v>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17.15</v>
+        <v>17.05</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-0.29</v>
+        <v>0.87</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3008,42 +3008,42 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>23.65</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="W14" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3052,20 +3052,20 @@
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>11.76</v>
+        <v>-15.72</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.09</v>
+        <v>-13.02</v>
       </c>
       <c r="AD14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.93</v>
+        <v>-0.21</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3084,14 +3084,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>0.95</v>
       </c>
       <c r="AK14" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3104,11 +3104,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3157,26 +3157,26 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.29</v>
+        <v>-1.14</v>
       </c>
       <c r="D15" t="n">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>17.35</v>
+        <v>17.15</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-1.46</v>
+        <v>0.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -3198,42 +3198,42 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>23.92</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="W15" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
@@ -3242,20 +3242,20 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>7.72</v>
+        <v>11.76</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.61</v>
+        <v>6.09</v>
       </c>
       <c r="AD15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.34</v>
+        <v>0.93</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3274,14 +3274,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>0.95</v>
       </c>
       <c r="AK15" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3294,11 +3294,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3338,7 +3338,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3347,22 +3347,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.53</v>
+        <v>0.17</v>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.75</v>
+        <v>28.8</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -3370,12 +3370,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3388,22 +3388,22 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -3420,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -3435,25 +3435,25 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-8.99</v>
+        <v>13.52</v>
       </c>
       <c r="AC16" t="n">
-        <v>-12.35</v>
+        <v>-12.76</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.27</v>
+        <v>2.06</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3472,14 +3472,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>5.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3492,11 +3492,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3536,7 +3536,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3545,35 +3545,35 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.18</v>
+        <v>0.53</v>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28.6</v>
+        <v>28.75</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.52</v>
+        <v>0.17</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3586,42 +3586,42 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="W17" t="n">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -3633,25 +3633,25 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-16.26</v>
+        <v>-8.99</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.66</v>
+        <v>-12.35</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-7.11</v>
+        <v>0.27</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3670,14 +3670,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>5.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3690,11 +3690,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3734,7 +3734,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3743,35 +3743,35 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.18</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>28.65</v>
+        <v>28.6</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3784,42 +3784,42 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="W18" t="n">
-        <v>-41</v>
+        <v>-25</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -3831,25 +3831,25 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-13.78</v>
+        <v>-16.26</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.41</v>
+        <v>2.66</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.79</v>
+        <v>-7.11</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3868,14 +3868,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>5.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3888,11 +3888,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3932,7 +3932,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3941,35 +3941,35 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.87</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="H19" t="n">
-        <v>28.85</v>
+        <v>28.65</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-0.35</v>
+        <v>0.52</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3982,42 +3982,42 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>30.16</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="W19" t="n">
-        <v>-53</v>
+        <v>-41</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4029,25 +4029,25 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-12.83</v>
+        <v>-13.78</v>
       </c>
       <c r="AC19" t="n">
-        <v>23.3</v>
+        <v>17.41</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-1.55</v>
+        <v>-1.79</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4066,14 +4066,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>5.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4086,11 +4086,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4130,7 +4130,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4139,35 +4139,35 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.7</v>
+        <v>0.87</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="H20" t="n">
-        <v>28.6</v>
+        <v>28.85</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>0.52</v>
+        <v>-0.17</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4180,32 +4180,32 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U20" t="b">
@@ -4215,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="W20" t="n">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4227,25 +4227,25 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-22.55</v>
+        <v>-12.83</v>
       </c>
       <c r="AC20" t="n">
-        <v>27.68</v>
+        <v>23.3</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-1.81</v>
+        <v>-1.55</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4264,14 +4264,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>5.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4284,11 +4284,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4328,7 +4328,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4337,35 +4337,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.23</v>
+        <v>-0.7</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0.96</v>
       </c>
       <c r="H21" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4378,22 +4378,22 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -4403,17 +4403,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W21" t="n">
-        <v>-61</v>
+        <v>-56</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4425,25 +4425,25 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>-14.97</v>
+        <v>-22.55</v>
       </c>
       <c r="AC21" t="n">
-        <v>30.8</v>
+        <v>27.68</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.49</v>
+        <v>-1.81</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4462,14 +4462,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>5.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4482,11 +4482,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4526,7 +4526,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4535,40 +4535,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1.6</v>
+        <v>1.23</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="H22" t="n">
-        <v>28.45</v>
+        <v>28.8</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -4576,42 +4576,42 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
-        <v>-25</v>
+        <v>-61</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4623,25 +4623,25 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>16.69</v>
+        <v>-14.97</v>
       </c>
       <c r="AC22" t="n">
-        <v>29.73</v>
+        <v>30.8</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.44</v>
+        <v>-1.49</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4660,14 +4660,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>5.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4680,11 +4680,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4733,40 +4733,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.17</v>
+        <v>-1.6</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="H23" t="n">
-        <v>28.9</v>
+        <v>28.45</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-0.52</v>
+        <v>1.22</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -4774,42 +4774,42 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W23" t="n">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4821,25 +4821,25 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>28.21</v>
+        <v>16.69</v>
       </c>
       <c r="AC23" t="n">
-        <v>31.6</v>
+        <v>29.73</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.11</v>
+        <v>-0.44</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4858,14 +4858,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>5.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4878,11 +4878,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4922,7 +4922,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4934,32 +4934,32 @@
         <v>-0.17</v>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="H24" t="n">
-        <v>28.95</v>
+        <v>28.9</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-0.7</v>
+        <v>-0.35</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4972,42 +4972,42 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>275.74</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5019,25 +5019,25 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>35.36</v>
+        <v>28.21</v>
       </c>
       <c r="AC24" t="n">
-        <v>29.94</v>
+        <v>31.6</v>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5056,14 +5056,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>5.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5076,11 +5076,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5120,7 +5120,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5129,35 +5129,35 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.87</v>
+        <v>-0.17</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="H25" t="n">
-        <v>29</v>
+        <v>28.95</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-0.87</v>
+        <v>-0.52</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>978.99</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5217,25 +5217,25 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>45.18</v>
+        <v>35.36</v>
       </c>
       <c r="AC25" t="n">
-        <v>32.89</v>
+        <v>29.94</v>
       </c>
       <c r="AD25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5254,14 +5254,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>5.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5274,11 +5274,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5318,7 +5318,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5327,40 +5327,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
       <c r="D26" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>25.70</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="H26" t="n">
-        <v>28.75</v>
+        <v>29</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -5368,42 +5368,42 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>707.26</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="W26" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5415,25 +5415,25 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>46.06</v>
+        <v>45.18</v>
       </c>
       <c r="AC26" t="n">
-        <v>31.31</v>
+        <v>32.89</v>
       </c>
       <c r="AD26" t="b">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5452,14 +5452,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>5.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5472,11 +5472,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5516,7 +5516,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5525,35 +5525,35 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.19</v>
+        <v>0.34</v>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>19.27</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="H27" t="n">
-        <v>28.65</v>
+        <v>28.75</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5566,32 +5566,32 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>248.06</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U27" t="b">
@@ -5601,7 +5601,7 @@
         <v>47</v>
       </c>
       <c r="W27" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5613,25 +5613,25 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>38.59</v>
+        <v>46.06</v>
       </c>
       <c r="AC27" t="n">
-        <v>28.27</v>
+        <v>31.31</v>
       </c>
       <c r="AD27" t="b">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5650,14 +5650,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>5.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5670,11 +5670,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5714,7 +5714,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5723,40 +5723,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.35</v>
+        <v>1.19</v>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20.67</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>28.3</v>
+        <v>28.65</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>1.57</v>
+        <v>0.52</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -5764,42 +5764,42 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>147.52</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5811,25 +5811,25 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>34.66</v>
+        <v>38.59</v>
       </c>
       <c r="AC28" t="n">
-        <v>21.09</v>
+        <v>28.27</v>
       </c>
       <c r="AD28" t="b">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5848,14 +5848,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>5.03</v>
       </c>
       <c r="AK28" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5868,11 +5868,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5912,7 +5912,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5921,40 +5921,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.54</v>
+        <v>0.35</v>
       </c>
       <c r="D29" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>20.67</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -5962,42 +5962,42 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>97.29</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="W29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -6009,25 +6009,25 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>23.29</v>
+        <v>34.66</v>
       </c>
       <c r="AC29" t="n">
-        <v>17.94</v>
+        <v>21.09</v>
       </c>
       <c r="AD29" t="b">
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.3</v>
+        <v>0.64</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6046,14 +6046,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>5.03</v>
       </c>
       <c r="AK29" t="n">
-        <v>29.34</v>
+        <v>29.39</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6066,11 +6066,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6110,7 +6110,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6119,22 +6119,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.5</v>
+        <v>1.04</v>
       </c>
       <c r="D30" t="n">
-        <v>580</v>
+        <v>692</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>48.41</t>
+          <t>57.76</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>23.55</v>
+        <v>23.8</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
@@ -6142,17 +6142,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -6160,42 +6160,42 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>100.91</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="W30" t="n">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -6207,25 +6207,25 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>46.21</v>
+        <v>76.91</v>
       </c>
       <c r="AC30" t="n">
-        <v>39.07</v>
+        <v>55.04</v>
       </c>
       <c r="AD30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6262,11 +6262,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6306,7 +6306,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6315,40 +6315,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-4.04</v>
+        <v>9.5</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>48.41</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>21.45</v>
+        <v>23.55</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>8.92</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -6356,42 +6356,42 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>121.80</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="W31" t="n">
-        <v>-46</v>
+        <v>-12</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6403,25 +6403,25 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-8.630000000000001</v>
+        <v>46.21</v>
       </c>
       <c r="AC31" t="n">
-        <v>26.1</v>
+        <v>39.07</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1.33</v>
+        <v>0.18</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6458,11 +6458,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6502,7 +6502,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6511,40 +6511,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.54</v>
+        <v>-4.04</v>
       </c>
       <c r="D32" t="n">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>22.35</v>
+        <v>21.45</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>5.1</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -6552,42 +6552,42 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-3.20</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>143.42</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>-46</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6599,25 +6599,25 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-46.6</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>31.55</v>
+        <v>26.1</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-2.48</v>
+        <v>-1.33</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6654,11 +6654,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6698,7 +6698,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6707,40 +6707,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-2.23</v>
+        <v>1.54</v>
       </c>
       <c r="D33" t="n">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>22</v>
+        <v>22.35</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>6.58</v>
+        <v>6.09</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -6748,42 +6748,42 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>19.12</t>
+          <t>323.04</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>29</v>
+        <v>-8</v>
       </c>
       <c r="W33" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6795,25 +6795,25 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-24.79</v>
+        <v>-46.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>27.01</v>
+        <v>31.55</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.92</v>
+        <v>-2.48</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6850,11 +6850,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6894,7 +6894,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6903,40 +6903,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-2.23</v>
       </c>
       <c r="D34" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>4.46</v>
+        <v>7.56</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -6944,42 +6944,42 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>1911.89</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="W34" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -6991,25 +6991,25 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>11.97</v>
+        <v>-24.79</v>
       </c>
       <c r="AC34" t="n">
-        <v>26.94</v>
+        <v>27.01</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7046,11 +7046,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7090,7 +7090,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7099,35 +7099,35 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>22.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>4.46</v>
+        <v>5.46</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -7140,42 +7140,42 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>607.10</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="W35" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7187,25 +7187,25 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>30.28</v>
+        <v>11.97</v>
       </c>
       <c r="AC35" t="n">
-        <v>32.02</v>
+        <v>26.94</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.05</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7242,11 +7242,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7286,7 +7286,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7295,40 +7295,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-4.72</v>
+        <v>1.35</v>
       </c>
       <c r="D36" t="n">
-        <v>555</v>
+        <v>103</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>46.33</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="H36" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>5.73</v>
+        <v>5.46</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -7336,42 +7336,42 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>259.80</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="W36" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7383,25 +7383,25 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>37.91</v>
+        <v>30.28</v>
       </c>
       <c r="AC36" t="n">
-        <v>27.06</v>
+        <v>32.02</v>
       </c>
       <c r="AD36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.4</v>
+        <v>-0.05</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7438,11 +7438,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7482,7 +7482,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7491,40 +7491,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.74</v>
+        <v>-4.72</v>
       </c>
       <c r="D37" t="n">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>40.48</t>
+          <t>46.33</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="H37" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>6.72</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -7532,42 +7532,42 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>163.27</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="W37" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7579,25 +7579,25 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>64.52</v>
+        <v>37.91</v>
       </c>
       <c r="AC37" t="n">
-        <v>44.82</v>
+        <v>27.06</v>
       </c>
       <c r="AD37" t="b">
         <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7634,11 +7634,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7678,7 +7678,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7687,40 +7687,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.47</v>
+        <v>9.74</v>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>485</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>40.48</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="H38" t="n">
-        <v>21.2</v>
+        <v>23.3</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>9.98</v>
+        <v>2.1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7728,42 +7728,42 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>120.51</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="W38" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -7775,25 +7775,25 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>45.54</v>
+        <v>64.52</v>
       </c>
       <c r="AC38" t="n">
-        <v>25.33</v>
+        <v>44.82</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7830,11 +7830,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7874,7 +7874,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7883,40 +7883,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="D39" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>10.4</v>
+        <v>10.92</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -7924,42 +7924,42 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>72.71</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="W39" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -7971,25 +7971,25 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>36.17</v>
+        <v>45.54</v>
       </c>
       <c r="AC39" t="n">
-        <v>29.85</v>
+        <v>25.33</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8026,11 +8026,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8070,7 +8070,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8079,40 +8079,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>11.25</v>
+        <v>11.34</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -8120,64 +8120,72 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>61.23</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="W40" t="n">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
       </c>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>33.67</v>
+        <v>36.17</v>
       </c>
       <c r="AC40" t="n">
-        <v>-14.66</v>
+        <v>29.85</v>
       </c>
       <c r="AD40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>3.3</v>
+        <v>0.21</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8214,11 +8222,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8246,7 +8254,7 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV40" t="inlineStr">
@@ -8258,7 +8266,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8267,40 +8275,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.74</v>
+        <v>4.43</v>
       </c>
       <c r="D41" t="n">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>15.07</v>
+        <v>12.18</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8308,42 +8316,42 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>50.76</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="W41" t="n">
-        <v>-64</v>
+        <v>-32</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8352,20 +8360,20 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>5.2</v>
+        <v>33.67</v>
       </c>
       <c r="AC41" t="n">
-        <v>-15.7</v>
+        <v>-14.66</v>
       </c>
       <c r="AD41" t="b">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.33</v>
+        <v>3.3</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8402,11 +8410,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8446,7 +8454,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8455,40 +8463,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.25</v>
+        <v>0.74</v>
       </c>
       <c r="D42" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>19.85</v>
+        <v>20</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>15.71</v>
+        <v>15.97</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8496,42 +8504,42 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>41.49</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>-25</v>
+        <v>-4</v>
       </c>
       <c r="W42" t="n">
-        <v>-72</v>
+        <v>-64</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8540,20 +8548,20 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-72</t>
+          <t>-64</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-12.02</v>
+        <v>5.2</v>
       </c>
       <c r="AC42" t="n">
-        <v>-10.18</v>
+        <v>-15.7</v>
       </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>-0.18</v>
+        <v>1.33</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8590,11 +8598,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8634,7 +8642,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8643,35 +8651,35 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D43" t="n">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>19.8</v>
+        <v>19.85</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>15.92</v>
+        <v>16.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>692</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -8684,42 +8692,42 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>39.74</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-16</v>
+        <v>-25</v>
       </c>
       <c r="W43" t="n">
-        <v>-60</v>
+        <v>-72</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8728,20 +8736,20 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-60</t>
+          <t>-72</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-28.12</v>
+        <v>-12.02</v>
       </c>
       <c r="AC43" t="n">
-        <v>-6.68</v>
+        <v>-10.18</v>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-3.21</v>
+        <v>-0.18</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8778,11 +8786,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8822,7 +8830,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8831,22 +8839,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
@@ -8854,17 +8862,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8872,27 +8880,27 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-6.39</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -8904,10 +8912,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="W44" t="n">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8916,20 +8924,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-1.18</v>
+        <v>23.62</v>
       </c>
       <c r="AC44" t="n">
-        <v>11.84</v>
+        <v>19.96</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-1.1</v>
+        <v>0.18</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8948,14 +8956,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>16.54</v>
       </c>
       <c r="AK44" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -8968,11 +8976,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9012,7 +9020,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9021,15 +9029,15 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -9040,16 +9048,16 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -9062,42 +9070,42 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-17.07</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="W45" t="n">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9106,20 +9114,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>13.15</v>
+        <v>-1.18</v>
       </c>
       <c r="AC45" t="n">
-        <v>19.66</v>
+        <v>11.84</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.33</v>
+        <v>-1.1</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9138,14 +9146,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>16.54</v>
       </c>
       <c r="AK45" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9158,11 +9166,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9202,7 +9210,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9211,40 +9219,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.51</v>
+        <v>0.34</v>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>0.34</v>
+        <v>1.02</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -9252,42 +9260,42 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-16.85</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="W46" t="n">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9296,20 +9304,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>14.87</v>
+        <v>13.15</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.63</v>
+        <v>19.66</v>
       </c>
       <c r="AD46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.95</v>
+        <v>-0.33</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9328,14 +9336,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>16.54</v>
       </c>
       <c r="AK46" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9348,11 +9356,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9392,7 +9400,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9401,7 +9409,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.17</v>
+        <v>-0.51</v>
       </c>
       <c r="D47" t="n">
         <v>23</v>
@@ -9416,25 +9424,25 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>58.4</v>
+        <v>58.1</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-0.17</v>
+        <v>1.36</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9442,42 +9450,42 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-16.94</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="W47" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9486,20 +9494,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>9.52</v>
+        <v>14.87</v>
       </c>
       <c r="AC47" t="n">
-        <v>11.73</v>
+        <v>7.63</v>
       </c>
       <c r="AD47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.19</v>
+        <v>0.95</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9518,14 +9526,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>16.54</v>
       </c>
       <c r="AK47" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9538,11 +9546,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9582,7 +9590,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9594,32 +9602,32 @@
         <v>0.17</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -9632,42 +9640,42 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-12.55</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="W48" t="n">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9676,20 +9684,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>15.46</v>
+        <v>9.52</v>
       </c>
       <c r="AC48" t="n">
-        <v>-20.26</v>
+        <v>11.73</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.76</v>
+        <v>-0.19</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9708,14 +9716,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>16.54</v>
       </c>
       <c r="AK48" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9728,11 +9736,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9772,7 +9780,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9781,40 +9789,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.51</v>
+        <v>0.17</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>0.17</v>
+        <v>1.02</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9822,42 +9830,42 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-13.99</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W49" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9866,20 +9874,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>16.79</v>
+        <v>15.46</v>
       </c>
       <c r="AC49" t="n">
-        <v>-25.53</v>
+        <v>-20.26</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9898,14 +9906,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>16.54</v>
       </c>
       <c r="AK49" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9918,11 +9926,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9962,7 +9970,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9971,40 +9979,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.68</v>
+        <v>-0.51</v>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>58.5</v>
+        <v>58.2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>-0.34</v>
+        <v>1.19</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -10012,42 +10020,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-14.29</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="W50" t="n">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10056,20 +10064,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>24.5</v>
+        <v>16.79</v>
       </c>
       <c r="AC50" t="n">
-        <v>-28</v>
+        <v>-25.53</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10088,14 +10096,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>16.54</v>
       </c>
       <c r="AK50" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10108,11 +10116,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10152,7 +10160,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10161,40 +10169,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.85</v>
+        <v>0.68</v>
       </c>
       <c r="D51" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>58.1</v>
+        <v>58.5</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10202,42 +10210,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-13.01</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="W51" t="n">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10246,20 +10254,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-10.24</v>
+        <v>24.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>-25.95</v>
+        <v>-28</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.61</v>
+        <v>1.88</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10278,14 +10286,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>16.54</v>
       </c>
       <c r="AK51" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10298,11 +10306,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10342,7 +10350,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10351,7 +10359,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.56</v>
+        <v>-0.85</v>
       </c>
       <c r="D52" t="n">
         <v>35</v>
@@ -10366,25 +10374,25 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-0.51</v>
+        <v>1.36</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10392,42 +10400,42 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-18.22</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="W52" t="n">
-        <v>-33</v>
+        <v>-10</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10436,20 +10444,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>13.58</v>
+        <v>-10.24</v>
       </c>
       <c r="AC52" t="n">
-        <v>-6.02</v>
+        <v>-25.95</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>3.26</v>
+        <v>0.61</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10468,14 +10476,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>16.54</v>
       </c>
       <c r="AK52" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10488,11 +10496,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10532,7 +10540,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10541,40 +10549,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.17</v>
+        <v>1.56</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>57.7</v>
+        <v>58.6</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>0.51</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10582,42 +10590,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-17.68</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="W53" t="n">
-        <v>-8</v>
+        <v>-33</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10626,20 +10634,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-32.55</v>
+        <v>13.58</v>
       </c>
       <c r="AC53" t="n">
-        <v>-12.42</v>
+        <v>-6.02</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>-1.62</v>
+        <v>3.26</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10658,14 +10666,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>16.54</v>
       </c>
       <c r="AK53" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10678,11 +10686,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10722,7 +10730,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10731,35 +10739,35 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>1.2</v>
+        <v>2.04</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -10772,42 +10780,42 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-27.18</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U54" t="b">
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>-3</v>
+        <v>-16</v>
       </c>
       <c r="W54" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="X54" t="b">
         <v>0</v>
@@ -10816,20 +10824,20 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-39.82</v>
+        <v>-32.55</v>
       </c>
       <c r="AC54" t="n">
-        <v>-21.15</v>
+        <v>-12.42</v>
       </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>-0.88</v>
+        <v>-1.62</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -10848,14 +10856,14 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ54" t="n">
         <v>16.54</v>
       </c>
       <c r="AK54" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL54" t="inlineStr">
         <is>
@@ -10868,11 +10876,11 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
@@ -10912,7 +10920,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10921,40 +10929,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-1.4</v>
+        <v>0.35</v>
       </c>
       <c r="D55" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="H55" t="n">
-        <v>57.4</v>
+        <v>57.6</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>1.54</v>
+        <v>2.21</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -10962,42 +10970,42 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-23.33</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U55" t="b">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="W55" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="X55" t="b">
         <v>0</v>
@@ -11006,20 +11014,20 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>-46.57</v>
+        <v>-39.82</v>
       </c>
       <c r="AC55" t="n">
-        <v>-30.99</v>
+        <v>-21.15</v>
       </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>-0.5</v>
+        <v>-0.88</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11038,14 +11046,14 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ55" t="n">
         <v>16.54</v>
       </c>
       <c r="AK55" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
@@ -11058,11 +11066,11 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -11102,7 +11110,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11111,40 +11119,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.51</v>
+        <v>-1.4</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="H56" t="n">
-        <v>58.2</v>
+        <v>57.4</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>0.17</v>
+        <v>2.55</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -11152,42 +11160,42 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-16.64</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
           <t>0.58</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
       <c r="U56" t="b">
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="X56" t="b">
         <v>0</v>
@@ -11196,20 +11204,20 @@
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>-35.25</v>
+        <v>-46.57</v>
       </c>
       <c r="AC56" t="n">
-        <v>-21.69</v>
+        <v>-30.99</v>
       </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>-0.63</v>
+        <v>-0.5</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11228,14 +11236,14 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ56" t="n">
         <v>16.54</v>
       </c>
       <c r="AK56" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL56" t="inlineStr">
         <is>
@@ -11248,11 +11256,11 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
@@ -11292,7 +11300,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -11301,40 +11309,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
       <c r="D57" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>58.5</v>
+        <v>58.2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>-0.34</v>
+        <v>1.19</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -11342,42 +11350,42 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-4.39</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
           <t>0.61</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
       <c r="U57" t="b">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W57" t="n">
-        <v>17</v>
+        <v>-13</v>
       </c>
       <c r="X57" t="b">
         <v>0</v>
@@ -11386,20 +11394,20 @@
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>-16.02</v>
+        <v>-35.25</v>
       </c>
       <c r="AC57" t="n">
-        <v>-22</v>
+        <v>-21.69</v>
       </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.27</v>
+        <v>-0.63</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
@@ -11418,14 +11426,14 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ57" t="n">
         <v>16.54</v>
       </c>
       <c r="AK57" t="n">
-        <v>12.79</v>
+        <v>12.92</v>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
@@ -11438,11 +11446,11 @@
         </is>
       </c>
       <c r="AN57" t="n">
-        <v>71.04000000000001</v>
+        <v>71.44</v>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV57"/>
+  <dimension ref="A1:AV53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,15 +687,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -724,46 +724,46 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>43.31</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="W2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X2" t="b">
         <v>1</v>
@@ -772,20 +772,20 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>25.4</v>
+        <v>11.52</v>
       </c>
       <c r="AC2" t="n">
-        <v>17.8</v>
+        <v>5.41</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,83 +877,83 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>32.21</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="W3" t="n">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="X3" t="b">
         <v>1</v>
@@ -962,20 +962,20 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>2.45</v>
+        <v>25.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>-19.46</v>
+        <v>17.8</v>
       </c>
       <c r="AD3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1067,35 +1067,35 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.29</v>
+        <v>0.29</v>
       </c>
       <c r="D4" t="n">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1104,68 +1104,68 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="W4" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="X4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-1.55</v>
+        <v>2.45</v>
       </c>
       <c r="AC4" t="n">
-        <v>-26</v>
+        <v>-19.46</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1257,35 +1257,35 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.59</v>
+        <v>-0.29</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="H5" t="n">
-        <v>17.1</v>
+        <v>17.05</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.58</v>
+        <v>0.87</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1294,46 +1294,46 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="W5" t="n">
-        <v>-36</v>
+        <v>-21</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1342,20 +1342,20 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>16.99</v>
+        <v>-1.55</v>
       </c>
       <c r="AC5" t="n">
-        <v>-24.37</v>
+        <v>-26</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1447,35 +1447,35 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1.16</v>
+        <v>0.58</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1484,46 +1484,46 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>25.92</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="W6" t="n">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1532,20 +1532,20 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-8.609999999999999</v>
+        <v>16.99</v>
       </c>
       <c r="AC6" t="n">
-        <v>-27.24</v>
+        <v>-24.37</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1637,83 +1637,83 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.88</v>
+        <v>0.88</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.85</v>
+        <v>17</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>2.03</v>
+        <v>1.16</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="W7" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1722,20 +1722,20 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-3.35</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-26.02</v>
+        <v>-27.24</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1827,83 +1827,83 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.19</v>
+        <v>-0.88</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>16.85</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1.16</v>
+        <v>2.03</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>-31</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1912,20 +1912,20 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-27.63</v>
+        <v>-3.35</v>
       </c>
       <c r="AC8" t="n">
-        <v>-25.4</v>
+        <v>-26.02</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2017,83 +2017,83 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>2.33</v>
+        <v>1.16</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="W9" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2102,20 +2102,20 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-36.74</v>
+        <v>-27.63</v>
       </c>
       <c r="AC9" t="n">
-        <v>-28.26</v>
+        <v>-25.4</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.3</v>
+        <v>-0.09</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2207,15 +2207,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2230,12 +2230,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2244,26 +2244,26 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2273,17 +2273,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-33</v>
+        <v>-15</v>
       </c>
       <c r="W10" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2292,20 +2292,20 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-38.43</v>
+        <v>-36.74</v>
       </c>
       <c r="AC10" t="n">
-        <v>-25.87</v>
+        <v>-28.26</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.49</v>
+        <v>-0.3</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2397,63 +2397,63 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="D11" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1.74</v>
+        <v>2.33</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-40</v>
+        <v>-33</v>
       </c>
       <c r="W11" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2482,20 +2482,20 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-37.55</v>
+        <v>-38.43</v>
       </c>
       <c r="AC11" t="n">
-        <v>-25.98</v>
+        <v>-25.87</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.45</v>
+        <v>-0.49</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2587,83 +2587,83 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.18</v>
+        <v>0.59</v>
       </c>
       <c r="D12" t="n">
-        <v>284</v>
+        <v>91</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>2.33</v>
+        <v>1.74</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-16</v>
+        <v>-40</v>
       </c>
       <c r="W12" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2672,20 +2672,20 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-36.65</v>
+        <v>-37.55</v>
       </c>
       <c r="AC12" t="n">
-        <v>-29.92</v>
+        <v>-25.98</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.22</v>
+        <v>-0.45</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2777,53 +2777,53 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.29</v>
+        <v>-1.18</v>
       </c>
       <c r="D13" t="n">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1.16</v>
+        <v>2.33</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2843,17 +2843,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>-16</v>
       </c>
       <c r="W13" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2862,20 +2862,20 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-22.95</v>
+        <v>-36.65</v>
       </c>
       <c r="AC13" t="n">
-        <v>-19.52</v>
+        <v>-29.92</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2967,35 +2967,35 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.58</v>
+        <v>-0.29</v>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="H14" t="n">
-        <v>17.05</v>
+        <v>17</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.87</v>
+        <v>1.16</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3004,46 +3004,46 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>23.65</t>
+          <t>22.72</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3052,20 +3052,20 @@
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-15.72</v>
+        <v>-22.95</v>
       </c>
       <c r="AC14" t="n">
-        <v>-13.02</v>
+        <v>-19.52</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.21</v>
+        <v>-0.18</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -3148,118 +3148,126 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>6508</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.14</v>
+        <v>-1.05</v>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>17.15</v>
+        <v>28.5</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>23.92</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>11.76</v>
+        <v>-5.81</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.09</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="AD15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.93</v>
+        <v>0.42</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>達邦蛋白</t>
+          <t>惠光</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3274,41 +3282,41 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>0.95</v>
+        <v>5.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>172</v>
+        <v>29.08</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>21.93%</t>
+          <t>26.26%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
+          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>達邦蛋白-農業科技業-上櫃</t>
+          <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -3317,7 +3325,7 @@
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>15.23</v>
+        <v>27.88</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
@@ -3331,7 +3339,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 食品 - 原物料</t>
+          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3374,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.05</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3375,7 +3383,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3388,7 +3396,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3435,7 +3443,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3472,14 +3480,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>5.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3492,11 +3500,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3564,7 +3572,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.17</v>
+        <v>-0.88</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3573,7 +3581,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3586,7 +3594,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3633,7 +3641,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -3670,14 +3678,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>5.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3690,11 +3698,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3762,7 +3770,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.35</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3771,7 +3779,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3784,7 +3792,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3831,7 +3839,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -3868,14 +3876,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>5.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3888,11 +3896,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3960,7 +3968,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3969,7 +3977,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3982,7 +3990,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -4029,7 +4037,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -4066,14 +4074,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>5.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4086,11 +4094,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4158,7 +4166,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-0.17</v>
+        <v>-1.23</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4167,7 +4175,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4180,7 +4188,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4227,7 +4235,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -4264,14 +4272,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>5.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4284,11 +4292,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4356,7 +4364,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.35</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4365,7 +4373,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4378,7 +4386,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -4425,7 +4433,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -4462,14 +4470,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>5.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4482,11 +4490,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4554,7 +4562,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.05</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -4563,7 +4571,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4576,7 +4584,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4623,7 +4631,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -4660,14 +4668,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>5.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4680,11 +4688,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4752,7 +4760,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>1.22</v>
+        <v>0.18</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -4761,7 +4769,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4774,7 +4782,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4821,7 +4829,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -4858,14 +4866,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>5.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4878,11 +4886,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4950,7 +4958,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-0.35</v>
+        <v>-1.4</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -4959,7 +4967,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4972,7 +4980,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -5019,7 +5027,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -5056,14 +5064,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>5.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5076,11 +5084,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5148,7 +5156,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-0.52</v>
+        <v>-1.58</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5157,7 +5165,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5170,7 +5178,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -5217,7 +5225,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -5254,14 +5262,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>5.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5274,11 +5282,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5346,7 +5354,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5355,7 +5363,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5368,7 +5376,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -5415,7 +5423,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -5452,14 +5460,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>5.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5472,11 +5480,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5544,7 +5552,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>0.17</v>
+        <v>-0.88</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -5553,7 +5561,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5566,7 +5574,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -5613,7 +5621,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -5650,14 +5658,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>5.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>29.39</v>
+        <v>29.08</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5670,11 +5678,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5714,126 +5722,126 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.19</v>
+        <v>9.65</v>
       </c>
       <c r="D28" t="n">
-        <v>69</v>
+        <v>1302</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>19.27</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="H28" t="n">
-        <v>28.65</v>
+        <v>26.15</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>147.52</t>
+          <t>107.77</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="W28" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>38.59</v>
+        <v>114.01</v>
       </c>
       <c r="AC28" t="n">
-        <v>28.27</v>
+        <v>78.69</v>
       </c>
       <c r="AD28" t="b">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5848,41 +5856,39 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -5891,7 +5897,7 @@
         </is>
       </c>
       <c r="AS28" t="n">
-        <v>27.88</v>
+        <v>12.24</v>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
@@ -5900,138 +5906,138 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.35</v>
+        <v>1.04</v>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>692</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>20.67</t>
+          <t>53.15</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>28.3</v>
+        <v>23.8</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>1.74</v>
+        <v>8.99</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>97.29</t>
+          <t>100.91</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="W29" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>34.66</v>
+        <v>76.91</v>
       </c>
       <c r="AC29" t="n">
-        <v>21.09</v>
+        <v>55.04</v>
       </c>
       <c r="AD29" t="b">
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -6046,41 +6052,39 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>29.39</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -6089,7 +6093,7 @@
         </is>
       </c>
       <c r="AS29" t="n">
-        <v>27.88</v>
+        <v>12.24</v>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
@@ -6098,19 +6102,19 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6119,40 +6123,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.04</v>
+        <v>9.5</v>
       </c>
       <c r="D30" t="n">
-        <v>692</v>
+        <v>580</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>57.76</t>
+          <t>44.55</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>23.8</v>
+        <v>23.55</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>9.94</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -6160,42 +6164,42 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>100.91</t>
+          <t>121.80</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -6207,25 +6211,25 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>76.91</v>
+        <v>46.21</v>
       </c>
       <c r="AC30" t="n">
-        <v>55.04</v>
+        <v>39.07</v>
       </c>
       <c r="AD30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6262,11 +6266,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6306,7 +6310,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6315,40 +6319,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.5</v>
+        <v>-4.04</v>
       </c>
       <c r="D31" t="n">
-        <v>580</v>
+        <v>92</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>48.41</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>23.55</v>
+        <v>21.45</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>17.97</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -6356,42 +6360,42 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>-3.20</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>121.80</t>
+          <t>143.42</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="W31" t="n">
-        <v>-12</v>
+        <v>-46</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6403,25 +6407,25 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>46.21</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>39.07</v>
+        <v>26.1</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.18</v>
+        <v>-1.33</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6458,11 +6462,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6490,7 +6494,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6502,7 +6506,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6511,40 +6515,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-4.04</v>
+        <v>1.54</v>
       </c>
       <c r="D32" t="n">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>21.45</v>
+        <v>22.35</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>9.869999999999999</v>
+        <v>14.53</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -6552,42 +6556,42 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>143.42</t>
+          <t>323.04</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="W32" t="n">
-        <v>-46</v>
+        <v>3</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6599,25 +6603,25 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-8.630000000000001</v>
+        <v>-46.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>26.1</v>
+        <v>31.55</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.33</v>
+        <v>-2.48</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6654,11 +6658,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6686,7 +6690,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6698,7 +6702,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6707,40 +6711,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.54</v>
+        <v>-2.23</v>
       </c>
       <c r="D33" t="n">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>22.35</v>
+        <v>22</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>6.09</v>
+        <v>15.87</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -6748,42 +6752,42 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>323.04</t>
+          <t>1911.89</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>-8</v>
+        <v>29</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6795,25 +6799,25 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-46.6</v>
+        <v>-24.79</v>
       </c>
       <c r="AC33" t="n">
-        <v>31.55</v>
+        <v>27.01</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-2.48</v>
+        <v>-1.92</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6850,11 +6854,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6882,7 +6886,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6894,7 +6898,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6903,40 +6907,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-2.23</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>7.56</v>
+        <v>13.96</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -6944,42 +6948,42 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1911.89</t>
+          <t>607.10</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="W34" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -6991,25 +6995,25 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-24.79</v>
+        <v>11.97</v>
       </c>
       <c r="AC34" t="n">
-        <v>27.01</v>
+        <v>26.94</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-1.92</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7046,11 +7050,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7078,7 +7082,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7090,7 +7094,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7099,35 +7103,35 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="D35" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="H35" t="n">
         <v>22.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>5.46</v>
+        <v>13.96</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -7140,42 +7144,42 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>259.80</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
           <t>0.31</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>607.10</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="W35" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7187,25 +7191,25 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>11.97</v>
+        <v>30.28</v>
       </c>
       <c r="AC35" t="n">
-        <v>26.94</v>
+        <v>32.02</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7242,11 +7246,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7286,7 +7290,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7295,40 +7299,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.35</v>
+        <v>-4.72</v>
       </c>
       <c r="D36" t="n">
-        <v>103</v>
+        <v>555</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>42.63</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="H36" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>5.46</v>
+        <v>15.11</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -7336,42 +7340,42 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>259.80</t>
+          <t>163.27</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="W36" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7383,25 +7387,25 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>30.28</v>
+        <v>37.91</v>
       </c>
       <c r="AC36" t="n">
-        <v>32.02</v>
+        <v>27.06</v>
       </c>
       <c r="AD36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.05</v>
+        <v>0.4</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7438,11 +7442,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7482,7 +7486,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7491,40 +7495,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-4.72</v>
+        <v>9.74</v>
       </c>
       <c r="D37" t="n">
-        <v>555</v>
+        <v>485</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>46.33</t>
+          <t>37.25</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="H37" t="n">
-        <v>22.2</v>
+        <v>23.3</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>6.72</v>
+        <v>10.9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -7532,42 +7536,42 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>163.27</t>
+          <t>120.51</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="W37" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7579,25 +7583,25 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>37.91</v>
+        <v>64.52</v>
       </c>
       <c r="AC37" t="n">
-        <v>27.06</v>
+        <v>44.82</v>
       </c>
       <c r="AD37" t="b">
         <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7634,11 +7638,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7678,7 +7682,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7687,40 +7691,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9.74</v>
+        <v>0.47</v>
       </c>
       <c r="D38" t="n">
-        <v>485</v>
+        <v>100</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>40.48</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>23.3</v>
+        <v>21.2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>2.1</v>
+        <v>18.93</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7728,42 +7732,42 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>120.51</t>
+          <t>72.71</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="W38" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -7775,25 +7779,25 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>64.52</v>
+        <v>45.54</v>
       </c>
       <c r="AC38" t="n">
-        <v>44.82</v>
+        <v>25.33</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7830,11 +7834,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7874,7 +7878,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7883,40 +7887,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>10.92</v>
+        <v>19.31</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -7924,42 +7928,42 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>72.71</t>
+          <t>61.23</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="W39" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -7971,25 +7975,25 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>45.54</v>
+        <v>36.17</v>
       </c>
       <c r="AC39" t="n">
-        <v>25.33</v>
+        <v>29.85</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8026,11 +8030,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8070,7 +8074,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8079,40 +8083,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.43</v>
       </c>
       <c r="D40" t="n">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>11.34</v>
+        <v>20.08</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -8120,72 +8124,64 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>61.23</t>
+          <t>50.76</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="W40" t="n">
-        <v>7</v>
+        <v>-32</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
       </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>2025-05-31</t>
-        </is>
-      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>36.17</v>
+        <v>33.67</v>
       </c>
       <c r="AC40" t="n">
-        <v>29.85</v>
+        <v>-14.66</v>
       </c>
       <c r="AD40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.21</v>
+        <v>3.3</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8222,11 +8218,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8254,7 +8250,7 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV40" t="inlineStr">
@@ -8266,118 +8262,126 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.43</v>
+        <v>1.19</v>
       </c>
       <c r="D41" t="n">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>20.9</v>
+        <v>59.6</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.79</v>
+        <v>-0.02</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>50.76</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>14</v>
       </c>
       <c r="W41" t="n">
-        <v>-32</v>
+        <v>27</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
       </c>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>33.67</v>
+        <v>29.45</v>
       </c>
       <c r="AC41" t="n">
-        <v>-14.66</v>
+        <v>21.88</v>
       </c>
       <c r="AD41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41" t="n">
-        <v>3.3</v>
+        <v>0.35</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -8392,48 +8396,50 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK41" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS41" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT41" t="inlineStr">
         <is>
@@ -8447,99 +8453,99 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.74</v>
+        <v>1.03</v>
       </c>
       <c r="D42" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>20</v>
+        <v>58.9</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>15.97</v>
+        <v>1.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.79</v>
+        <v>-0.02</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>41.49</t>
+          <t>-6.39</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>-64</v>
+        <v>13</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8548,24 +8554,24 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>5.2</v>
+        <v>23.62</v>
       </c>
       <c r="AC42" t="n">
-        <v>-15.7</v>
+        <v>19.96</v>
       </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.33</v>
+        <v>0.18</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -8580,48 +8586,50 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ42" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK42" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS42" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT42" t="inlineStr">
         <is>
@@ -8635,99 +8643,99 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>19.85</v>
+        <v>58.3</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>16.6</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.79</v>
+        <v>-0.02</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>39.74</t>
+          <t>-17.07</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="W43" t="n">
-        <v>-72</v>
+        <v>-7</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8736,24 +8744,24 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-72</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-12.02</v>
+        <v>-1.18</v>
       </c>
       <c r="AC43" t="n">
-        <v>-10.18</v>
+        <v>11.84</v>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.18</v>
+        <v>-1.1</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -8768,48 +8776,50 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ43" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK43" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS43" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT43" t="inlineStr">
         <is>
@@ -8823,14 +8833,14 @@
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8839,40 +8849,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.03</v>
+        <v>0.34</v>
       </c>
       <c r="D44" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8880,42 +8890,42 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-6.39</t>
+          <t>-16.85</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="W44" t="n">
-        <v>13</v>
+        <v>-19</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8924,20 +8934,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>23.62</v>
+        <v>13.15</v>
       </c>
       <c r="AC44" t="n">
-        <v>19.96</v>
+        <v>19.66</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.18</v>
+        <v>-0.33</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8956,14 +8966,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>16.54</v>
       </c>
       <c r="AK44" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -8976,11 +8986,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9020,7 +9030,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9029,40 +9039,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.3</v>
+        <v>58.1</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>2.52</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -9070,42 +9080,42 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-17.07</t>
+          <t>-16.94</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="W45" t="n">
-        <v>-7</v>
+        <v>-25</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9114,20 +9124,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-1.18</v>
+        <v>14.87</v>
       </c>
       <c r="AC45" t="n">
-        <v>11.84</v>
+        <v>7.63</v>
       </c>
       <c r="AD45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" t="n">
-        <v>-1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9146,14 +9156,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>16.54</v>
       </c>
       <c r="AK45" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9166,11 +9176,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9210,7 +9220,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9219,35 +9229,35 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>1.02</v>
+        <v>2.01</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -9260,42 +9270,42 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-16.85</t>
+          <t>-12.55</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W46" t="n">
-        <v>-19</v>
+        <v>-10</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9304,20 +9314,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>13.15</v>
+        <v>9.52</v>
       </c>
       <c r="AC46" t="n">
-        <v>19.66</v>
+        <v>11.73</v>
       </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.33</v>
+        <v>-0.19</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9336,14 +9346,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>16.54</v>
       </c>
       <c r="AK46" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9356,11 +9366,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9400,7 +9410,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9409,40 +9419,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.51</v>
+        <v>0.17</v>
       </c>
       <c r="D47" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>1.36</v>
+        <v>2.18</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9450,42 +9460,42 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-16.94</t>
+          <t>-13.99</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="W47" t="n">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9494,20 +9504,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>14.87</v>
+        <v>15.46</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.63</v>
+        <v>-20.26</v>
       </c>
       <c r="AD47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.95</v>
+        <v>1.76</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9526,14 +9536,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>16.54</v>
       </c>
       <c r="AK47" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9546,11 +9556,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9590,7 +9600,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9599,40 +9609,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.17</v>
+        <v>-0.51</v>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>58.4</v>
+        <v>58.2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>0.85</v>
+        <v>2.35</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9640,42 +9650,42 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-12.55</t>
+          <t>-14.29</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="W48" t="n">
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9684,20 +9694,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>9.52</v>
+        <v>16.79</v>
       </c>
       <c r="AC48" t="n">
-        <v>11.73</v>
+        <v>-25.53</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>-0.19</v>
+        <v>1.66</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9716,14 +9726,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>16.54</v>
       </c>
       <c r="AK48" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9736,11 +9746,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9780,7 +9790,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9789,35 +9799,35 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.17</v>
+        <v>0.68</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>58.3</v>
+        <v>58.5</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -9830,42 +9840,42 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-13.99</t>
+          <t>-13.01</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="W49" t="n">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9874,20 +9884,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>15.46</v>
+        <v>24.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>-20.26</v>
+        <v>-28</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9906,14 +9916,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>16.54</v>
       </c>
       <c r="AK49" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9926,11 +9936,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9970,7 +9980,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9979,35 +9989,35 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.51</v>
+        <v>-0.85</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>1.19</v>
+        <v>2.52</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -10020,42 +10030,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-14.29</t>
+          <t>-18.22</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>3</v>
+        <v>-15</v>
       </c>
       <c r="W50" t="n">
-        <v>-19</v>
+        <v>-10</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10064,20 +10074,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>16.79</v>
+        <v>-10.24</v>
       </c>
       <c r="AC50" t="n">
-        <v>-25.53</v>
+        <v>-25.95</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.66</v>
+        <v>0.61</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10096,14 +10106,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>16.54</v>
       </c>
       <c r="AK50" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10116,11 +10126,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10160,7 +10170,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10169,40 +10179,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.68</v>
+        <v>1.56</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>0.68</v>
+        <v>1.68</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10210,42 +10220,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-13.01</t>
+          <t>-17.68</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
-        <v>-21</v>
+        <v>-33</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10254,20 +10264,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>24.5</v>
+        <v>13.58</v>
       </c>
       <c r="AC51" t="n">
-        <v>-28</v>
+        <v>-6.02</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.88</v>
+        <v>3.26</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10286,14 +10296,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>16.54</v>
       </c>
       <c r="AK51" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10306,11 +10316,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10350,7 +10360,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10359,40 +10369,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.85</v>
+        <v>0.17</v>
       </c>
       <c r="D52" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>58.1</v>
+        <v>57.7</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>1.36</v>
+        <v>3.19</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10400,42 +10410,42 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>-27.18</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
           <t>0.38</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>-18.22</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="W52" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10444,20 +10454,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-10.24</v>
+        <v>-32.55</v>
       </c>
       <c r="AC52" t="n">
-        <v>-25.95</v>
+        <v>-12.42</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.61</v>
+        <v>-1.62</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10476,14 +10486,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>16.54</v>
       </c>
       <c r="AK52" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10496,11 +10506,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10540,7 +10550,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10549,40 +10559,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.56</v>
+        <v>0.35</v>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="H53" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>0.51</v>
+        <v>3.36</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10590,42 +10600,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-17.68</t>
+          <t>-23.33</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="W53" t="n">
-        <v>-33</v>
+        <v>-6</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10634,20 +10644,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>13.58</v>
+        <v>-39.82</v>
       </c>
       <c r="AC53" t="n">
-        <v>-6.02</v>
+        <v>-21.15</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>3.26</v>
+        <v>-0.88</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10666,14 +10676,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>16.54</v>
       </c>
       <c r="AK53" t="n">
-        <v>12.92</v>
+        <v>13.07</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10686,11 +10696,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>71.44</v>
+        <v>71.38</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10722,766 +10732,6 @@
         </is>
       </c>
       <c r="AV53" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D54" t="n">
-        <v>16</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>-27.18</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="U54" t="b">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
-        <v>-16</v>
-      </c>
-      <c r="W54" t="n">
-        <v>-8</v>
-      </c>
-      <c r="X54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="AB54" t="n">
-        <v>-32.55</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>-12.42</v>
-      </c>
-      <c r="AD54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="AJ54" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AL54" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN54" t="n">
-        <v>71.44</v>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>2435</t>
-        </is>
-      </c>
-      <c r="AP54" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ54" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS54" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT54" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU54" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV54" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D55" t="n">
-        <v>17</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H55" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>-0.76</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>-23.33</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="U55" t="b">
-        <v>0</v>
-      </c>
-      <c r="V55" t="n">
-        <v>-3</v>
-      </c>
-      <c r="W55" t="n">
-        <v>-6</v>
-      </c>
-      <c r="X55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="AB55" t="n">
-        <v>-39.82</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>-21.15</v>
-      </c>
-      <c r="AD55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="AJ55" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AL55" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN55" t="n">
-        <v>71.44</v>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>2435</t>
-        </is>
-      </c>
-      <c r="AP55" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ55" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS55" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT55" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU55" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV55" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="D56" t="n">
-        <v>43</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H56" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>-1.48</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>-16.64</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="U56" t="b">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>9</v>
-      </c>
-      <c r="W56" t="n">
-        <v>-10</v>
-      </c>
-      <c r="X56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="AB56" t="n">
-        <v>-46.57</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>-30.99</v>
-      </c>
-      <c r="AD56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="AJ56" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AL56" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN56" t="n">
-        <v>71.44</v>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>2435</t>
-        </is>
-      </c>
-      <c r="AP56" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ56" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR56" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS56" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT56" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU56" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV56" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="D57" t="n">
-        <v>10</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>-0.55</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>-4.39</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="U57" t="b">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>8</v>
-      </c>
-      <c r="W57" t="n">
-        <v>-13</v>
-      </c>
-      <c r="X57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="AB57" t="n">
-        <v>-35.25</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>-21.69</v>
-      </c>
-      <c r="AD57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="AJ57" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AL57" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN57" t="n">
-        <v>71.44</v>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>2435</t>
-        </is>
-      </c>
-      <c r="AP57" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ57" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR57" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS57" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT57" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU57" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV57" t="inlineStr">
         <is>
           <t>** 其他 - 農業科技業</t>
         </is>

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -690,12 +690,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -728,64 +728,64 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>43.31</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="W2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>11.52</v>
+        <v>-17.09</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.41</v>
+        <v>-1.3</v>
       </c>
       <c r="AD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.13</v>
+        <v>-12.15</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,15 +877,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -900,12 +900,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -918,42 +918,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>43.31</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="W3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X3" t="b">
         <v>1</v>
@@ -962,20 +962,20 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>25.4</v>
+        <v>11.52</v>
       </c>
       <c r="AC3" t="n">
-        <v>17.8</v>
+        <v>5.41</v>
       </c>
       <c r="AD3" t="b">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1067,40 +1067,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -1108,42 +1108,42 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>32.21</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="W4" t="n">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="X4" t="b">
         <v>1</v>
@@ -1152,20 +1152,20 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>2.45</v>
+        <v>25.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>-19.46</v>
+        <v>17.8</v>
       </c>
       <c r="AD4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1257,35 +1257,35 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.29</v>
+        <v>0.29</v>
       </c>
       <c r="D5" t="n">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1298,64 +1298,64 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="W5" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="X5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>-1.55</v>
+        <v>2.45</v>
       </c>
       <c r="AC5" t="n">
-        <v>-26</v>
+        <v>-19.46</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1447,35 +1447,35 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.59</v>
+        <v>-0.29</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="H6" t="n">
-        <v>17.1</v>
+        <v>17.05</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0.58</v>
+        <v>0.87</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1488,42 +1488,42 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="W6" t="n">
-        <v>-36</v>
+        <v>-21</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -1532,20 +1532,20 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>16.99</v>
+        <v>-1.55</v>
       </c>
       <c r="AC6" t="n">
-        <v>-24.37</v>
+        <v>-26</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1637,35 +1637,35 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>1.16</v>
+        <v>0.58</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1678,42 +1678,42 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>25.92</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1722,20 +1722,20 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-8.609999999999999</v>
+        <v>16.99</v>
       </c>
       <c r="AC7" t="n">
-        <v>-27.24</v>
+        <v>-24.37</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1827,40 +1827,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.88</v>
+        <v>0.88</v>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>16.85</v>
+        <v>17</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>2.03</v>
+        <v>1.16</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1868,42 +1868,42 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="W8" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1912,20 +1912,20 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-3.35</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>-26.02</v>
+        <v>-27.24</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2017,40 +2017,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.19</v>
+        <v>-0.88</v>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>16.85</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1.16</v>
+        <v>2.03</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -2058,42 +2058,42 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
-        <v>17</v>
+        <v>-31</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2102,20 +2102,20 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-27.63</v>
+        <v>-3.35</v>
       </c>
       <c r="AC9" t="n">
-        <v>-25.4</v>
+        <v>-26.02</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2207,40 +2207,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>2.33</v>
+        <v>1.16</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2248,42 +2248,42 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="W10" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2292,20 +2292,20 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-36.74</v>
+        <v>-27.63</v>
       </c>
       <c r="AC10" t="n">
-        <v>-28.26</v>
+        <v>-25.4</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.3</v>
+        <v>-0.09</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2397,15 +2397,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2420,12 +2420,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2438,22 +2438,22 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-33</v>
+        <v>-15</v>
       </c>
       <c r="W11" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2482,20 +2482,20 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-38.43</v>
+        <v>-36.74</v>
       </c>
       <c r="AC11" t="n">
-        <v>-25.87</v>
+        <v>-28.26</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.49</v>
+        <v>-0.3</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="D12" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1.74</v>
+        <v>2.33</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2628,22 +2628,22 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2653,17 +2653,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-40</v>
+        <v>-33</v>
       </c>
       <c r="W12" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2672,20 +2672,20 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-37.55</v>
+        <v>-38.43</v>
       </c>
       <c r="AC12" t="n">
-        <v>-25.98</v>
+        <v>-25.87</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.45</v>
+        <v>-0.49</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2777,40 +2777,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.18</v>
+        <v>0.59</v>
       </c>
       <c r="D13" t="n">
-        <v>284</v>
+        <v>91</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>2.33</v>
+        <v>1.74</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2818,42 +2818,42 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-16</v>
+        <v>-40</v>
       </c>
       <c r="W13" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2862,20 +2862,20 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-36.65</v>
+        <v>-37.55</v>
       </c>
       <c r="AC13" t="n">
-        <v>-29.92</v>
+        <v>-25.98</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.22</v>
+        <v>-0.45</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2967,40 +2967,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.29</v>
+        <v>-1.18</v>
       </c>
       <c r="D14" t="n">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>1.16</v>
+        <v>2.33</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3033,17 +3033,17 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>-16</v>
       </c>
       <c r="W14" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3052,20 +3052,20 @@
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-22.95</v>
+        <v>-36.65</v>
       </c>
       <c r="AC14" t="n">
-        <v>-19.52</v>
+        <v>-29.92</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.05</v>
+        <v>0.35</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -3190,47 +3190,47 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-6.56</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
@@ -3238,32 +3238,24 @@
       <c r="X15" t="b">
         <v>0</v>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-5.81</v>
+        <v>10.39</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9.960000000000001</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.42</v>
+        <v>2.62</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3282,14 +3274,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>5.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3302,11 +3294,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3346,7 +3338,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3355,30 +3347,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.17</v>
+        <v>-1.05</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-1.05</v>
+        <v>0.35</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3388,35 +3380,35 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3431,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -3448,20 +3440,20 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>13.52</v>
+        <v>-5.81</v>
       </c>
       <c r="AC16" t="n">
-        <v>-12.76</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.06</v>
+        <v>0.42</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3480,14 +3472,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>5.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3500,11 +3492,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3544,7 +3536,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3553,30 +3545,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.53</v>
+        <v>0.17</v>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28.75</v>
+        <v>28.8</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-0.88</v>
+        <v>-0.7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3590,26 +3582,26 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3626,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -3646,20 +3638,20 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-8.99</v>
+        <v>13.52</v>
       </c>
       <c r="AC17" t="n">
-        <v>-12.35</v>
+        <v>-12.76</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.27</v>
+        <v>2.06</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3678,14 +3670,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>5.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3698,11 +3690,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3742,7 +3734,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3751,30 +3743,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.18</v>
+        <v>0.53</v>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>28.6</v>
+        <v>28.75</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-0.35</v>
+        <v>-0.52</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3788,46 +3780,46 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="W18" t="n">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -3844,20 +3836,20 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-16.26</v>
+        <v>-8.99</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.66</v>
+        <v>-12.35</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-7.11</v>
+        <v>0.27</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3876,14 +3868,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>5.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3896,11 +3888,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3940,7 +3932,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3949,30 +3941,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.18</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>28.65</v>
+        <v>28.6</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3986,46 +3978,46 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="W19" t="n">
-        <v>-41</v>
+        <v>-25</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4042,20 +4034,20 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-13.78</v>
+        <v>-16.26</v>
       </c>
       <c r="AC19" t="n">
-        <v>17.41</v>
+        <v>2.66</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-1.79</v>
+        <v>-7.11</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4074,14 +4066,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>5.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4094,11 +4086,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4138,7 +4130,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4147,30 +4139,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.87</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="H20" t="n">
-        <v>28.85</v>
+        <v>28.65</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-1.23</v>
+        <v>-0.17</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -4184,46 +4176,46 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>45.73</t>
+          <t>30.16</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="W20" t="n">
-        <v>-53</v>
+        <v>-41</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4240,20 +4232,20 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-12.83</v>
+        <v>-13.78</v>
       </c>
       <c r="AC20" t="n">
-        <v>23.3</v>
+        <v>17.41</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-1.55</v>
+        <v>-1.79</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4272,14 +4264,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>5.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4292,11 +4284,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4336,7 +4328,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4345,30 +4337,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7</v>
+        <v>0.87</v>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="H21" t="n">
-        <v>28.6</v>
+        <v>28.85</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-0.35</v>
+        <v>-0.87</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -4382,36 +4374,36 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U21" t="b">
@@ -4421,7 +4413,7 @@
         <v>7</v>
       </c>
       <c r="W21" t="n">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4438,20 +4430,20 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>-22.55</v>
+        <v>-12.83</v>
       </c>
       <c r="AC21" t="n">
-        <v>27.68</v>
+        <v>23.3</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.81</v>
+        <v>-1.55</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4470,14 +4462,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>5.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4490,11 +4482,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4534,7 +4526,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4543,30 +4535,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.23</v>
+        <v>-0.7</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>0.96</v>
       </c>
       <c r="H22" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-1.05</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -4580,26 +4572,26 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -4609,17 +4601,17 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W22" t="n">
-        <v>-61</v>
+        <v>-56</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4636,20 +4628,20 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-14.97</v>
+        <v>-22.55</v>
       </c>
       <c r="AC22" t="n">
-        <v>30.8</v>
+        <v>27.68</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>-1.49</v>
+        <v>-1.81</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4668,14 +4660,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>5.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4688,11 +4680,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4732,7 +4724,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4741,30 +4733,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-1.6</v>
+        <v>1.23</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="H23" t="n">
-        <v>28.45</v>
+        <v>28.8</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.18</v>
+        <v>-0.7</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4774,50 +4766,50 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>138.37</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W23" t="n">
-        <v>-25</v>
+        <v>-61</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4834,20 +4826,20 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>16.69</v>
+        <v>-14.97</v>
       </c>
       <c r="AC23" t="n">
-        <v>29.73</v>
+        <v>30.8</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.44</v>
+        <v>-1.49</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4866,14 +4858,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>5.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4886,11 +4878,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4930,7 +4922,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4939,30 +4931,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.17</v>
+        <v>-1.6</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="H24" t="n">
-        <v>28.9</v>
+        <v>28.45</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-1.4</v>
+        <v>0.52</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4972,50 +4964,50 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>275.74</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W24" t="n">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5032,20 +5024,20 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>28.21</v>
+        <v>16.69</v>
       </c>
       <c r="AC24" t="n">
-        <v>31.6</v>
+        <v>29.73</v>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.11</v>
+        <v>-0.44</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5064,14 +5056,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>5.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5084,11 +5076,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5128,7 +5120,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5140,27 +5132,27 @@
         <v>-0.17</v>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="H25" t="n">
-        <v>28.95</v>
+        <v>28.9</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-1.58</v>
+        <v>-1.05</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -5174,46 +5166,46 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>978.99</t>
+          <t>275.74</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5230,20 +5222,20 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>35.36</v>
+        <v>28.21</v>
       </c>
       <c r="AC25" t="n">
-        <v>29.94</v>
+        <v>31.6</v>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5262,14 +5254,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>5.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5282,11 +5274,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5326,7 +5318,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5335,30 +5327,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.87</v>
+        <v>-0.17</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="H26" t="n">
-        <v>29</v>
+        <v>28.95</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-1.75</v>
+        <v>-1.22</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -5372,46 +5364,46 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>707.26</t>
+          <t>978.99</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5428,20 +5420,20 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>45.18</v>
+        <v>35.36</v>
       </c>
       <c r="AC26" t="n">
-        <v>32.89</v>
+        <v>29.94</v>
       </c>
       <c r="AD26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5460,14 +5452,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>5.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5480,11 +5472,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5524,7 +5516,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5533,30 +5525,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
       <c r="D27" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>25.70</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="H27" t="n">
-        <v>28.75</v>
+        <v>29</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-0.88</v>
+        <v>-1.4</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -5566,50 +5558,50 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>248.06</t>
+          <t>707.26</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="W27" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5626,20 +5618,20 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>46.06</v>
+        <v>45.18</v>
       </c>
       <c r="AC27" t="n">
-        <v>31.31</v>
+        <v>32.89</v>
       </c>
       <c r="AD27" t="b">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5658,14 +5650,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>5.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>29.08</v>
+        <v>29.18</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5678,11 +5670,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5722,7 +5714,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5731,10 +5723,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.65</v>
+        <v>3.21</v>
       </c>
       <c r="D28" t="n">
-        <v>1302</v>
+        <v>4205</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
@@ -5743,10 +5735,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="H28" t="n">
-        <v>26.15</v>
+        <v>27</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -5754,60 +5746,60 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>107.77</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="W28" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5819,25 +5811,25 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>114.01</v>
+        <v>186.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>78.69</v>
+        <v>127.91</v>
       </c>
       <c r="AD28" t="b">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5874,11 +5866,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5918,7 +5910,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5927,83 +5919,83 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.04</v>
+        <v>9.65</v>
       </c>
       <c r="D29" t="n">
-        <v>692</v>
+        <v>1302</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>53.15</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="H29" t="n">
-        <v>23.8</v>
+        <v>26.15</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>8.99</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>100.91</t>
+          <t>107.77</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="W29" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -6015,25 +6007,25 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>76.91</v>
+        <v>114.01</v>
       </c>
       <c r="AC29" t="n">
-        <v>55.04</v>
+        <v>78.69</v>
       </c>
       <c r="AD29" t="b">
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6070,11 +6062,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6114,7 +6106,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6123,83 +6115,83 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.5</v>
+        <v>1.04</v>
       </c>
       <c r="D30" t="n">
-        <v>580</v>
+        <v>692</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>44.55</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>23.55</v>
+        <v>23.8</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>9.94</v>
+        <v>11.85</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>121.80</t>
+          <t>100.91</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="W30" t="n">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -6211,25 +6203,25 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>46.21</v>
+        <v>76.91</v>
       </c>
       <c r="AC30" t="n">
-        <v>39.07</v>
+        <v>55.04</v>
       </c>
       <c r="AD30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6266,11 +6258,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6310,7 +6302,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6319,83 +6311,83 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-4.04</v>
+        <v>9.5</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>21.45</v>
+        <v>23.55</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>17.97</v>
+        <v>12.78</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>143.42</t>
+          <t>121.80</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="W31" t="n">
-        <v>-46</v>
+        <v>-12</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6407,25 +6399,25 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-8.630000000000001</v>
+        <v>46.21</v>
       </c>
       <c r="AC31" t="n">
-        <v>26.1</v>
+        <v>39.07</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1.33</v>
+        <v>0.18</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6462,11 +6454,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6494,7 +6486,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6506,7 +6498,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6515,83 +6507,83 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.54</v>
+        <v>-4.04</v>
       </c>
       <c r="D32" t="n">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>22.35</v>
+        <v>21.45</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>14.53</v>
+        <v>20.56</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-3.20</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>323.04</t>
+          <t>143.42</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>-46</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6603,25 +6595,25 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-46.6</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>31.55</v>
+        <v>26.1</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-2.48</v>
+        <v>-1.33</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6658,11 +6650,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6690,7 +6682,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6702,7 +6694,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6711,83 +6703,83 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-2.23</v>
+        <v>1.54</v>
       </c>
       <c r="D33" t="n">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>22</v>
+        <v>22.35</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>15.87</v>
+        <v>17.22</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1911.89</t>
+          <t>323.04</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>29</v>
+        <v>-8</v>
       </c>
       <c r="W33" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6799,25 +6791,25 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-24.79</v>
+        <v>-46.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>27.01</v>
+        <v>31.55</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.92</v>
+        <v>-2.48</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6854,11 +6846,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6886,7 +6878,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6898,7 +6890,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6907,83 +6899,83 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-2.23</v>
       </c>
       <c r="D34" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>13.96</v>
+        <v>18.52</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>607.10</t>
+          <t>1911.89</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="W34" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -6995,25 +6987,25 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>11.97</v>
+        <v>-24.79</v>
       </c>
       <c r="AC34" t="n">
-        <v>26.94</v>
+        <v>27.01</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7050,11 +7042,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7082,7 +7074,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7094,7 +7086,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7103,35 +7095,35 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>22.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>13.96</v>
+        <v>16.67</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -7140,46 +7132,46 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>259.80</t>
+          <t>607.10</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="W35" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7191,25 +7183,25 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>30.28</v>
+        <v>11.97</v>
       </c>
       <c r="AC35" t="n">
-        <v>32.02</v>
+        <v>26.94</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.05</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7246,11 +7238,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7290,7 +7282,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7299,83 +7291,83 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-4.72</v>
+        <v>1.35</v>
       </c>
       <c r="D36" t="n">
-        <v>555</v>
+        <v>103</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>42.63</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="H36" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>15.11</v>
+        <v>16.67</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>163.27</t>
+          <t>259.80</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="W36" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7387,25 +7379,25 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>37.91</v>
+        <v>30.28</v>
       </c>
       <c r="AC36" t="n">
-        <v>27.06</v>
+        <v>32.02</v>
       </c>
       <c r="AD36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.4</v>
+        <v>-0.05</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7442,11 +7434,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7486,7 +7478,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7495,83 +7487,83 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.74</v>
+        <v>-4.72</v>
       </c>
       <c r="D37" t="n">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="H37" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>10.9</v>
+        <v>17.78</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>120.51</t>
+          <t>163.27</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="W37" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7583,25 +7575,25 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>64.52</v>
+        <v>37.91</v>
       </c>
       <c r="AC37" t="n">
-        <v>44.82</v>
+        <v>27.06</v>
       </c>
       <c r="AD37" t="b">
         <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7638,11 +7630,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7682,7 +7674,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7691,83 +7683,83 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.47</v>
+        <v>9.74</v>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>485</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="H38" t="n">
-        <v>21.2</v>
+        <v>23.3</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>18.93</v>
+        <v>13.7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>72.71</t>
+          <t>120.51</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="W38" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -7779,25 +7771,25 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>45.54</v>
+        <v>64.52</v>
       </c>
       <c r="AC38" t="n">
-        <v>25.33</v>
+        <v>44.82</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7834,11 +7826,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7878,7 +7870,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7887,83 +7879,83 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="D39" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>19.31</v>
+        <v>21.48</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>61.23</t>
+          <t>72.71</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="W39" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -7975,25 +7967,25 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>36.17</v>
+        <v>45.54</v>
       </c>
       <c r="AC39" t="n">
-        <v>29.85</v>
+        <v>25.33</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8030,11 +8022,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8074,7 +8066,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8083,105 +8075,113 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>20.08</v>
+        <v>21.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>50.76</t>
+          <t>61.23</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="W40" t="n">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
       </c>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>33.67</v>
+        <v>36.17</v>
       </c>
       <c r="AC40" t="n">
-        <v>-14.66</v>
+        <v>29.85</v>
       </c>
       <c r="AD40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>3.3</v>
+        <v>0.21</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8218,11 +8218,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV40" t="inlineStr">
@@ -8262,7 +8262,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8271,22 +8271,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="D41" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>59.6</v>
+        <v>60.4</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -8299,55 +8299,55 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="W41" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8359,19 +8359,19 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>29.45</v>
+        <v>47.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>21.88</v>
+        <v>35.13</v>
       </c>
       <c r="AD41" t="b">
         <v>1</v>
@@ -8396,14 +8396,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>16.54</v>
       </c>
       <c r="AK41" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8416,11 +8416,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8460,7 +8460,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8469,26 +8469,26 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="D42" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.9</v>
+        <v>59.6</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -8497,77 +8497,85 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-6.39</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
       </c>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>23.62</v>
+        <v>29.45</v>
       </c>
       <c r="AC42" t="n">
-        <v>19.96</v>
+        <v>21.88</v>
       </c>
       <c r="AD42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8586,14 +8594,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>16.54</v>
       </c>
       <c r="AK42" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8606,11 +8614,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8650,7 +8658,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8659,26 +8667,26 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -8687,40 +8695,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-17.07</t>
+          <t>-6.39</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -8732,10 +8740,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8744,20 +8752,20 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-1.18</v>
+        <v>23.62</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.84</v>
+        <v>19.96</v>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-1.1</v>
+        <v>0.18</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8776,14 +8784,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>16.54</v>
       </c>
       <c r="AK43" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8796,11 +8804,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8840,7 +8848,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8849,15 +8857,15 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -8868,7 +8876,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>2.18</v>
+        <v>3.48</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -8877,7 +8885,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -8886,46 +8894,46 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-16.85</t>
+          <t>-17.07</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="W44" t="n">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8934,20 +8942,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>13.15</v>
+        <v>-1.18</v>
       </c>
       <c r="AC44" t="n">
-        <v>19.66</v>
+        <v>11.84</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-0.33</v>
+        <v>-1.1</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8966,14 +8974,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>16.54</v>
       </c>
       <c r="AK44" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -8986,11 +8994,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9030,7 +9038,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9039,26 +9047,26 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.51</v>
+        <v>0.34</v>
       </c>
       <c r="D45" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>2.52</v>
+        <v>3.48</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -9067,55 +9075,55 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-16.94</t>
+          <t>-16.85</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="W45" t="n">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9124,20 +9132,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>14.87</v>
+        <v>13.15</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.63</v>
+        <v>19.66</v>
       </c>
       <c r="AD45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.95</v>
+        <v>-0.33</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9156,14 +9164,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>16.54</v>
       </c>
       <c r="AK45" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9176,11 +9184,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9220,7 +9228,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9229,7 +9237,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.17</v>
+        <v>-0.51</v>
       </c>
       <c r="D46" t="n">
         <v>23</v>
@@ -9244,11 +9252,11 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.4</v>
+        <v>58.1</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>2.01</v>
+        <v>3.81</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -9257,55 +9265,55 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-12.55</t>
+          <t>-16.94</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="W46" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9314,20 +9322,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>9.52</v>
+        <v>14.87</v>
       </c>
       <c r="AC46" t="n">
-        <v>11.73</v>
+        <v>7.63</v>
       </c>
       <c r="AD46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.19</v>
+        <v>0.95</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9346,14 +9354,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>16.54</v>
       </c>
       <c r="AK46" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9366,11 +9374,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9410,7 +9418,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9422,23 +9430,23 @@
         <v>0.17</v>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>2.18</v>
+        <v>3.31</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -9447,7 +9455,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -9456,46 +9464,46 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-13.99</t>
+          <t>-12.55</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="W47" t="n">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9504,20 +9512,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>15.46</v>
+        <v>9.52</v>
       </c>
       <c r="AC47" t="n">
-        <v>-20.26</v>
+        <v>11.73</v>
       </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.76</v>
+        <v>-0.19</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9536,14 +9544,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>16.54</v>
       </c>
       <c r="AK47" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9556,11 +9564,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9600,7 +9608,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9609,26 +9617,26 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.51</v>
+        <v>0.17</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>2.35</v>
+        <v>3.48</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -9637,55 +9645,55 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-14.29</t>
+          <t>-13.99</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W48" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9694,20 +9702,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>16.79</v>
+        <v>15.46</v>
       </c>
       <c r="AC48" t="n">
-        <v>-25.53</v>
+        <v>-20.26</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9726,14 +9734,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>16.54</v>
       </c>
       <c r="AK48" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9746,11 +9754,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9790,7 +9798,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9799,26 +9807,26 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.68</v>
+        <v>-0.51</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>58.5</v>
+        <v>58.2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>1.85</v>
+        <v>3.64</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -9827,55 +9835,55 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-13.01</t>
+          <t>-14.29</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="W49" t="n">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9884,20 +9892,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>24.5</v>
+        <v>16.79</v>
       </c>
       <c r="AC49" t="n">
-        <v>-28</v>
+        <v>-25.53</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9916,14 +9924,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>16.54</v>
       </c>
       <c r="AK49" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9936,11 +9944,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9980,7 +9988,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9989,26 +9997,26 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.85</v>
+        <v>0.68</v>
       </c>
       <c r="D50" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>58.1</v>
+        <v>58.5</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -10017,55 +10025,55 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-18.22</t>
+          <t>-13.01</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="W50" t="n">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10074,20 +10082,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-10.24</v>
+        <v>24.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>-25.95</v>
+        <v>-28</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.61</v>
+        <v>1.88</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10106,14 +10114,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>16.54</v>
       </c>
       <c r="AK50" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10126,11 +10134,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10170,7 +10178,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10179,7 +10187,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.56</v>
+        <v>-0.85</v>
       </c>
       <c r="D51" t="n">
         <v>35</v>
@@ -10194,11 +10202,11 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>1.68</v>
+        <v>3.81</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -10207,55 +10215,55 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-17.68</t>
+          <t>-18.22</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="W51" t="n">
-        <v>-33</v>
+        <v>-10</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10264,20 +10272,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>13.58</v>
+        <v>-10.24</v>
       </c>
       <c r="AC51" t="n">
-        <v>-6.02</v>
+        <v>-25.95</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>3.26</v>
+        <v>0.61</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10296,14 +10304,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>16.54</v>
       </c>
       <c r="AK51" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10316,11 +10324,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10360,7 +10368,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10369,26 +10377,26 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.17</v>
+        <v>1.56</v>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>57.7</v>
+        <v>58.6</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>3.19</v>
+        <v>2.98</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -10397,55 +10405,55 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-27.18</t>
+          <t>-17.68</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="W52" t="n">
-        <v>-8</v>
+        <v>-33</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10454,20 +10462,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-32.55</v>
+        <v>13.58</v>
       </c>
       <c r="AC52" t="n">
-        <v>-12.42</v>
+        <v>-6.02</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>-1.62</v>
+        <v>3.26</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10486,14 +10494,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>16.54</v>
       </c>
       <c r="AK52" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10506,11 +10514,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10550,7 +10558,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10559,26 +10567,26 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>3.36</v>
+        <v>4.47</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -10587,7 +10595,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -10596,46 +10604,46 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-23.33</t>
+          <t>-27.18</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>-3</v>
+        <v>-16</v>
       </c>
       <c r="W53" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10644,20 +10652,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-39.82</v>
+        <v>-32.55</v>
       </c>
       <c r="AC53" t="n">
-        <v>-21.15</v>
+        <v>-12.42</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>-0.88</v>
+        <v>-1.62</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10676,14 +10684,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>16.54</v>
       </c>
       <c r="AK53" t="n">
-        <v>13.07</v>
+        <v>13.25</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10696,11 +10704,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>71.38</v>
+        <v>71.48</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -715,55 +715,55 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>47.54</t>
+          <t>60.77</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -772,20 +772,20 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-17.09</v>
+        <v>19.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.3</v>
+        <v>13.96</v>
       </c>
       <c r="AD2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>-12.15</v>
+        <v>0.42</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -804,14 +804,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>0.95</v>
       </c>
       <c r="AK2" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -880,12 +880,12 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -896,7 +896,7 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -914,68 +914,68 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>43.31</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="W3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>11.52</v>
+        <v>-17.09</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.41</v>
+        <v>-1.3</v>
       </c>
       <c r="AD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.13</v>
+        <v>-12.15</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -994,14 +994,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>0.95</v>
       </c>
       <c r="AK3" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1067,15 +1067,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1104,46 +1104,46 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>43.31</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="W4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X4" t="b">
         <v>1</v>
@@ -1152,20 +1152,20 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>25.4</v>
+        <v>11.52</v>
       </c>
       <c r="AC4" t="n">
-        <v>17.8</v>
+        <v>5.41</v>
       </c>
       <c r="AD4" t="b">
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>0.95</v>
       </c>
       <c r="AK4" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1204,11 +1204,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1257,26 +1257,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.58</v>
+        <v>1.15</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1285,55 +1285,55 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>32.21</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="W5" t="n">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="X5" t="b">
         <v>1</v>
@@ -1342,20 +1342,20 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>2.45</v>
+        <v>25.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-19.46</v>
+        <v>17.8</v>
       </c>
       <c r="AD5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>0.95</v>
       </c>
       <c r="AK5" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1447,26 +1447,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.29</v>
+        <v>0.29</v>
       </c>
       <c r="D6" t="n">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0.87</v>
+        <v>1.72</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1484,68 +1484,68 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="W6" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="X6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-1.55</v>
+        <v>2.45</v>
       </c>
       <c r="AC6" t="n">
-        <v>-26</v>
+        <v>-19.46</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1564,14 +1564,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>0.95</v>
       </c>
       <c r="AK6" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1637,26 +1637,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.59</v>
+        <v>-0.29</v>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>17.1</v>
+        <v>17.05</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.58</v>
+        <v>2.01</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1674,46 +1674,46 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="W7" t="n">
-        <v>-36</v>
+        <v>-21</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1722,20 +1722,20 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>16.99</v>
+        <v>-1.55</v>
       </c>
       <c r="AC7" t="n">
-        <v>-24.37</v>
+        <v>-26</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>0.95</v>
       </c>
       <c r="AK7" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1827,26 +1827,26 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1.16</v>
+        <v>1.72</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1864,46 +1864,46 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>25.92</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="W8" t="n">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1912,20 +1912,20 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-8.609999999999999</v>
+        <v>16.99</v>
       </c>
       <c r="AC8" t="n">
-        <v>-27.24</v>
+        <v>-24.37</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>0.95</v>
       </c>
       <c r="AK8" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1964,11 +1964,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2017,26 +2017,26 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.88</v>
+        <v>0.88</v>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16.85</v>
+        <v>17</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2045,55 +2045,55 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="W9" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2102,20 +2102,20 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-3.35</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-26.02</v>
+        <v>-27.24</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2134,14 +2134,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>0.95</v>
       </c>
       <c r="AK9" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2154,11 +2154,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2207,26 +2207,26 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.19</v>
+        <v>-0.88</v>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>16.85</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1.16</v>
+        <v>3.16</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2235,55 +2235,55 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>-31</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2292,20 +2292,20 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-27.63</v>
+        <v>-3.35</v>
       </c>
       <c r="AC10" t="n">
-        <v>-25.4</v>
+        <v>-26.02</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2324,14 +2324,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>0.95</v>
       </c>
       <c r="AK10" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2344,11 +2344,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2397,26 +2397,26 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2425,55 +2425,55 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="W11" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2482,20 +2482,20 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-36.74</v>
+        <v>-27.63</v>
       </c>
       <c r="AC11" t="n">
-        <v>-28.26</v>
+        <v>-25.4</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.3</v>
+        <v>-0.09</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2514,14 +2514,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>0.95</v>
       </c>
       <c r="AK11" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2534,11 +2534,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2587,15 +2587,15 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>2.33</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2624,26 +2624,26 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2653,17 +2653,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-33</v>
+        <v>-15</v>
       </c>
       <c r="W12" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2672,20 +2672,20 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-38.43</v>
+        <v>-36.74</v>
       </c>
       <c r="AC12" t="n">
-        <v>-25.87</v>
+        <v>-28.26</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.49</v>
+        <v>-0.3</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2704,14 +2704,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>0.95</v>
       </c>
       <c r="AK12" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2724,11 +2724,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2777,26 +2777,26 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="D13" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1.74</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -2805,35 +2805,35 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2843,17 +2843,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-40</v>
+        <v>-33</v>
       </c>
       <c r="W13" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2862,20 +2862,20 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-37.55</v>
+        <v>-38.43</v>
       </c>
       <c r="AC13" t="n">
-        <v>-25.98</v>
+        <v>-25.87</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.45</v>
+        <v>-0.49</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2894,14 +2894,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>0.95</v>
       </c>
       <c r="AK13" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2914,11 +2914,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2967,26 +2967,26 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.18</v>
+        <v>0.59</v>
       </c>
       <c r="D14" t="n">
-        <v>284</v>
+        <v>91</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>2.33</v>
+        <v>2.87</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -2995,55 +2995,55 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-16</v>
+        <v>-40</v>
       </c>
       <c r="W14" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3052,20 +3052,20 @@
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-36.65</v>
+        <v>-37.55</v>
       </c>
       <c r="AC14" t="n">
-        <v>-29.92</v>
+        <v>-25.98</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.22</v>
+        <v>-0.45</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3084,14 +3084,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>0.95</v>
       </c>
       <c r="AK14" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3104,11 +3104,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3157,22 +3157,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>28.6</v>
+        <v>28.65</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -3180,12 +3180,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3194,46 +3194,46 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-6.56</t>
+          <t>-9.42</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
@@ -3242,20 +3242,20 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>10.39</v>
+        <v>22.04</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>10.52</v>
       </c>
       <c r="AD15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3274,14 +3274,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>5.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3294,11 +3294,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3338,7 +3338,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.05</v>
+        <v>0.35</v>
       </c>
       <c r="D16" t="n">
         <v>14</v>
@@ -3362,65 +3362,65 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-6.56</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="W16" t="n">
         <v>11</v>
@@ -3428,32 +3428,24 @@
       <c r="X16" t="b">
         <v>0</v>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-5.81</v>
+        <v>10.39</v>
       </c>
       <c r="AC16" t="n">
-        <v>-9.960000000000001</v>
+        <v>-6.4</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.42</v>
+        <v>2.62</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3472,14 +3464,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>5.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3492,11 +3484,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3536,7 +3528,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3545,68 +3537,68 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.17</v>
+        <v>-1.05</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-0.7</v>
+        <v>0.52</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -3621,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -3638,20 +3630,20 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>13.52</v>
+        <v>-5.81</v>
       </c>
       <c r="AC17" t="n">
-        <v>-12.76</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.06</v>
+        <v>0.42</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3670,14 +3662,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>5.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3690,11 +3682,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3734,7 +3726,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3743,22 +3735,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.53</v>
+        <v>0.17</v>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>28.75</v>
+        <v>28.8</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
@@ -3766,12 +3758,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3780,26 +3772,26 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3816,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -3836,20 +3828,20 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-8.99</v>
+        <v>13.52</v>
       </c>
       <c r="AC18" t="n">
-        <v>-12.35</v>
+        <v>-12.76</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.27</v>
+        <v>2.06</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3868,14 +3860,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>5.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3888,11 +3880,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3932,7 +3924,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3941,35 +3933,35 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.18</v>
+        <v>0.53</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>28.6</v>
+        <v>28.75</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3978,46 +3970,46 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="W19" t="n">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4034,20 +4026,20 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-16.26</v>
+        <v>-8.99</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.66</v>
+        <v>-12.35</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-7.11</v>
+        <v>0.27</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4066,14 +4058,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>5.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4086,11 +4078,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4130,7 +4122,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4139,35 +4131,35 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.18</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>28.65</v>
+        <v>28.6</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-0.17</v>
+        <v>0.17</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4176,46 +4168,46 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="W20" t="n">
-        <v>-41</v>
+        <v>-25</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4232,20 +4224,20 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-13.78</v>
+        <v>-16.26</v>
       </c>
       <c r="AC20" t="n">
-        <v>17.41</v>
+        <v>2.66</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-1.79</v>
+        <v>-7.11</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4264,14 +4256,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>5.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4284,11 +4276,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4328,7 +4320,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4337,35 +4329,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.87</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="H21" t="n">
-        <v>28.85</v>
+        <v>28.65</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-0.87</v>
+        <v>0</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4374,46 +4366,46 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>45.73</t>
+          <t>30.16</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="W21" t="n">
-        <v>-53</v>
+        <v>-41</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4430,20 +4422,20 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>-12.83</v>
+        <v>-13.78</v>
       </c>
       <c r="AC21" t="n">
-        <v>23.3</v>
+        <v>17.41</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.55</v>
+        <v>-1.79</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4462,14 +4454,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>5.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4482,11 +4474,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4526,7 +4518,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4535,35 +4527,35 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.7</v>
+        <v>0.87</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="H22" t="n">
-        <v>28.6</v>
+        <v>28.85</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4572,36 +4564,36 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U22" t="b">
@@ -4611,7 +4603,7 @@
         <v>7</v>
       </c>
       <c r="W22" t="n">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4628,20 +4620,20 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-22.55</v>
+        <v>-12.83</v>
       </c>
       <c r="AC22" t="n">
-        <v>27.68</v>
+        <v>23.3</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>-1.81</v>
+        <v>-1.55</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4660,14 +4652,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>5.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4680,11 +4672,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4724,7 +4716,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4733,35 +4725,35 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.23</v>
+        <v>-0.7</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>0.96</v>
       </c>
       <c r="H23" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-0.7</v>
+        <v>0.17</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4770,26 +4762,26 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -4799,17 +4791,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W23" t="n">
-        <v>-61</v>
+        <v>-56</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4826,20 +4818,20 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-14.97</v>
+        <v>-22.55</v>
       </c>
       <c r="AC23" t="n">
-        <v>30.8</v>
+        <v>27.68</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>-1.49</v>
+        <v>-1.81</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4858,14 +4850,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>5.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4878,11 +4870,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4922,7 +4914,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4931,83 +4923,83 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1.6</v>
+        <v>1.23</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="H24" t="n">
-        <v>28.45</v>
+        <v>28.8</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>0.52</v>
+        <v>-0.52</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
           <t>0.18</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>-1.25</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>138.37</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W24" t="n">
-        <v>-25</v>
+        <v>-61</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5024,20 +5016,20 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>16.69</v>
+        <v>-14.97</v>
       </c>
       <c r="AC24" t="n">
-        <v>29.73</v>
+        <v>30.8</v>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.44</v>
+        <v>-1.49</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5056,14 +5048,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>5.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5076,11 +5068,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5120,7 +5112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5129,83 +5121,83 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.17</v>
+        <v>-1.6</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="H25" t="n">
-        <v>28.9</v>
+        <v>28.45</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-1.05</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>275.74</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W25" t="n">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5222,20 +5214,20 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>28.21</v>
+        <v>16.69</v>
       </c>
       <c r="AC25" t="n">
-        <v>31.6</v>
+        <v>29.73</v>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.11</v>
+        <v>-0.44</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5254,14 +5246,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>5.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5274,11 +5266,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5318,7 +5310,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5330,32 +5322,32 @@
         <v>-0.17</v>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="H26" t="n">
-        <v>28.95</v>
+        <v>28.9</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-1.22</v>
+        <v>-0.87</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5364,46 +5356,46 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>978.99</t>
+          <t>275.74</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W26" t="n">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5420,20 +5412,20 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>35.36</v>
+        <v>28.21</v>
       </c>
       <c r="AC26" t="n">
-        <v>29.94</v>
+        <v>31.6</v>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5452,14 +5444,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>5.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5472,11 +5464,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5516,7 +5508,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5525,35 +5517,35 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.87</v>
+        <v>-0.17</v>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="H27" t="n">
-        <v>29</v>
+        <v>28.95</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-1.4</v>
+        <v>-1.05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5562,46 +5554,46 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>707.26</t>
+          <t>978.99</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5618,20 +5610,20 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>45.18</v>
+        <v>35.36</v>
       </c>
       <c r="AC27" t="n">
-        <v>32.89</v>
+        <v>29.94</v>
       </c>
       <c r="AD27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5650,14 +5642,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>5.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>29.18</v>
+        <v>29.23</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5670,11 +5662,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5714,7 +5706,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5723,22 +5715,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.21</v>
+        <v>-3.79</v>
       </c>
       <c r="D28" t="n">
-        <v>4205</v>
+        <v>958</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -5746,60 +5738,60 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>100.86</t>
+          <t>77.76</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="W28" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5811,25 +5803,25 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>186.8</v>
+        <v>174.13</v>
       </c>
       <c r="AC28" t="n">
-        <v>127.91</v>
+        <v>122.98</v>
       </c>
       <c r="AD28" t="b">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5866,11 +5858,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5910,7 +5902,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5919,83 +5911,83 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.65</v>
+        <v>3.21</v>
       </c>
       <c r="D29" t="n">
-        <v>1302</v>
+        <v>4205</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="H29" t="n">
-        <v>26.15</v>
+        <v>27</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>-3.85</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>107.77</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="W29" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -6007,25 +5999,25 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>114.01</v>
+        <v>186.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>78.69</v>
+        <v>127.91</v>
       </c>
       <c r="AD29" t="b">
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6062,11 +6054,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6106,7 +6098,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6115,83 +6107,83 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.04</v>
+        <v>9.65</v>
       </c>
       <c r="D30" t="n">
-        <v>692</v>
+        <v>1302</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="H30" t="n">
-        <v>23.8</v>
+        <v>26.15</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>11.85</v>
+        <v>-0.58</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>100.91</t>
+          <t>107.77</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -6203,25 +6195,25 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>76.91</v>
+        <v>114.01</v>
       </c>
       <c r="AC30" t="n">
-        <v>55.04</v>
+        <v>78.69</v>
       </c>
       <c r="AD30" t="b">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6258,11 +6250,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6302,7 +6294,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6311,83 +6303,83 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.5</v>
+        <v>1.04</v>
       </c>
       <c r="D31" t="n">
-        <v>580</v>
+        <v>692</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>23.55</v>
+        <v>23.8</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>12.78</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>121.80</t>
+          <t>100.91</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="W31" t="n">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6399,25 +6391,25 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>46.21</v>
+        <v>76.91</v>
       </c>
       <c r="AC31" t="n">
-        <v>39.07</v>
+        <v>55.04</v>
       </c>
       <c r="AD31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6454,11 +6446,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6498,7 +6490,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6507,83 +6499,83 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-4.04</v>
+        <v>9.5</v>
       </c>
       <c r="D32" t="n">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>21.45</v>
+        <v>23.55</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>20.56</v>
+        <v>9.42</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>143.42</t>
+          <t>121.80</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U32" t="b">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="W32" t="n">
-        <v>-46</v>
+        <v>-12</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -6595,25 +6587,25 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-8.630000000000001</v>
+        <v>46.21</v>
       </c>
       <c r="AC32" t="n">
-        <v>26.1</v>
+        <v>39.07</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.33</v>
+        <v>0.18</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6650,11 +6642,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6682,7 +6674,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6694,7 +6686,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6703,83 +6695,83 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.54</v>
+        <v>-4.04</v>
       </c>
       <c r="D33" t="n">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>22.35</v>
+        <v>21.45</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>17.22</v>
+        <v>17.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-3.20</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>323.04</t>
+          <t>143.42</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>-46</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6791,25 +6783,25 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-46.6</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>31.55</v>
+        <v>26.1</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-2.48</v>
+        <v>-1.33</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6846,11 +6838,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6878,7 +6870,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6890,7 +6882,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6899,83 +6891,83 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-2.23</v>
+        <v>1.54</v>
       </c>
       <c r="D34" t="n">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22</v>
+        <v>22.35</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>18.52</v>
+        <v>14.04</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1911.89</t>
+          <t>323.04</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>29</v>
+        <v>-8</v>
       </c>
       <c r="W34" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -6987,25 +6979,25 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-24.79</v>
+        <v>-46.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>27.01</v>
+        <v>31.55</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-1.92</v>
+        <v>-2.48</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7042,11 +7034,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7074,7 +7066,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7086,7 +7078,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7095,83 +7087,83 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-2.23</v>
       </c>
       <c r="D35" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>16.67</v>
+        <v>15.38</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>607.10</t>
+          <t>1911.89</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="W35" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7183,25 +7175,25 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>11.97</v>
+        <v>-24.79</v>
       </c>
       <c r="AC35" t="n">
-        <v>26.94</v>
+        <v>27.01</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7238,11 +7230,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7270,7 +7262,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7282,7 +7274,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7291,35 +7283,35 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>22.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>16.67</v>
+        <v>13.46</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -7328,46 +7320,46 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>259.80</t>
+          <t>607.10</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="W36" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7379,25 +7371,25 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>30.28</v>
+        <v>11.97</v>
       </c>
       <c r="AC36" t="n">
-        <v>32.02</v>
+        <v>26.94</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.05</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7434,11 +7426,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7478,7 +7470,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7487,83 +7479,83 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-4.72</v>
+        <v>1.35</v>
       </c>
       <c r="D37" t="n">
-        <v>555</v>
+        <v>103</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="H37" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>17.78</v>
+        <v>13.46</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>163.27</t>
+          <t>259.80</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="W37" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7575,25 +7567,25 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>37.91</v>
+        <v>30.28</v>
       </c>
       <c r="AC37" t="n">
-        <v>27.06</v>
+        <v>32.02</v>
       </c>
       <c r="AD37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.4</v>
+        <v>-0.05</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7630,11 +7622,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7674,7 +7666,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7683,83 +7675,83 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9.74</v>
+        <v>-4.72</v>
       </c>
       <c r="D38" t="n">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="H38" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>13.7</v>
+        <v>14.62</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>120.51</t>
+          <t>163.27</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="W38" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -7771,25 +7763,25 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>64.52</v>
+        <v>37.91</v>
       </c>
       <c r="AC38" t="n">
-        <v>44.82</v>
+        <v>27.06</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7826,11 +7818,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7870,7 +7862,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7879,83 +7871,83 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.47</v>
+        <v>9.74</v>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
+        <v>485</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="H39" t="n">
-        <v>21.2</v>
+        <v>23.3</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>21.48</v>
+        <v>10.38</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>72.71</t>
+          <t>120.51</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="W39" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -7967,25 +7959,25 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>45.54</v>
+        <v>64.52</v>
       </c>
       <c r="AC39" t="n">
-        <v>25.33</v>
+        <v>44.82</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8022,11 +8014,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8066,7 +8058,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8075,83 +8067,83 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="D40" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>21.85</v>
+        <v>18.46</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>958</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>61.23</t>
+          <t>72.71</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="W40" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -8163,25 +8155,25 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>36.17</v>
+        <v>45.54</v>
       </c>
       <c r="AC40" t="n">
-        <v>29.85</v>
+        <v>25.33</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8218,11 +8210,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8262,7 +8254,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8271,22 +8263,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.33</v>
+        <v>-0.17</v>
       </c>
       <c r="D41" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="H41" t="n">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -8294,17 +8286,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8312,42 +8304,42 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>38.08</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="W41" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8359,25 +8351,25 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>47.4</v>
+        <v>44.05</v>
       </c>
       <c r="AC41" t="n">
-        <v>35.13</v>
+        <v>32.5</v>
       </c>
       <c r="AD41" t="b">
         <v>1</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8396,14 +8388,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>16.54</v>
       </c>
       <c r="AK41" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8416,11 +8408,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8460,7 +8452,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8469,40 +8461,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="D42" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>59.6</v>
+        <v>60.4</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>1.32</v>
+        <v>-0.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8510,42 +8502,42 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="W42" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8557,19 +8549,19 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>29.45</v>
+        <v>47.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>21.88</v>
+        <v>35.13</v>
       </c>
       <c r="AD42" t="b">
         <v>1</v>
@@ -8594,14 +8586,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>16.54</v>
       </c>
       <c r="AK42" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8614,11 +8606,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8658,7 +8650,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8667,40 +8659,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="D43" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>58.9</v>
+        <v>59.6</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>2.48</v>
+        <v>1.16</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8708,64 +8700,72 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-6.39</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W43" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
       </c>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>23.62</v>
+        <v>29.45</v>
       </c>
       <c r="AC43" t="n">
-        <v>19.96</v>
+        <v>21.88</v>
       </c>
       <c r="AD43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8784,14 +8784,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>16.54</v>
       </c>
       <c r="AK43" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8804,11 +8804,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8848,7 +8848,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8857,40 +8857,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>3.48</v>
+        <v>2.32</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8898,27 +8898,27 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-17.07</t>
+          <t>-6.39</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="W44" t="n">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -8942,20 +8942,20 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-1.18</v>
+        <v>23.62</v>
       </c>
       <c r="AC44" t="n">
-        <v>11.84</v>
+        <v>19.96</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-1.1</v>
+        <v>0.18</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8974,14 +8974,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>16.54</v>
       </c>
       <c r="AK44" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -8994,11 +8994,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9038,7 +9038,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9047,15 +9047,15 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -9066,16 +9066,16 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>3.48</v>
+        <v>3.32</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -9088,42 +9088,42 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-16.85</t>
+          <t>-17.07</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="W45" t="n">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9132,20 +9132,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>13.15</v>
+        <v>-1.18</v>
       </c>
       <c r="AC45" t="n">
-        <v>19.66</v>
+        <v>11.84</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.33</v>
+        <v>-1.1</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9164,14 +9164,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>16.54</v>
       </c>
       <c r="AK45" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9184,11 +9184,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9228,7 +9228,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9237,40 +9237,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.51</v>
+        <v>0.34</v>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -9278,42 +9278,42 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-16.94</t>
+          <t>-16.85</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="W46" t="n">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9322,20 +9322,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>14.87</v>
+        <v>13.15</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.63</v>
+        <v>19.66</v>
       </c>
       <c r="AD46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.95</v>
+        <v>-0.33</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9354,14 +9354,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>16.54</v>
       </c>
       <c r="AK46" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9374,11 +9374,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9418,7 +9418,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.17</v>
+        <v>-0.51</v>
       </c>
       <c r="D47" t="n">
         <v>23</v>
@@ -9442,25 +9442,25 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>58.4</v>
+        <v>58.1</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>3.31</v>
+        <v>3.65</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9468,42 +9468,42 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-12.55</t>
+          <t>-16.94</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="W47" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9512,20 +9512,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>9.52</v>
+        <v>14.87</v>
       </c>
       <c r="AC47" t="n">
-        <v>11.73</v>
+        <v>7.63</v>
       </c>
       <c r="AD47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.19</v>
+        <v>0.95</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9544,14 +9544,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>16.54</v>
       </c>
       <c r="AK47" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9564,11 +9564,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9608,7 +9608,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9620,32 +9620,32 @@
         <v>0.17</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -9658,42 +9658,42 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-13.99</t>
+          <t>-12.55</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="W48" t="n">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9702,20 +9702,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>15.46</v>
+        <v>9.52</v>
       </c>
       <c r="AC48" t="n">
-        <v>-20.26</v>
+        <v>11.73</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.76</v>
+        <v>-0.19</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9734,14 +9734,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>16.54</v>
       </c>
       <c r="AK48" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9754,11 +9754,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9798,7 +9798,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9807,40 +9807,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.51</v>
+        <v>0.17</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -9848,42 +9848,42 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-14.29</t>
+          <t>-13.99</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W49" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9892,20 +9892,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>16.79</v>
+        <v>15.46</v>
       </c>
       <c r="AC49" t="n">
-        <v>-25.53</v>
+        <v>-20.26</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9924,14 +9924,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>16.54</v>
       </c>
       <c r="AK49" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9944,11 +9944,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9988,7 +9988,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9997,40 +9997,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.68</v>
+        <v>-0.51</v>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>58.5</v>
+        <v>58.2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -10038,42 +10038,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-13.01</t>
+          <t>-14.29</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="W50" t="n">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10082,20 +10082,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>24.5</v>
+        <v>16.79</v>
       </c>
       <c r="AC50" t="n">
-        <v>-28</v>
+        <v>-25.53</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10114,14 +10114,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>16.54</v>
       </c>
       <c r="AK50" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10134,11 +10134,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10178,7 +10178,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10187,40 +10187,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.85</v>
+        <v>0.68</v>
       </c>
       <c r="D51" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>58.1</v>
+        <v>58.5</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>3.81</v>
+        <v>2.99</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10228,42 +10228,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-18.22</t>
+          <t>-13.01</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="W51" t="n">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10272,20 +10272,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-10.24</v>
+        <v>24.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>-25.95</v>
+        <v>-28</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.61</v>
+        <v>1.88</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10304,14 +10304,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>16.54</v>
       </c>
       <c r="AK51" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10324,11 +10324,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10368,7 +10368,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10377,7 +10377,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.56</v>
+        <v>-0.85</v>
       </c>
       <c r="D52" t="n">
         <v>35</v>
@@ -10392,25 +10392,25 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>2.98</v>
+        <v>3.65</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10418,42 +10418,42 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-17.68</t>
+          <t>-18.22</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="W52" t="n">
-        <v>-33</v>
+        <v>-10</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10462,20 +10462,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>13.58</v>
+        <v>-10.24</v>
       </c>
       <c r="AC52" t="n">
-        <v>-6.02</v>
+        <v>-25.95</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>3.26</v>
+        <v>0.61</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10494,14 +10494,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>16.54</v>
       </c>
       <c r="AK52" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10514,11 +10514,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10558,7 +10558,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10567,40 +10567,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.17</v>
+        <v>1.56</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>57.7</v>
+        <v>58.6</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>4.47</v>
+        <v>2.82</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10608,42 +10608,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-27.18</t>
+          <t>-17.68</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="W53" t="n">
-        <v>-8</v>
+        <v>-33</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10652,20 +10652,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-32.55</v>
+        <v>13.58</v>
       </c>
       <c r="AC53" t="n">
-        <v>-12.42</v>
+        <v>-6.02</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>-1.62</v>
+        <v>3.26</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10684,14 +10684,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>16.54</v>
       </c>
       <c r="AK53" t="n">
-        <v>13.25</v>
+        <v>13.22</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10704,11 +10704,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>71.48</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.4</v>
+        <v>17.65</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -715,12 +715,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -728,39 +728,39 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>60.77</t>
+          <t>89.09</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>19.8</v>
+        <v>20.22</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.96</v>
+        <v>14.4</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -804,14 +804,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>0.95</v>
       </c>
       <c r="AK2" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,26 +877,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -905,12 +905,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -918,42 +918,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>47.54</t>
+          <t>60.77</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -962,20 +962,20 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-17.09</v>
+        <v>19.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.3</v>
+        <v>13.96</v>
       </c>
       <c r="AD3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>-12.15</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -994,14 +994,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>0.95</v>
       </c>
       <c r="AK3" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1070,12 +1070,12 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1.15</v>
+        <v>2.55</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1108,64 +1108,64 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>43.31</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U4" t="b">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="W4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>11.52</v>
+        <v>-17.09</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.41</v>
+        <v>-1.3</v>
       </c>
       <c r="AD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.13</v>
+        <v>-12.15</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>0.95</v>
       </c>
       <c r="AK4" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1204,11 +1204,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1257,15 +1257,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>1.15</v>
+        <v>2.55</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1298,42 +1298,42 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>43.31</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="W5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X5" t="b">
         <v>1</v>
@@ -1342,20 +1342,20 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>25.4</v>
+        <v>11.52</v>
       </c>
       <c r="AC5" t="n">
-        <v>17.8</v>
+        <v>5.41</v>
       </c>
       <c r="AD5" t="b">
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>0.95</v>
       </c>
       <c r="AK5" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1447,26 +1447,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1.72</v>
+        <v>2.55</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1475,12 +1475,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1488,42 +1488,42 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>32.21</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="W6" t="n">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="X6" t="b">
         <v>1</v>
@@ -1532,20 +1532,20 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>2.45</v>
+        <v>25.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>-19.46</v>
+        <v>17.8</v>
       </c>
       <c r="AD6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1564,14 +1564,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>0.95</v>
       </c>
       <c r="AK6" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1637,26 +1637,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.29</v>
+        <v>0.29</v>
       </c>
       <c r="D7" t="n">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>2.01</v>
+        <v>3.12</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1678,64 +1678,64 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="W7" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="X7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-1.55</v>
+        <v>2.45</v>
       </c>
       <c r="AC7" t="n">
-        <v>-26</v>
+        <v>-19.46</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>0.95</v>
       </c>
       <c r="AK7" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1827,26 +1827,26 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.59</v>
+        <v>-0.29</v>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>17.1</v>
+        <v>17.05</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1.72</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1868,42 +1868,42 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="W8" t="n">
-        <v>-36</v>
+        <v>-21</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1912,20 +1912,20 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>16.99</v>
+        <v>-1.55</v>
       </c>
       <c r="AC8" t="n">
-        <v>-24.37</v>
+        <v>-26</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>0.95</v>
       </c>
       <c r="AK8" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1964,11 +1964,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2017,26 +2017,26 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>3.12</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2058,42 +2058,42 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>25.92</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="W9" t="n">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -2102,20 +2102,20 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-8.609999999999999</v>
+        <v>16.99</v>
       </c>
       <c r="AC9" t="n">
-        <v>-27.24</v>
+        <v>-24.37</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2134,14 +2134,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>0.95</v>
       </c>
       <c r="AK9" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2154,11 +2154,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2207,26 +2207,26 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.88</v>
+        <v>0.88</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>16.85</v>
+        <v>17</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>3.16</v>
+        <v>3.68</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2235,12 +2235,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2248,42 +2248,42 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="W10" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -2292,20 +2292,20 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-3.35</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-26.02</v>
+        <v>-27.24</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2324,14 +2324,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>0.95</v>
       </c>
       <c r="AK10" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2344,11 +2344,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2397,26 +2397,26 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.19</v>
+        <v>-0.88</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>16.85</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>4.53</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2425,12 +2425,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2438,42 +2438,42 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>-31</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -2482,20 +2482,20 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-27.63</v>
+        <v>-3.35</v>
       </c>
       <c r="AC11" t="n">
-        <v>-25.4</v>
+        <v>-26.02</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2514,14 +2514,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>0.95</v>
       </c>
       <c r="AK11" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2534,11 +2534,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2587,26 +2587,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.68</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -2615,12 +2615,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2628,42 +2628,42 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="W12" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -2672,20 +2672,20 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-36.74</v>
+        <v>-27.63</v>
       </c>
       <c r="AC12" t="n">
-        <v>-28.26</v>
+        <v>-25.4</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.3</v>
+        <v>-0.09</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2704,14 +2704,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>0.95</v>
       </c>
       <c r="AK12" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2724,11 +2724,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2777,15 +2777,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>4.82</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2818,22 +2818,22 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2843,17 +2843,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U13" t="b">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-33</v>
+        <v>-15</v>
       </c>
       <c r="W13" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -2862,20 +2862,20 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-38.43</v>
+        <v>-36.74</v>
       </c>
       <c r="AC13" t="n">
-        <v>-25.87</v>
+        <v>-28.26</v>
       </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.49</v>
+        <v>-0.3</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2894,14 +2894,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>0.95</v>
       </c>
       <c r="AK13" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2914,11 +2914,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2967,26 +2967,26 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>2.87</v>
+        <v>4.82</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3008,22 +3008,22 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3033,17 +3033,17 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="U14" t="b">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-40</v>
+        <v>-33</v>
       </c>
       <c r="W14" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3052,20 +3052,20 @@
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-37.55</v>
+        <v>-38.43</v>
       </c>
       <c r="AC14" t="n">
-        <v>-25.98</v>
+        <v>-25.87</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.45</v>
+        <v>-0.49</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3084,14 +3084,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>0.95</v>
       </c>
       <c r="AK14" t="n">
-        <v>174</v>
+        <v>176.5</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3104,11 +3104,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3157,22 +3157,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.17</v>
+        <v>-0.71</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>28.65</v>
+        <v>28.45</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -3198,42 +3198,42 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-9.42</t>
+          <t>-16.78</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>-19</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
@@ -3242,20 +3242,20 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>22.04</v>
+        <v>13.42</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.52</v>
+        <v>7.04</v>
       </c>
       <c r="AD15" t="b">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3274,14 +3274,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>5.03</v>
       </c>
       <c r="AK15" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3294,11 +3294,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3338,7 +3338,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3347,26 +3347,26 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.6</v>
+        <v>28.65</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.17</v>
+        <v>-0.7</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3388,42 +3388,42 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-6.56</t>
+          <t>-9.42</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -3432,20 +3432,20 @@
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>10.39</v>
+        <v>22.04</v>
       </c>
       <c r="AC16" t="n">
-        <v>-6.4</v>
+        <v>10.52</v>
       </c>
       <c r="AD16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3464,14 +3464,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>5.03</v>
       </c>
       <c r="AK16" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3484,11 +3484,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.05</v>
+        <v>0.35</v>
       </c>
       <c r="D17" t="n">
         <v>14</v>
@@ -3552,11 +3552,11 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3565,12 +3565,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -3578,39 +3578,39 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-6.56</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="W17" t="n">
         <v>11</v>
@@ -3618,32 +3618,24 @@
       <c r="X17" t="b">
         <v>0</v>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-5.81</v>
+        <v>10.39</v>
       </c>
       <c r="AC17" t="n">
-        <v>-9.960000000000001</v>
+        <v>-6.4</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.42</v>
+        <v>2.62</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3662,14 +3654,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>5.03</v>
       </c>
       <c r="AK17" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3682,11 +3674,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3726,7 +3718,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3735,26 +3727,26 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.17</v>
+        <v>-1.05</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-0.52</v>
+        <v>-0.18</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3763,12 +3755,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -3776,27 +3768,27 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -3811,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -3828,20 +3820,20 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>13.52</v>
+        <v>-5.81</v>
       </c>
       <c r="AC18" t="n">
-        <v>-12.76</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.06</v>
+        <v>0.42</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3860,14 +3852,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>5.03</v>
       </c>
       <c r="AK18" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3880,11 +3872,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3924,7 +3916,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3933,26 +3925,26 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.53</v>
+        <v>0.17</v>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>28.75</v>
+        <v>28.8</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-0.35</v>
+        <v>-1.23</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3961,7 +3953,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3974,22 +3966,22 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -4006,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4026,20 +4018,20 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-8.99</v>
+        <v>13.52</v>
       </c>
       <c r="AC19" t="n">
-        <v>-12.35</v>
+        <v>-12.76</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.27</v>
+        <v>2.06</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4058,14 +4050,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>5.03</v>
       </c>
       <c r="AK19" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4078,11 +4070,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4122,7 +4114,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4131,26 +4123,26 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.18</v>
+        <v>0.53</v>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>28.6</v>
+        <v>28.75</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>0.17</v>
+        <v>-1.05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4159,7 +4151,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4172,42 +4164,42 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="W20" t="n">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4224,20 +4216,20 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-16.26</v>
+        <v>-8.99</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.66</v>
+        <v>-12.35</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-7.11</v>
+        <v>0.27</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4256,14 +4248,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>5.03</v>
       </c>
       <c r="AK20" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4276,11 +4268,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4320,7 +4312,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4329,26 +4321,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.18</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.65</v>
+        <v>28.6</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4357,7 +4349,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4370,42 +4362,42 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="W21" t="n">
-        <v>-41</v>
+        <v>-25</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4422,20 +4414,20 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>-13.78</v>
+        <v>-16.26</v>
       </c>
       <c r="AC21" t="n">
-        <v>17.41</v>
+        <v>2.66</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.79</v>
+        <v>-7.11</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4454,14 +4446,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>5.03</v>
       </c>
       <c r="AK21" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4474,11 +4466,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4518,7 +4510,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4527,22 +4519,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.87</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="H22" t="n">
-        <v>28.85</v>
+        <v>28.65</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
@@ -4555,7 +4547,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4568,42 +4560,42 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>45.73</t>
+          <t>30.16</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="W22" t="n">
-        <v>-53</v>
+        <v>-41</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4620,20 +4612,20 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-12.83</v>
+        <v>-13.78</v>
       </c>
       <c r="AC22" t="n">
-        <v>23.3</v>
+        <v>17.41</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>-1.55</v>
+        <v>-1.79</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4652,14 +4644,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>5.03</v>
       </c>
       <c r="AK22" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4672,11 +4664,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4716,7 +4708,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4725,26 +4717,26 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.7</v>
+        <v>0.87</v>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="H23" t="n">
-        <v>28.6</v>
+        <v>28.85</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.17</v>
+        <v>-1.41</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -4753,7 +4745,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4766,32 +4758,32 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U23" t="b">
@@ -4801,7 +4793,7 @@
         <v>7</v>
       </c>
       <c r="W23" t="n">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4818,20 +4810,20 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-53</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-22.55</v>
+        <v>-12.83</v>
       </c>
       <c r="AC23" t="n">
-        <v>27.68</v>
+        <v>23.3</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>-1.81</v>
+        <v>-1.55</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4850,14 +4842,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>5.03</v>
       </c>
       <c r="AK23" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4870,11 +4862,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4914,7 +4906,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4923,26 +4915,26 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.23</v>
+        <v>-0.7</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>0.96</v>
       </c>
       <c r="H24" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -4951,7 +4943,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4964,22 +4956,22 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -4989,17 +4981,17 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W24" t="n">
-        <v>-61</v>
+        <v>-56</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -5016,20 +5008,20 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>-14.97</v>
+        <v>-22.55</v>
       </c>
       <c r="AC24" t="n">
-        <v>30.8</v>
+        <v>27.68</v>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>-1.49</v>
+        <v>-1.81</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5048,14 +5040,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>5.03</v>
       </c>
       <c r="AK24" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5068,11 +5060,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5112,7 +5104,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5121,26 +5113,26 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1.6</v>
+        <v>1.23</v>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="H25" t="n">
-        <v>28.45</v>
+        <v>28.8</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>-1.23</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5149,12 +5141,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -5162,42 +5154,42 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>138.37</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
-        <v>-25</v>
+        <v>-61</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5214,20 +5206,20 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>16.69</v>
+        <v>-14.97</v>
       </c>
       <c r="AC25" t="n">
-        <v>29.73</v>
+        <v>30.8</v>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.44</v>
+        <v>-1.49</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5246,14 +5238,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>5.03</v>
       </c>
       <c r="AK25" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5266,11 +5258,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5310,7 +5302,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5319,26 +5311,26 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.17</v>
+        <v>-1.6</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="H26" t="n">
-        <v>28.9</v>
+        <v>28.45</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-0.87</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5347,12 +5339,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -5360,42 +5352,42 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>275.74</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W26" t="n">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5412,20 +5404,20 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>28.21</v>
+        <v>16.69</v>
       </c>
       <c r="AC26" t="n">
-        <v>31.6</v>
+        <v>29.73</v>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.11</v>
+        <v>-0.44</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5444,14 +5436,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>5.03</v>
       </c>
       <c r="AK26" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5464,11 +5456,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5508,7 +5500,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5520,23 +5512,23 @@
         <v>-0.17</v>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="H27" t="n">
-        <v>28.95</v>
+        <v>28.9</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-1.05</v>
+        <v>-1.58</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -5545,7 +5537,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5558,42 +5550,42 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>978.99</t>
+          <t>275.74</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U27" t="b">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W27" t="n">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5610,20 +5602,20 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>35.36</v>
+        <v>28.21</v>
       </c>
       <c r="AC27" t="n">
-        <v>29.94</v>
+        <v>31.6</v>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5642,14 +5634,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>5.03</v>
       </c>
       <c r="AK27" t="n">
-        <v>29.23</v>
+        <v>29.03</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5662,11 +5654,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5706,7 +5698,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5715,22 +5707,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-3.79</v>
+        <v>-6.92</v>
       </c>
       <c r="D28" t="n">
-        <v>958</v>
+        <v>730</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="H28" t="n">
-        <v>26</v>
+        <v>24.2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -5738,60 +5730,60 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>48.24</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="W28" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5803,25 +5795,25 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>174.13</v>
+        <v>154.83</v>
       </c>
       <c r="AC28" t="n">
-        <v>122.98</v>
+        <v>114.25</v>
       </c>
       <c r="AD28" t="b">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5858,11 +5850,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5890,7 +5882,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -5902,7 +5894,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5911,83 +5903,83 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.21</v>
+        <v>-3.79</v>
       </c>
       <c r="D29" t="n">
-        <v>4205</v>
+        <v>958</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>-3.85</v>
+        <v>-7.44</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>100.86</t>
+          <t>77.76</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="W29" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -5999,25 +5991,25 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>186.8</v>
+        <v>174.13</v>
       </c>
       <c r="AC29" t="n">
-        <v>127.91</v>
+        <v>122.98</v>
       </c>
       <c r="AD29" t="b">
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6054,11 +6046,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6098,7 +6090,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6107,83 +6099,83 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.65</v>
+        <v>3.21</v>
       </c>
       <c r="D30" t="n">
-        <v>1302</v>
+        <v>4205</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="H30" t="n">
-        <v>26.15</v>
+        <v>27</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-0.58</v>
+        <v>-11.57</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>107.77</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="W30" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -6195,25 +6187,25 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>114.01</v>
+        <v>186.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>78.69</v>
+        <v>127.91</v>
       </c>
       <c r="AD30" t="b">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6250,11 +6242,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6294,7 +6286,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6303,83 +6295,83 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.04</v>
+        <v>9.65</v>
       </c>
       <c r="D31" t="n">
-        <v>692</v>
+        <v>1302</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="H31" t="n">
-        <v>23.8</v>
+        <v>26.15</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>8.460000000000001</v>
+        <v>-8.06</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>100.91</t>
+          <t>107.77</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U31" t="b">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="W31" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -6391,25 +6383,25 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>76.91</v>
+        <v>114.01</v>
       </c>
       <c r="AC31" t="n">
-        <v>55.04</v>
+        <v>78.69</v>
       </c>
       <c r="AD31" t="b">
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6446,11 +6438,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6490,7 +6482,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6499,113 +6491,113 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.5</v>
+        <v>1.04</v>
       </c>
       <c r="D32" t="n">
-        <v>580</v>
+        <v>692</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>23.55</v>
+        <v>23.8</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>9.42</v>
+        <v>1.65</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>-10.74</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>100.91</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9</v>
+      </c>
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>958</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>121.80</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="U32" t="b">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>63</v>
-      </c>
-      <c r="W32" t="n">
-        <v>-12</v>
-      </c>
-      <c r="X32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
       <c r="AB32" t="n">
-        <v>46.21</v>
+        <v>76.91</v>
       </c>
       <c r="AC32" t="n">
-        <v>39.07</v>
+        <v>55.04</v>
       </c>
       <c r="AD32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6642,11 +6634,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6686,7 +6678,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6695,83 +6687,83 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-4.04</v>
+        <v>9.5</v>
       </c>
       <c r="D33" t="n">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>21.45</v>
+        <v>23.55</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>17.5</v>
+        <v>2.69</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>143.42</t>
+          <t>121.80</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="W33" t="n">
-        <v>-46</v>
+        <v>-12</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -6783,25 +6775,25 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-8.630000000000001</v>
+        <v>46.21</v>
       </c>
       <c r="AC33" t="n">
-        <v>26.1</v>
+        <v>39.07</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.33</v>
+        <v>0.18</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6838,11 +6830,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6870,7 +6862,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6882,7 +6874,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6891,83 +6883,83 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.54</v>
+        <v>-4.04</v>
       </c>
       <c r="D34" t="n">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22.35</v>
+        <v>21.45</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>14.04</v>
+        <v>11.36</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-3.20</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>323.04</t>
+          <t>143.42</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>-46</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -6979,25 +6971,25 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-46.6</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>31.55</v>
+        <v>26.1</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-2.48</v>
+        <v>-1.33</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7034,11 +7026,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7066,7 +7058,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7078,7 +7070,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7087,83 +7079,83 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-2.23</v>
+        <v>1.54</v>
       </c>
       <c r="D35" t="n">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>22</v>
+        <v>22.35</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>15.38</v>
+        <v>7.64</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>1911.89</t>
+          <t>323.04</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>29</v>
+        <v>-8</v>
       </c>
       <c r="W35" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -7175,25 +7167,25 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>-24.79</v>
+        <v>-46.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>27.01</v>
+        <v>31.55</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-1.92</v>
+        <v>-2.48</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7230,11 +7222,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7262,7 +7254,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -7274,7 +7266,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7283,83 +7275,83 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-2.23</v>
       </c>
       <c r="D36" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>13.46</v>
+        <v>9.09</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>607.10</t>
+          <t>1911.89</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="W36" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -7371,25 +7363,25 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>11.97</v>
+        <v>-24.79</v>
       </c>
       <c r="AC36" t="n">
-        <v>26.94</v>
+        <v>27.01</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.92</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7426,11 +7418,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7458,7 +7450,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
@@ -7470,7 +7462,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7479,35 +7471,35 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>22.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>13.46</v>
+        <v>7.02</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -7516,46 +7508,46 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>259.80</t>
+          <t>607.10</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="W37" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
@@ -7567,25 +7559,25 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>30.28</v>
+        <v>11.97</v>
       </c>
       <c r="AC37" t="n">
-        <v>32.02</v>
+        <v>26.94</v>
       </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.05</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7622,11 +7614,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7666,7 +7658,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7675,83 +7667,83 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-4.72</v>
+        <v>1.35</v>
       </c>
       <c r="D38" t="n">
-        <v>555</v>
+        <v>103</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="H38" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>14.62</v>
+        <v>7.02</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>163.27</t>
+          <t>259.80</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="W38" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
@@ -7763,25 +7755,25 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>37.91</v>
+        <v>30.28</v>
       </c>
       <c r="AC38" t="n">
-        <v>27.06</v>
+        <v>32.02</v>
       </c>
       <c r="AD38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.4</v>
+        <v>-0.05</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7818,11 +7810,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7862,7 +7854,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7871,83 +7863,83 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9.74</v>
+        <v>-4.72</v>
       </c>
       <c r="D39" t="n">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="H39" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>10.38</v>
+        <v>8.26</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>120.51</t>
+          <t>163.27</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U39" t="b">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="W39" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
@@ -7959,25 +7951,25 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>64.52</v>
+        <v>37.91</v>
       </c>
       <c r="AC39" t="n">
-        <v>44.82</v>
+        <v>27.06</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -8014,11 +8006,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8058,7 +8050,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8067,83 +8059,83 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.47</v>
+        <v>9.74</v>
       </c>
       <c r="D40" t="n">
-        <v>100</v>
+        <v>485</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="H40" t="n">
-        <v>21.2</v>
+        <v>23.3</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>18.46</v>
+        <v>3.72</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>72.71</t>
+          <t>120.51</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="W40" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -8155,25 +8147,25 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>45.54</v>
+        <v>64.52</v>
       </c>
       <c r="AC40" t="n">
-        <v>25.33</v>
+        <v>44.82</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8210,11 +8202,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8254,7 +8246,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8263,22 +8255,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.17</v>
+        <v>-1.16</v>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="H41" t="n">
-        <v>60.3</v>
+        <v>59.6</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
@@ -8291,12 +8283,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -8304,22 +8296,22 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -8329,17 +8321,17 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="W41" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
@@ -8351,25 +8343,25 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>44.05</v>
+        <v>45.25</v>
       </c>
       <c r="AC41" t="n">
-        <v>32.5</v>
+        <v>31.98</v>
       </c>
       <c r="AD41" t="b">
         <v>1</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8388,14 +8380,14 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ41" t="n">
         <v>16.54</v>
       </c>
       <c r="AK41" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
@@ -8408,11 +8400,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8452,7 +8444,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8461,26 +8453,26 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.33</v>
+        <v>-0.17</v>
       </c>
       <c r="D42" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="H42" t="n">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-0.17</v>
+        <v>-1.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -8489,12 +8481,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -8502,42 +8494,42 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>38.08</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="W42" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
@@ -8549,25 +8541,25 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>47.4</v>
+        <v>44.05</v>
       </c>
       <c r="AC42" t="n">
-        <v>35.13</v>
+        <v>32.5</v>
       </c>
       <c r="AD42" t="b">
         <v>1</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8586,14 +8578,14 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ42" t="n">
         <v>16.54</v>
       </c>
       <c r="AK42" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
@@ -8606,11 +8598,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8650,7 +8642,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8659,26 +8651,26 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="D43" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>59.6</v>
+        <v>60.4</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>1.16</v>
+        <v>-1.34</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -8687,12 +8679,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8700,42 +8692,42 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="W43" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -8747,19 +8739,19 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>29.45</v>
+        <v>47.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>21.88</v>
+        <v>35.13</v>
       </c>
       <c r="AD43" t="b">
         <v>1</v>
@@ -8784,14 +8776,14 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ43" t="n">
         <v>16.54</v>
       </c>
       <c r="AK43" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
@@ -8804,11 +8796,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8848,7 +8840,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8857,26 +8849,26 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="D44" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>58.9</v>
+        <v>59.6</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -8885,12 +8877,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -8898,64 +8890,72 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-6.39</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W44" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
       </c>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>23.62</v>
+        <v>29.45</v>
       </c>
       <c r="AC44" t="n">
-        <v>19.96</v>
+        <v>21.88</v>
       </c>
       <c r="AD44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8974,14 +8974,14 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ44" t="n">
         <v>16.54</v>
       </c>
       <c r="AK44" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -8994,11 +8994,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -9038,7 +9038,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9047,26 +9047,26 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>3.32</v>
+        <v>1.17</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -9075,12 +9075,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -9088,27 +9088,27 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-17.07</t>
+          <t>-6.39</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -9120,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="W45" t="n">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
@@ -9132,20 +9132,20 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-1.18</v>
+        <v>23.62</v>
       </c>
       <c r="AC45" t="n">
-        <v>11.84</v>
+        <v>19.96</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-1.1</v>
+        <v>0.18</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9164,14 +9164,14 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ45" t="n">
         <v>16.54</v>
       </c>
       <c r="AK45" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
@@ -9184,11 +9184,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9228,7 +9228,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9237,15 +9237,15 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3.32</v>
+        <v>2.18</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -9278,42 +9278,42 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-16.85</t>
+          <t>-17.07</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U46" t="b">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="W46" t="n">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
@@ -9322,20 +9322,20 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>13.15</v>
+        <v>-1.18</v>
       </c>
       <c r="AC46" t="n">
-        <v>19.66</v>
+        <v>11.84</v>
       </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.33</v>
+        <v>-1.1</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9354,14 +9354,14 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ46" t="n">
         <v>16.54</v>
       </c>
       <c r="AK46" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
@@ -9374,11 +9374,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9418,7 +9418,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9427,26 +9427,26 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.51</v>
+        <v>0.34</v>
       </c>
       <c r="D47" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>3.65</v>
+        <v>2.18</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -9455,12 +9455,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -9468,42 +9468,42 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-16.94</t>
+          <t>-16.85</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U47" t="b">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="W47" t="n">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
@@ -9512,20 +9512,20 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>14.87</v>
+        <v>13.15</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.63</v>
+        <v>19.66</v>
       </c>
       <c r="AD47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.95</v>
+        <v>-0.33</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9544,14 +9544,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>16.54</v>
       </c>
       <c r="AK47" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9564,11 +9564,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9608,7 +9608,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.17</v>
+        <v>-0.51</v>
       </c>
       <c r="D48" t="n">
         <v>23</v>
@@ -9632,11 +9632,11 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>58.4</v>
+        <v>58.1</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>3.15</v>
+        <v>2.52</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -9645,12 +9645,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -9658,42 +9658,42 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-12.55</t>
+          <t>-16.94</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="W48" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
@@ -9702,20 +9702,20 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>9.52</v>
+        <v>14.87</v>
       </c>
       <c r="AC48" t="n">
-        <v>11.73</v>
+        <v>7.63</v>
       </c>
       <c r="AD48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="n">
-        <v>-0.19</v>
+        <v>0.95</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9734,14 +9734,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>16.54</v>
       </c>
       <c r="AK48" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9754,11 +9754,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9798,7 +9798,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9810,23 +9810,23 @@
         <v>0.17</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>3.32</v>
+        <v>2.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -9848,42 +9848,42 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-13.99</t>
+          <t>-12.55</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="W49" t="n">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -9892,20 +9892,20 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>15.46</v>
+        <v>9.52</v>
       </c>
       <c r="AC49" t="n">
-        <v>-20.26</v>
+        <v>11.73</v>
       </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.76</v>
+        <v>-0.19</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9924,14 +9924,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>16.54</v>
       </c>
       <c r="AK49" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9944,11 +9944,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9988,7 +9988,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9997,26 +9997,26 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.51</v>
+        <v>0.17</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>3.48</v>
+        <v>2.18</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -10025,12 +10025,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -10038,42 +10038,42 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-14.29</t>
+          <t>-13.99</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W50" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
@@ -10082,20 +10082,20 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>16.79</v>
+        <v>15.46</v>
       </c>
       <c r="AC50" t="n">
-        <v>-25.53</v>
+        <v>-20.26</v>
       </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10114,14 +10114,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>16.54</v>
       </c>
       <c r="AK50" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10134,11 +10134,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10178,7 +10178,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10187,26 +10187,26 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.68</v>
+        <v>-0.51</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>58.5</v>
+        <v>58.2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>2.99</v>
+        <v>2.35</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -10215,12 +10215,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -10228,42 +10228,42 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-13.01</t>
+          <t>-14.29</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U51" t="b">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
@@ -10272,20 +10272,20 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>24.5</v>
+        <v>16.79</v>
       </c>
       <c r="AC51" t="n">
-        <v>-28</v>
+        <v>-25.53</v>
       </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10304,14 +10304,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>16.54</v>
       </c>
       <c r="AK51" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10324,11 +10324,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10368,7 +10368,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10377,26 +10377,26 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.85</v>
+        <v>0.68</v>
       </c>
       <c r="D52" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>58.1</v>
+        <v>58.5</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>3.65</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -10405,12 +10405,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -10418,42 +10418,42 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-18.22</t>
+          <t>-13.01</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="U52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="W52" t="n">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="X52" t="b">
         <v>0</v>
@@ -10462,20 +10462,20 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-10.24</v>
+        <v>24.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>-25.95</v>
+        <v>-28</v>
       </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.61</v>
+        <v>1.88</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10494,14 +10494,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>16.54</v>
       </c>
       <c r="AK52" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10514,11 +10514,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10558,7 +10558,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.56</v>
+        <v>-0.85</v>
       </c>
       <c r="D53" t="n">
         <v>35</v>
@@ -10582,11 +10582,11 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -10595,12 +10595,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -10608,42 +10608,42 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-17.68</t>
+          <t>-18.22</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="W53" t="n">
-        <v>-33</v>
+        <v>-10</v>
       </c>
       <c r="X53" t="b">
         <v>0</v>
@@ -10652,20 +10652,20 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>13.58</v>
+        <v>-10.24</v>
       </c>
       <c r="AC53" t="n">
-        <v>-6.02</v>
+        <v>-25.95</v>
       </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>3.26</v>
+        <v>0.61</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10684,14 +10684,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>16.54</v>
       </c>
       <c r="AK53" t="n">
-        <v>13.22</v>
+        <v>13.07</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10704,11 +10704,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>72.15000000000001</v>
+        <v>72.87</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV53"/>
+  <dimension ref="A1:AV41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2598,86 +2598,86 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>6508</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.29</v>
+        <v>-1.07</v>
       </c>
       <c r="D12" t="n">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>17.05</v>
+        <v>28.2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>26</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-4.76</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>-44.37</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>-20</v>
+        <v>60</v>
       </c>
       <c r="U12" t="n">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -2689,24 +2689,24 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>-1.55</v>
+        <v>14.66</v>
       </c>
       <c r="AB12" t="n">
-        <v>-26</v>
+        <v>18.72</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9399999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>達邦蛋白</t>
+          <t>惠光</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2721,28 +2721,28 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>0.95</v>
+        <v>5.03</v>
       </c>
       <c r="AK12" t="n">
-        <v>173.5</v>
+        <v>28.78</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>21.93%</t>
+          <t>26.26%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AN12" t="n">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
+          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>達邦蛋白-農業科技業-上櫃</t>
+          <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>15.23</v>
+        <v>27.88</v>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
@@ -2783,93 +2783,93 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 食品 - 原物料</t>
+          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>6508</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.59</v>
+        <v>1.07</v>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>17.1</v>
+        <v>28.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1.44</v>
+        <v>-1.06</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>26</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>-34.21</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="U13" t="n">
-        <v>-36</v>
+        <v>19</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2881,24 +2881,24 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>16.99</v>
+        <v>23.37</v>
       </c>
       <c r="AB13" t="n">
-        <v>-24.37</v>
+        <v>18.09</v>
       </c>
       <c r="AC13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.7</v>
+        <v>0.29</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>達邦蛋白</t>
+          <t>惠光</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2913,28 +2913,28 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>0.95</v>
+        <v>5.03</v>
       </c>
       <c r="AK13" t="n">
-        <v>173.5</v>
+        <v>28.78</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>21.93%</t>
+          <t>26.26%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AN13" t="n">
@@ -2942,17 +2942,17 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
+          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>達邦蛋白-農業科技業-上櫃</t>
+          <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>15.23</v>
+        <v>27.88</v>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
@@ -2975,93 +2975,93 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 食品 - 原物料</t>
+          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>6508</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.88</v>
+        <v>-0.71</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>28.2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>26</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-5.38</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>-34.92</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U14" t="n">
-        <v>-32</v>
+        <v>-14</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -3073,24 +3073,24 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>-8.609999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>-27.24</v>
+        <v>3.35</v>
       </c>
       <c r="AC14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.68</v>
+        <v>1.24</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>達邦蛋白</t>
+          <t>惠光</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3105,28 +3105,28 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>0.95</v>
+        <v>5.03</v>
       </c>
       <c r="AK14" t="n">
-        <v>173.5</v>
+        <v>28.78</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>21.93%</t>
+          <t>26.26%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AN14" t="n">
@@ -3134,17 +3134,17 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
+          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>達邦蛋白-農業科技業-上櫃</t>
+          <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>15.23</v>
+        <v>27.88</v>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
@@ -3167,14 +3167,14 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 食品 - 原物料</t>
+          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3183,26 +3183,26 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.07</v>
+        <v>-0.18</v>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0.71</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3216,44 +3216,44 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-44.37</t>
+          <t>-23.69</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="U15" t="n">
-        <v>18</v>
+        <v>-14</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -3265,20 +3265,20 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>14.66</v>
+        <v>3.92</v>
       </c>
       <c r="AB15" t="n">
-        <v>18.72</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AC15" t="b">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.22</v>
+        <v>-0.61</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -3366,7 +3366,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3375,26 +3375,26 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.07</v>
+        <v>-0.71</v>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.5</v>
+        <v>28.45</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-1.06</v>
+        <v>-0.89</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3408,44 +3408,44 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-34.21</t>
+          <t>-16.78</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -3457,20 +3457,20 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>23.37</v>
+        <v>13.42</v>
       </c>
       <c r="AB16" t="n">
-        <v>18.09</v>
+        <v>7.04</v>
       </c>
       <c r="AC16" t="b">
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.29</v>
+        <v>0.91</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3567,26 +3567,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.71</v>
+        <v>0.17</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28.2</v>
+        <v>28.65</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3600,44 +3600,44 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-34.92</t>
+          <t>-9.42</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -3649,20 +3649,20 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>22.04</v>
       </c>
       <c r="AB17" t="n">
-        <v>3.35</v>
+        <v>10.52</v>
       </c>
       <c r="AC17" t="b">
         <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3750,7 +3750,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.18</v>
+        <v>0.35</v>
       </c>
       <c r="D18" t="n">
         <v>14</v>
@@ -3774,11 +3774,11 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-0.71</v>
+        <v>-1.42</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3792,44 +3792,44 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-23.69</t>
+          <t>-6.56</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="U18" t="n">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -3841,20 +3841,20 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>3.92</v>
+        <v>10.39</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.949999999999999</v>
+        <v>-6.4</v>
       </c>
       <c r="AC18" t="b">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.61</v>
+        <v>2.62</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3942,7 +3942,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3951,26 +3951,26 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.71</v>
+        <v>-1.05</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>28.45</v>
+        <v>28.5</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-0.89</v>
+        <v>-1.06</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3984,44 +3984,44 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-16.78</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T19" t="n">
         <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -4029,24 +4029,32 @@
       <c r="W19" t="b">
         <v>0</v>
       </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>13.42</v>
+        <v>-5.81</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.04</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="AC19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.91</v>
+        <v>0.42</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4134,7 +4142,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4146,23 +4154,23 @@
         <v>0.17</v>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>28.65</v>
+        <v>28.8</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-1.6</v>
+        <v>-2.13</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4176,44 +4184,44 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-9.42</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -4221,24 +4229,32 @@
       <c r="W20" t="b">
         <v>0</v>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>22.04</v>
+        <v>13.52</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.52</v>
+        <v>-12.76</v>
       </c>
       <c r="AC20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.1</v>
+        <v>2.06</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4326,7 +4342,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4335,26 +4351,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.6</v>
+        <v>28.75</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-1.42</v>
+        <v>-1.95</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4368,32 +4384,32 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-6.56</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -4402,10 +4418,10 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="U21" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V21" t="b">
         <v>0</v>
@@ -4413,24 +4429,32 @@
       <c r="W21" t="b">
         <v>0</v>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>10.39</v>
+        <v>-8.99</v>
       </c>
       <c r="AB21" t="n">
-        <v>-6.4</v>
+        <v>-12.35</v>
       </c>
       <c r="AC21" t="b">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.62</v>
+        <v>0.27</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -4518,86 +4542,86 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1.05</v>
+        <v>2.7</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>975</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="H22" t="n">
-        <v>28.5</v>
+        <v>25.8</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-1.06</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>975</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="U22" t="n">
-        <v>11</v>
+        <v>-45</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -4607,34 +4631,34 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>-5.81</v>
+        <v>34.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>-9.960000000000001</v>
+        <v>125.51</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.42</v>
+        <v>-0.73</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -4649,28 +4673,26 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>28.78</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AN22" t="n">
@@ -4678,17 +4700,17 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -4697,7 +4719,7 @@
         </is>
       </c>
       <c r="AS22" t="n">
-        <v>27.88</v>
+        <v>12.24</v>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
@@ -4711,93 +4733,93 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.17</v>
+        <v>9.76</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>633</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="H23" t="n">
-        <v>28.8</v>
+        <v>25.15</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-2.13</v>
+        <v>2.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>975</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>-40</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -4807,34 +4829,34 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>13.52</v>
+        <v>-93.84</v>
       </c>
       <c r="AB23" t="n">
-        <v>-12.76</v>
+        <v>114.21</v>
       </c>
       <c r="AC23" t="b">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.06</v>
+        <v>-1.82</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4849,28 +4871,26 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>28.78</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AN23" t="n">
@@ -4878,17 +4898,17 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -4897,7 +4917,7 @@
         </is>
       </c>
       <c r="AS23" t="n">
-        <v>27.88</v>
+        <v>12.24</v>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
@@ -4911,93 +4931,93 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.53</v>
+        <v>-4.55</v>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>395</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="H24" t="n">
-        <v>28.75</v>
+        <v>22.9</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-1.95</v>
+        <v>11.24</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>975</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-7.74</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="U24" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -5007,34 +5027,34 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>-8.99</v>
+        <v>103.46</v>
       </c>
       <c r="AB24" t="n">
-        <v>-12.35</v>
+        <v>108.86</v>
       </c>
       <c r="AC24" t="b">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.27</v>
+        <v>-0.05</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -5049,28 +5069,26 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>28.78</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AN24" t="n">
@@ -5078,17 +5096,17 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -5097,7 +5115,7 @@
         </is>
       </c>
       <c r="AS24" t="n">
-        <v>27.88</v>
+        <v>12.24</v>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
@@ -5111,93 +5129,93 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.18</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="H25" t="n">
-        <v>28.6</v>
+        <v>24</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-1.42</v>
+        <v>6.98</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>975</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-5.77</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>28.46</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>-22</v>
+        <v>105</v>
       </c>
       <c r="U25" t="n">
-        <v>-25</v>
+        <v>68</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
@@ -5207,34 +5225,34 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>-16.26</v>
+        <v>138.82</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.66</v>
+        <v>112.22</v>
       </c>
       <c r="AC25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>-7.11</v>
+        <v>0.24</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -5249,28 +5267,26 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>28.78</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AN25" t="n">
@@ -5278,17 +5294,17 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -5297,7 +5313,7 @@
         </is>
       </c>
       <c r="AS25" t="n">
-        <v>27.88</v>
+        <v>12.24</v>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
@@ -5311,93 +5327,93 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-6.92</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>730</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="H26" t="n">
-        <v>28.65</v>
+        <v>24.2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-1.6</v>
+        <v>6.2</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>975</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>48.24</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>-2</v>
+        <v>113</v>
       </c>
       <c r="U26" t="n">
-        <v>-41</v>
+        <v>80</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -5407,34 +5423,34 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>-13.78</v>
+        <v>154.83</v>
       </c>
       <c r="AB26" t="n">
-        <v>17.41</v>
+        <v>114.25</v>
       </c>
       <c r="AC26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>-1.79</v>
+        <v>0.36</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -5449,28 +5465,26 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>28.78</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AN26" t="n">
@@ -5478,17 +5492,17 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -5497,7 +5511,7 @@
         </is>
       </c>
       <c r="AS26" t="n">
-        <v>27.88</v>
+        <v>12.24</v>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
@@ -5511,93 +5525,93 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.87</v>
+        <v>-3.79</v>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>958</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.91</v>
+        <v>1.11</v>
       </c>
       <c r="H27" t="n">
-        <v>28.85</v>
+        <v>26</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-2.3</v>
+        <v>-0.78</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>975</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>45.73</t>
+          <t>77.76</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="U27" t="n">
-        <v>-53</v>
+        <v>88</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -5607,34 +5621,34 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>-12.83</v>
+        <v>174.13</v>
       </c>
       <c r="AB27" t="n">
-        <v>23.3</v>
+        <v>122.98</v>
       </c>
       <c r="AC27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
-        <v>-1.55</v>
+        <v>0.42</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -5649,28 +5663,26 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>28.78</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AN27" t="n">
@@ -5678,17 +5690,17 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -5697,7 +5709,7 @@
         </is>
       </c>
       <c r="AS27" t="n">
-        <v>27.88</v>
+        <v>12.24</v>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
@@ -5706,19 +5718,19 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5727,26 +5739,26 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.7</v>
+        <v>3.21</v>
       </c>
       <c r="D28" t="n">
-        <v>975</v>
+        <v>4205</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.91</v>
+        <v>1.14</v>
       </c>
       <c r="H28" t="n">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-4.65</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -5760,44 +5772,44 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="U28" t="n">
-        <v>-45</v>
+        <v>77</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -5817,20 +5829,20 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>34.4</v>
+        <v>186.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>125.51</v>
+        <v>127.91</v>
       </c>
       <c r="AC28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.73</v>
+        <v>0.46</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -5849,7 +5861,7 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -5904,7 +5916,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -5916,7 +5928,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5925,26 +5937,26 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.76</v>
+        <v>9.65</v>
       </c>
       <c r="D29" t="n">
-        <v>633</v>
+        <v>1302</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.87</v>
+        <v>1.46</v>
       </c>
       <c r="H29" t="n">
-        <v>25.15</v>
+        <v>26.15</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>2.52</v>
+        <v>-1.36</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -5958,44 +5970,44 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>107.77</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="U29" t="n">
-        <v>-40</v>
+        <v>39</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -6015,20 +6027,20 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>-93.84</v>
+        <v>114.01</v>
       </c>
       <c r="AB29" t="n">
-        <v>114.21</v>
+        <v>78.69</v>
       </c>
       <c r="AC29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>-1.82</v>
+        <v>0.45</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -6047,7 +6059,7 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
@@ -6102,7 +6114,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
@@ -6114,7 +6126,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6123,26 +6135,26 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-4.55</v>
+        <v>1.04</v>
       </c>
       <c r="D30" t="n">
-        <v>395</v>
+        <v>692</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>11.24</v>
+        <v>7.75</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -6156,44 +6168,44 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-7.74</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>100.91</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="U30" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -6213,20 +6225,20 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>103.46</v>
+        <v>76.91</v>
       </c>
       <c r="AB30" t="n">
-        <v>108.86</v>
+        <v>55.04</v>
       </c>
       <c r="AC30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.05</v>
+        <v>0.4</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6245,7 +6257,7 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
@@ -6300,7 +6312,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
@@ -6312,7 +6324,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6321,26 +6333,26 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.8100000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="D31" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24</v>
+        <v>23.55</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>6.98</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -6354,44 +6366,44 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-5.77</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28.46</t>
+          <t>121.80</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="U31" t="n">
-        <v>68</v>
+        <v>-12</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -6411,20 +6423,20 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>138.82</v>
+        <v>46.21</v>
       </c>
       <c r="AB31" t="n">
-        <v>112.22</v>
+        <v>39.07</v>
       </c>
       <c r="AC31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -6443,7 +6455,7 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
@@ -6498,7 +6510,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6510,86 +6522,86 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-6.92</v>
+        <v>0.34</v>
       </c>
       <c r="D32" t="n">
-        <v>730</v>
+        <v>32</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>24.2</v>
+        <v>59.6</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-10.74</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>113</v>
+        <v>-26</v>
       </c>
       <c r="U32" t="n">
-        <v>80</v>
+        <v>-27</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -6599,7 +6611,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -6609,24 +6621,24 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>154.83</v>
+        <v>6.36</v>
       </c>
       <c r="AB32" t="n">
-        <v>114.25</v>
+        <v>31.47</v>
       </c>
       <c r="AC32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.36</v>
+        <v>-0.8</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
@@ -6641,26 +6653,28 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK32" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN32" t="n">
@@ -6668,26 +6682,26 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS32" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
@@ -6701,93 +6715,93 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-3.79</v>
+        <v>-1.17</v>
       </c>
       <c r="D33" t="n">
-        <v>958</v>
+        <v>49</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.11</v>
+        <v>0.77</v>
       </c>
       <c r="H33" t="n">
-        <v>26</v>
+        <v>59.4</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-0.78</v>
+        <v>0.34</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>140</v>
+        <v>-15</v>
       </c>
       <c r="U33" t="n">
-        <v>88</v>
+        <v>-34</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -6797,7 +6811,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -6807,24 +6821,24 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>174.13</v>
+        <v>-22</v>
       </c>
       <c r="AB33" t="n">
-        <v>122.98</v>
+        <v>29.69</v>
       </c>
       <c r="AC33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.42</v>
+        <v>-1.74</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
@@ -6839,26 +6853,28 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK33" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN33" t="n">
@@ -6866,26 +6882,26 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS33" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT33" t="inlineStr">
         <is>
@@ -6894,98 +6910,98 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.21</v>
+        <v>0.17</v>
       </c>
       <c r="D34" t="n">
-        <v>4205</v>
+        <v>8</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.14</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
-        <v>27</v>
+        <v>60.1</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-4.65</v>
+        <v>-0.84</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>100.86</t>
+          <t>21.99</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="U34" t="n">
-        <v>77</v>
+        <v>-2</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -6995,7 +7011,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -7005,24 +7021,24 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>186.8</v>
+        <v>34.85</v>
       </c>
       <c r="AB34" t="n">
-        <v>127.91</v>
+        <v>32.26</v>
       </c>
       <c r="AC34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
@@ -7037,26 +7053,28 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK34" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN34" t="n">
@@ -7064,26 +7082,26 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS34" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
@@ -7092,98 +7110,98 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.65</v>
+        <v>0.67</v>
       </c>
       <c r="D35" t="n">
-        <v>1302</v>
+        <v>29</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="H35" t="n">
-        <v>26.15</v>
+        <v>60</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-1.36</v>
+        <v>-0.67</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>107.77</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="U35" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="V35" t="b">
         <v>0</v>
@@ -7193,7 +7211,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -7203,24 +7221,24 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>114.01</v>
+        <v>41.08</v>
       </c>
       <c r="AB35" t="n">
-        <v>78.69</v>
+        <v>33.51</v>
       </c>
       <c r="AC35" t="b">
         <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -7235,26 +7253,28 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ35" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK35" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN35" t="n">
@@ -7262,26 +7282,26 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS35" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT35" t="inlineStr">
         <is>
@@ -7290,98 +7310,98 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.04</v>
+        <v>-1.16</v>
       </c>
       <c r="D36" t="n">
-        <v>692</v>
+        <v>15</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H36" t="n">
-        <v>23.8</v>
+        <v>59.6</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>100.91</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T36" t="n">
         <v>75</v>
       </c>
       <c r="U36" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -7391,7 +7411,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -7401,24 +7421,24 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>76.91</v>
+        <v>45.25</v>
       </c>
       <c r="AB36" t="n">
-        <v>55.04</v>
+        <v>31.98</v>
       </c>
       <c r="AC36" t="b">
         <v>1</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -7433,26 +7453,28 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK36" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN36" t="n">
@@ -7460,26 +7482,26 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS36" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
@@ -7488,98 +7510,98 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.5</v>
+        <v>-0.17</v>
       </c>
       <c r="D37" t="n">
-        <v>580</v>
+        <v>12</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="H37" t="n">
-        <v>23.55</v>
+        <v>60.3</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>8.720000000000001</v>
+        <v>-1.17</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>121.80</t>
+          <t>38.08</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="U37" t="n">
-        <v>-12</v>
+        <v>49</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -7589,7 +7611,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -7599,24 +7621,24 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>46.21</v>
+        <v>44.05</v>
       </c>
       <c r="AB37" t="n">
-        <v>39.07</v>
+        <v>32.5</v>
       </c>
       <c r="AC37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -7631,26 +7653,28 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK37" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN37" t="n">
@@ -7658,26 +7682,26 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS37" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
@@ -7686,98 +7710,98 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-4.04</v>
+        <v>1.33</v>
       </c>
       <c r="D38" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>21.45</v>
+        <v>60.4</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>16.86</v>
+        <v>-1.34</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-3.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>143.42</t>
+          <t>32.69</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="U38" t="n">
-        <v>-46</v>
+        <v>47</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -7787,7 +7811,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -7797,24 +7821,24 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>-8.630000000000001</v>
+        <v>47.4</v>
       </c>
       <c r="AB38" t="n">
-        <v>26.1</v>
+        <v>35.13</v>
       </c>
       <c r="AC38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.33</v>
+        <v>0.35</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -7829,26 +7853,28 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ38" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK38" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN38" t="n">
@@ -7856,26 +7882,26 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS38" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT38" t="inlineStr">
         <is>
@@ -7889,103 +7915,103 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="D39" t="n">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>22.35</v>
+        <v>59.6</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>13.37</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-4.25</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>-3.47</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>323.04</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
       </c>
       <c r="W39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -7995,24 +8021,24 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>-46.6</v>
+        <v>29.45</v>
       </c>
       <c r="AB39" t="n">
-        <v>31.55</v>
+        <v>21.88</v>
       </c>
       <c r="AC39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>-2.48</v>
+        <v>0.35</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -8027,26 +8053,28 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK39" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN39" t="n">
@@ -8054,26 +8082,26 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS39" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT39" t="inlineStr">
         <is>
@@ -8082,98 +8110,98 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-2.23</v>
+        <v>1.03</v>
       </c>
       <c r="D40" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>22</v>
+        <v>58.9</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>14.73</v>
+        <v>1.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>-4.81</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1911.89</t>
+          <t>-6.39</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -8181,36 +8209,28 @@
       <c r="W40" t="b">
         <v>0</v>
       </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>-24.79</v>
+        <v>23.62</v>
       </c>
       <c r="AB40" t="n">
-        <v>27.01</v>
+        <v>19.96</v>
       </c>
       <c r="AC40" t="b">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>-1.92</v>
+        <v>0.18</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -8225,26 +8245,28 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ40" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AK40" t="inlineStr"/>
+        <v>16.54</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>13.07</v>
+      </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN40" t="n">
@@ -8252,26 +8274,26 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS40" t="n">
-        <v>12.24</v>
+        <v>35.38</v>
       </c>
       <c r="AT40" t="inlineStr">
         <is>
@@ -8285,14 +8307,14 @@
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8301,26 +8323,26 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>59.6</v>
+        <v>58.3</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -8334,17 +8356,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -8354,24 +8376,24 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>-17.07</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>-26</v>
+        <v>-20</v>
       </c>
       <c r="U41" t="n">
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -8379,32 +8401,24 @@
       <c r="W41" t="b">
         <v>0</v>
       </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>6.36</v>
+        <v>-1.18</v>
       </c>
       <c r="AB41" t="n">
-        <v>31.47</v>
+        <v>11.84</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -8423,7 +8437,7 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
@@ -8484,2366 +8498,6 @@
         </is>
       </c>
       <c r="AV41" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="D42" t="n">
-        <v>49</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H42" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>-2.36</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>-0.80</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>-15</v>
-      </c>
-      <c r="U42" t="n">
-        <v>-34</v>
-      </c>
-      <c r="V42" t="b">
-        <v>0</v>
-      </c>
-      <c r="W42" t="b">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
-      <c r="AA42" t="n">
-        <v>-22</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>29.69</v>
-      </c>
-      <c r="AC42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ42" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN42" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR42" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS42" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT42" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU42" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV42" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-06-09</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D43" t="n">
-        <v>8</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H43" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>-0.84</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>21.99</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>27</v>
-      </c>
-      <c r="U43" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V43" t="b">
-        <v>0</v>
-      </c>
-      <c r="W43" t="b">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AA43" t="n">
-        <v>34.85</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>32.26</v>
-      </c>
-      <c r="AC43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ43" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL43" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN43" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP43" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ43" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR43" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS43" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT43" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU43" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV43" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-06-06</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D44" t="n">
-        <v>29</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H44" t="n">
-        <v>60</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>25.13</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="T44" t="n">
-        <v>49</v>
-      </c>
-      <c r="U44" t="n">
-        <v>16</v>
-      </c>
-      <c r="V44" t="b">
-        <v>0</v>
-      </c>
-      <c r="W44" t="b">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AA44" t="n">
-        <v>41.08</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="AC44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ44" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN44" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP44" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ44" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS44" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT44" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU44" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV44" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="D45" t="n">
-        <v>15</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H45" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>-1.17</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28.32</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>75</v>
-      </c>
-      <c r="U45" t="n">
-        <v>41</v>
-      </c>
-      <c r="V45" t="b">
-        <v>0</v>
-      </c>
-      <c r="W45" t="b">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="AA45" t="n">
-        <v>45.25</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>31.98</v>
-      </c>
-      <c r="AC45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ45" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL45" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN45" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP45" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS45" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT45" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU45" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV45" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="D46" t="n">
-        <v>12</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H46" t="n">
-        <v>60.3</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>38.08</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>57</v>
-      </c>
-      <c r="U46" t="n">
-        <v>49</v>
-      </c>
-      <c r="V46" t="b">
-        <v>0</v>
-      </c>
-      <c r="W46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AA46" t="n">
-        <v>44.05</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="AC46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ46" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL46" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN46" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP46" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS46" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT46" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU46" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV46" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-06-03</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="D47" t="n">
-        <v>91</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>-1.98</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>32.69</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="T47" t="n">
-        <v>40</v>
-      </c>
-      <c r="U47" t="n">
-        <v>47</v>
-      </c>
-      <c r="V47" t="b">
-        <v>0</v>
-      </c>
-      <c r="W47" t="b">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AA47" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>35.13</v>
-      </c>
-      <c r="AC47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ47" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN47" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP47" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS47" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT47" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU47" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV47" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D48" t="n">
-        <v>49</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>14</v>
-      </c>
-      <c r="U48" t="n">
-        <v>27</v>
-      </c>
-      <c r="V48" t="b">
-        <v>0</v>
-      </c>
-      <c r="W48" t="b">
-        <v>1</v>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AA48" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="AC48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ48" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL48" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN48" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP48" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS48" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT48" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU48" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV48" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>-6.39</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>9</v>
-      </c>
-      <c r="U49" t="n">
-        <v>13</v>
-      </c>
-      <c r="V49" t="b">
-        <v>0</v>
-      </c>
-      <c r="W49" t="b">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AA49" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="AC49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="AI49" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ49" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL49" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN49" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP49" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ49" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR49" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS49" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT49" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU49" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV49" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>25</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>-17.07</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>-20</v>
-      </c>
-      <c r="U50" t="n">
-        <v>-7</v>
-      </c>
-      <c r="V50" t="b">
-        <v>0</v>
-      </c>
-      <c r="W50" t="b">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="AA50" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="AC50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ50" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL50" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN50" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP50" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ50" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR50" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS50" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT50" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU50" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV50" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D51" t="n">
-        <v>13</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>-16.85</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>-4</v>
-      </c>
-      <c r="U51" t="n">
-        <v>-19</v>
-      </c>
-      <c r="V51" t="b">
-        <v>0</v>
-      </c>
-      <c r="W51" t="b">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="AA51" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="AC51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ51" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL51" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN51" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP51" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ51" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR51" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS51" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT51" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU51" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV51" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2025-05-26</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="D52" t="n">
-        <v>23</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>-1.20</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>-0.34</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>-16.94</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>-6</v>
-      </c>
-      <c r="U52" t="n">
-        <v>-25</v>
-      </c>
-      <c r="V52" t="b">
-        <v>0</v>
-      </c>
-      <c r="W52" t="b">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="AA52" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="AC52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF52" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ52" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL52" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN52" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP52" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ52" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR52" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS52" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT52" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU52" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV52" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D53" t="n">
-        <v>23</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>-0.86</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>-12.55</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>-2</v>
-      </c>
-      <c r="U53" t="n">
-        <v>-10</v>
-      </c>
-      <c r="V53" t="b">
-        <v>0</v>
-      </c>
-      <c r="W53" t="b">
-        <v>0</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="AA53" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="AC53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ53" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL53" t="inlineStr">
-        <is>
-          <t>14.48%</t>
-        </is>
-      </c>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN53" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
-      </c>
-      <c r="AP53" t="inlineStr">
-        <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ53" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR53" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS53" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="AT53" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU53" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV53" t="inlineStr">
         <is>
           <t>** 其他 - 農業科技業</t>
         </is>

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -601,67 +601,67 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>Full_Summary</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>短增level</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.66</v>
+        <v>0.57</v>
       </c>
       <c r="D2" t="n">
-        <v>317</v>
+        <v>143</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.35</v>
+        <v>17.6</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,37 +710,37 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3059.01</t>
+          <t>166.27</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -750,14 +750,14 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="U2" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -769,20 +769,20 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>-25.22</v>
+        <v>180.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>-11.04</v>
+        <v>45.44</v>
       </c>
       <c r="AC2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.28</v>
+        <v>2.97</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -801,60 +801,60 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ2" t="n">
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK2" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK2" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AL2" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM2" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN2" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO2" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>15.23</v>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -879,77 +879,77 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>-3.75</v>
+        <v>0.57</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>668.61</t>
+          <t>341.35</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-7</v>
+        <v>-31</v>
       </c>
       <c r="U3" t="n">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -961,20 +961,20 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>26.74</v>
+        <v>-21.84</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.54</v>
+        <v>11.65</v>
       </c>
       <c r="AC3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.84</v>
+        <v>-2.87</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -993,60 +993,60 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ3" t="n">
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK3" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK3" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AL3" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM3" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN3" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO3" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>15.23</v>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1071,77 +1071,77 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-3.66</v>
       </c>
       <c r="D4" t="n">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.85</v>
+        <v>17.35</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-2.88</v>
+        <v>1.42</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>238.08</t>
+          <t>3059.01</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>-34</v>
       </c>
       <c r="U4" t="n">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -1153,20 +1153,20 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>15.84</v>
+        <v>-329.22</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.85</v>
+        <v>20.02</v>
       </c>
       <c r="AC4" t="b">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.14</v>
+        <v>-17.44</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1185,60 +1185,60 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ4" t="n">
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK4" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK4" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AL4" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN4" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO4" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>15.23</v>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1263,77 +1263,77 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.13</v>
+        <v>0.84</v>
       </c>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="H5" t="n">
-        <v>17.85</v>
+        <v>18</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-2.88</v>
+        <v>-2.27</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>142.30</t>
+          <t>668.61</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="U5" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1345,20 +1345,20 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>17.52</v>
+        <v>120.18</v>
       </c>
       <c r="AB5" t="n">
-        <v>21.82</v>
+        <v>107.32</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.2</v>
+        <v>0.12</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1377,64 +1377,64 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ5" t="n">
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK5" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK5" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AL5" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM5" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN5" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO5" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>15.23</v>
       </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1455,77 +1455,77 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H6" t="n">
-        <v>17.65</v>
+        <v>17.85</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-1.73</v>
+        <v>-1.42</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>238.08</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1537,20 +1537,20 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>20.22</v>
+        <v>63.59</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.4</v>
+        <v>104.11</v>
       </c>
       <c r="AC6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1569,64 +1569,64 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ6" t="n">
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK6" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK6" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AL6" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM6" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN6" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO6" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>15.23</v>
       </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1647,77 +1647,77 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4</v>
+        <v>17.85</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-0.29</v>
+        <v>-1.42</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>60.77</t>
+          <t>142.30</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U7" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -1729,20 +1729,20 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>260.23</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.96</v>
+        <v>114.24</v>
       </c>
       <c r="AC7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.42</v>
+        <v>1.28</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1761,64 +1761,64 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ7" t="n">
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK7" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK7" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AL7" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM7" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN7" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO7" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
         <v>15.23</v>
       </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
@@ -1830,7 +1830,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1839,77 +1839,77 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17.2</v>
+        <v>17.65</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.86</v>
+        <v>-0.28</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-3.40</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>47.54</t>
+          <t>89.09</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>-17.09</v>
+        <v>179.36</v>
       </c>
       <c r="AB8" t="n">
-        <v>-1.3</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="AC8" t="b">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>-12.15</v>
+        <v>1.31</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1953,64 +1953,64 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ8" t="n">
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK8" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK8" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AL8" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM8" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN8" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO8" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS8" t="n">
+      <c r="AT8" t="n">
         <v>15.23</v>
       </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
@@ -2022,7 +2022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2031,80 +2031,80 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>-2.90</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>43.31</t>
+          <t>60.77</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="V9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -2113,20 +2113,20 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>11.52</v>
+        <v>100.38</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.41</v>
+        <v>52.34</v>
       </c>
       <c r="AC9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.13</v>
+        <v>0.92</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2145,64 +2145,64 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ9" t="n">
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK9" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK9" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AL9" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM9" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN9" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO9" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS9" t="n">
+      <c r="AT9" t="n">
         <v>15.23</v>
       </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2223,15 +2223,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2242,61 +2242,61 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.86</v>
+        <v>2.27</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-4.23</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="U10" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="V10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -2305,20 +2305,20 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>25.4</v>
+        <v>-15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>17.8</v>
+        <v>40.33</v>
       </c>
       <c r="AC10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.43</v>
+        <v>-1.38</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2337,64 +2337,64 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK10" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK10" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AL10" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM10" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN10" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO10" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS10" t="n">
+      <c r="AT10" t="n">
         <v>15.23</v>
       </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
@@ -2406,7 +2406,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2415,77 +2415,77 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1.44</v>
+        <v>2.27</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>143</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>-3.84</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>32.21</t>
+          <t>43.31</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="U11" t="n">
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="V11" t="b">
         <v>1</v>
@@ -2497,20 +2497,20 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>2.45</v>
+        <v>97.33</v>
       </c>
       <c r="AB11" t="n">
-        <v>-19.46</v>
+        <v>54.29</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2529,64 +2529,64 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="AJ11" t="n">
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="AK11" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK11" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AL11" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM11" t="inlineStr">
         <is>
           <t>21.93%</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>-0.35%</t>
         </is>
       </c>
-      <c r="AN11" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>1248</t>
-        </is>
+      <c r="AO11" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
           <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS11" t="n">
+      <c r="AT11" t="n">
         <v>15.23</v>
       </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2607,19 +2607,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="H12" t="n">
         <v>28.2</v>
@@ -2635,49 +2635,49 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-44.37</t>
+          <t>-61.29</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="U12" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -2689,20 +2689,20 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>14.66</v>
+        <v>-63.17</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.72</v>
+        <v>-14.19</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.22</v>
+        <v>-3.45</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2721,60 +2721,60 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN12" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AO12" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS12" t="n">
+      <c r="AT12" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2799,26 +2799,26 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>-1.06</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -2827,49 +2827,49 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-34.21</t>
+          <t>-53.19</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="U13" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2881,20 +2881,20 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>23.37</v>
+        <v>-11.19</v>
       </c>
       <c r="AB13" t="n">
-        <v>18.09</v>
+        <v>-1.94</v>
       </c>
       <c r="AC13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.29</v>
+        <v>-4.77</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2913,60 +2913,60 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN13" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AO13" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS13" t="n">
+      <c r="AT13" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2991,19 +2991,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.71</v>
+        <v>-1.07</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
         <v>28.2</v>
@@ -3019,49 +3019,49 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-34.92</t>
+          <t>-44.37</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T14" t="n">
+        <v>60</v>
+      </c>
+      <c r="U14" t="n">
         <v>18</v>
-      </c>
-      <c r="U14" t="n">
-        <v>-14</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -3073,20 +3073,20 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>30.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>3.35</v>
+        <v>0.37</v>
       </c>
       <c r="AC14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.24</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3105,60 +3105,60 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN14" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AO14" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP14" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS14" t="n">
+      <c r="AT14" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3183,26 +3183,26 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.18</v>
+        <v>1.07</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-0.71</v>
+        <v>-1.06</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3211,49 +3211,49 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-23.69</t>
+          <t>-34.21</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="U15" t="n">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -3265,20 +3265,20 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>3.92</v>
+        <v>146.33</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.949999999999999</v>
+        <v>-7.1</v>
       </c>
       <c r="AC15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.61</v>
+        <v>21.61</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3297,60 +3297,60 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN15" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AO15" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS15" t="n">
+      <c r="AT15" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3378,23 +3378,23 @@
         <v>-0.71</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>28.45</v>
+        <v>28.2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-0.89</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3403,49 +3403,49 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-16.78</t>
+          <t>-34.92</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="U16" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -3457,20 +3457,20 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>13.42</v>
+        <v>-78.56</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.04</v>
+        <v>-45.46</v>
       </c>
       <c r="AC16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.91</v>
+        <v>-0.73</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -3489,60 +3489,60 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN16" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AO16" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS16" t="n">
+      <c r="AT16" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3567,26 +3567,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28.65</v>
+        <v>28.4</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-1.6</v>
+        <v>-0.71</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3595,49 +3595,49 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-9.42</t>
+          <t>-23.69</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -3649,20 +3649,20 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>22.04</v>
+        <v>-70.45</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.52</v>
+        <v>-37.18</v>
       </c>
       <c r="AC17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.1</v>
+        <v>-0.89</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3681,60 +3681,60 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN17" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AO17" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS17" t="n">
+      <c r="AT17" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3759,26 +3759,26 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.35</v>
+        <v>-0.71</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>28.6</v>
+        <v>28.45</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-1.42</v>
+        <v>-0.89</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3797,39 +3797,39 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-6.56</t>
+          <t>-16.78</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="T18" t="n">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>-19</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -3841,20 +3841,20 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>10.39</v>
+        <v>-34.93</v>
       </c>
       <c r="AB18" t="n">
-        <v>-6.4</v>
+        <v>-28.87</v>
       </c>
       <c r="AC18" t="b">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.62</v>
+        <v>-0.21</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3873,60 +3873,60 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN18" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AO18" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP18" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS18" t="n">
+      <c r="AT18" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3951,26 +3951,26 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.05</v>
+        <v>0.17</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>28.5</v>
+        <v>28.65</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-1.06</v>
+        <v>-1.6</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3979,82 +3979,74 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-9.42</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T19" t="n">
+        <v>8</v>
+      </c>
+      <c r="U19" t="n">
         <v>3</v>
       </c>
-      <c r="U19" t="n">
-        <v>11</v>
-      </c>
       <c r="V19" t="b">
         <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>-5.81</v>
+        <v>24.89</v>
       </c>
       <c r="AB19" t="n">
-        <v>-9.960000000000001</v>
+        <v>-27.35</v>
       </c>
       <c r="AC19" t="b">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.42</v>
+        <v>1.91</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4073,60 +4065,60 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN19" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AO19" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP19" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS19" t="n">
+      <c r="AT19" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
@@ -4142,7 +4134,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4151,26 +4143,26 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-2.13</v>
+        <v>-1.42</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4179,37 +4171,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>-6.56</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -4218,10 +4210,10 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -4229,32 +4221,24 @@
       <c r="W20" t="b">
         <v>0</v>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>13.52</v>
+        <v>-38.29</v>
       </c>
       <c r="AB20" t="n">
-        <v>-12.76</v>
+        <v>-40.41</v>
       </c>
       <c r="AC20" t="b">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.06</v>
+        <v>0.05</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4273,60 +4257,60 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN20" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AO20" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP20" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS20" t="n">
+      <c r="AT20" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
@@ -4342,7 +4326,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4351,26 +4335,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.53</v>
+        <v>-1.05</v>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-1.95</v>
+        <v>-1.06</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4379,37 +4363,37 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -4418,10 +4402,10 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V21" t="b">
         <v>0</v>
@@ -4441,20 +4425,20 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>-8.99</v>
+        <v>-72.76000000000001</v>
       </c>
       <c r="AB21" t="n">
-        <v>-12.35</v>
+        <v>-40.94</v>
       </c>
       <c r="AC21" t="b">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.27</v>
+        <v>-0.78</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -4473,60 +4457,60 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
         <v>5.03</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
         <v>28.78</v>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>26.26%</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="AN21" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AO21" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="AP21" t="inlineStr">
         <is>
           <t>2440</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS21" t="n">
+      <c r="AT21" t="n">
         <v>27.88</v>
-      </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
@@ -4542,7 +4526,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4551,22 +4535,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.7</v>
+        <v>-6.75</v>
       </c>
       <c r="D22" t="n">
-        <v>975</v>
+        <v>352</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="H22" t="n">
-        <v>25.8</v>
+        <v>23.5</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
@@ -4574,54 +4558,54 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>-7.23</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-4.12</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>-4.48</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="U22" t="n">
-        <v>-45</v>
+        <v>-49</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -4636,25 +4620,25 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>34.4</v>
+        <v>-1582.44</v>
       </c>
       <c r="AB22" t="n">
-        <v>125.51</v>
+        <v>424.23</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.73</v>
+        <v>-4.73</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -4673,58 +4657,58 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr">
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN22" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO22" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS22" t="n">
+      <c r="AT22" t="n">
         <v>12.24</v>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
@@ -4740,7 +4724,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4749,77 +4733,77 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.76</v>
+        <v>-2.33</v>
       </c>
       <c r="D23" t="n">
-        <v>633</v>
+        <v>309</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="H23" t="n">
-        <v>25.15</v>
+        <v>25.2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>2.52</v>
+        <v>-7.23</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>-3.57</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U23" t="n">
-        <v>-40</v>
+        <v>-52</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -4834,25 +4818,25 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>-93.84</v>
+        <v>-482.28</v>
       </c>
       <c r="AB23" t="n">
-        <v>114.21</v>
+        <v>925.89</v>
       </c>
       <c r="AC23" t="b">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>-1.82</v>
+        <v>-1.52</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -4871,58 +4855,58 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr">
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN23" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO23" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS23" t="n">
+      <c r="AT23" t="n">
         <v>12.24</v>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
@@ -4938,7 +4922,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4947,77 +4931,77 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-4.55</v>
+        <v>2.7</v>
       </c>
       <c r="D24" t="n">
-        <v>395</v>
+        <v>975</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="H24" t="n">
-        <v>22.9</v>
+        <v>25.8</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>11.24</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-7.74</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="U24" t="n">
-        <v>42</v>
+        <v>-45</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -5032,25 +5016,25 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>103.46</v>
+        <v>1041.79</v>
       </c>
       <c r="AB24" t="n">
-        <v>108.86</v>
+        <v>1277.93</v>
       </c>
       <c r="AC24" t="b">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.05</v>
+        <v>-0.18</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -5069,58 +5053,58 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AK24" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr">
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN24" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO24" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS24" t="n">
+      <c r="AT24" t="n">
         <v>12.24</v>
-      </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
@@ -5136,7 +5120,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5145,77 +5129,77 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.8100000000000001</v>
+        <v>9.76</v>
       </c>
       <c r="D25" t="n">
-        <v>290</v>
+        <v>633</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="H25" t="n">
-        <v>24</v>
+        <v>25.15</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>6.98</v>
+        <v>-7.02</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-5.77</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>28.46</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="U25" t="n">
-        <v>68</v>
+        <v>-40</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
@@ -5230,25 +5214,25 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>138.82</v>
+        <v>-349.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>112.22</v>
+        <v>1336.97</v>
       </c>
       <c r="AC25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.24</v>
+        <v>-1.26</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -5267,58 +5251,58 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr">
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN25" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO25" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS25" t="n">
+      <c r="AT25" t="n">
         <v>12.24</v>
-      </c>
-      <c r="AT25" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
@@ -5334,7 +5318,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5343,77 +5327,77 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-6.92</v>
+        <v>-4.55</v>
       </c>
       <c r="D26" t="n">
-        <v>730</v>
+        <v>395</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="H26" t="n">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>6.2</v>
+        <v>2.55</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-10.74</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-7.74</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="U26" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -5428,25 +5412,25 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>154.83</v>
+        <v>-1285.12</v>
       </c>
       <c r="AB26" t="n">
-        <v>114.25</v>
+        <v>1758.54</v>
       </c>
       <c r="AC26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.36</v>
+        <v>-1.73</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -5465,58 +5449,58 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AK26" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr">
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN26" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO26" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AR26" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS26" t="n">
+      <c r="AT26" t="n">
         <v>12.24</v>
-      </c>
-      <c r="AT26" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
@@ -5532,7 +5516,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5541,77 +5525,77 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-3.79</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>958</v>
+        <v>290</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
       <c r="H27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-0.78</v>
+        <v>-2.13</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-5.77</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>28.46</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="U27" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -5626,25 +5610,25 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>174.13</v>
+        <v>42.47</v>
       </c>
       <c r="AB27" t="n">
-        <v>122.98</v>
+        <v>2519.45</v>
       </c>
       <c r="AC27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.42</v>
+        <v>-0.98</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -5663,62 +5647,62 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AK27" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr">
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN27" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO27" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AR27" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS27" t="n">
+      <c r="AT27" t="n">
         <v>12.24</v>
       </c>
-      <c r="AT27" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
@@ -5730,7 +5714,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5739,77 +5723,77 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.21</v>
+        <v>-6.92</v>
       </c>
       <c r="D28" t="n">
-        <v>4205</v>
+        <v>730</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="H28" t="n">
-        <v>27</v>
+        <v>24.2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-4.65</v>
+        <v>-2.98</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>100.86</t>
+          <t>48.24</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="U28" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -5824,25 +5808,25 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>186.8</v>
+        <v>1720.53</v>
       </c>
       <c r="AB28" t="n">
-        <v>127.91</v>
+        <v>3138.7</v>
       </c>
       <c r="AC28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.46</v>
+        <v>-0.45</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -5861,62 +5845,62 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AK28" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr">
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN28" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO28" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AR28" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS28" t="n">
+      <c r="AT28" t="n">
         <v>12.24</v>
       </c>
-      <c r="AT28" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -5928,7 +5912,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5937,77 +5921,77 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.65</v>
+        <v>-3.79</v>
       </c>
       <c r="D29" t="n">
-        <v>1302</v>
+        <v>958</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.46</v>
+        <v>1.11</v>
       </c>
       <c r="H29" t="n">
-        <v>26.15</v>
+        <v>26</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>-1.36</v>
+        <v>-10.64</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>107.77</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U29" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -6022,25 +6006,25 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>114.01</v>
+        <v>5270.14</v>
       </c>
       <c r="AB29" t="n">
-        <v>78.69</v>
+        <v>3493.24</v>
       </c>
       <c r="AC29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -6059,58 +6043,58 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AK29" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr">
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN29" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO29" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AR29" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS29" t="n">
+      <c r="AT29" t="n">
         <v>12.24</v>
-      </c>
-      <c r="AT29" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
@@ -6126,7 +6110,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6135,77 +6119,77 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.04</v>
+        <v>3.21</v>
       </c>
       <c r="D30" t="n">
-        <v>692</v>
+        <v>4205</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="H30" t="n">
-        <v>23.8</v>
+        <v>27</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>7.75</v>
+        <v>-14.89</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>100.91</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="U30" t="n">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -6220,25 +6204,25 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>76.91</v>
+        <v>10849.98</v>
       </c>
       <c r="AB30" t="n">
-        <v>55.04</v>
+        <v>3049.01</v>
       </c>
       <c r="AC30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.4</v>
+        <v>2.56</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6257,58 +6241,58 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AK30" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr">
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN30" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO30" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AR30" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS30" t="n">
+      <c r="AT30" t="n">
         <v>12.24</v>
-      </c>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
@@ -6324,7 +6308,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6333,77 +6317,77 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.5</v>
+        <v>9.65</v>
       </c>
       <c r="D31" t="n">
-        <v>580</v>
+        <v>1302</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="H31" t="n">
-        <v>23.55</v>
+        <v>26.15</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>8.720000000000001</v>
+        <v>-11.28</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>121.80</t>
+          <t>107.77</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="U31" t="n">
-        <v>-12</v>
+        <v>39</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -6418,25 +6402,25 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>46.21</v>
+        <v>3669.81</v>
       </c>
       <c r="AB31" t="n">
-        <v>39.07</v>
+        <v>1098.77</v>
       </c>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.18</v>
+        <v>2.34</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -6455,58 +6439,58 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AK31" t="n">
         <v>0.91</v>
       </c>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr">
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr">
         <is>
           <t>63.58%</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>-44.07%</t>
         </is>
       </c>
-      <c r="AN31" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>1482</t>
-        </is>
+      <c r="AO31" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
           <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AR31" t="inlineStr">
         <is>
           <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="AS31" t="n">
+      <c r="AT31" t="n">
         <v>12.24</v>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU31" t="inlineStr">
         <is>
@@ -6522,7 +6506,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6531,22 +6515,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="D32" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>59.6</v>
+        <v>59.3</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
@@ -6559,49 +6543,49 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>-6.96</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-26</v>
+        <v>-49</v>
       </c>
       <c r="U32" t="n">
-        <v>-27</v>
+        <v>-20</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -6616,25 +6600,25 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>6.36</v>
+        <v>-96.81</v>
       </c>
       <c r="AB32" t="n">
-        <v>31.47</v>
+        <v>221.59</v>
       </c>
       <c r="AC32" t="b">
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.8</v>
+        <v>-1.44</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -6653,60 +6637,60 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ32" t="n">
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK32" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK32" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AL32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM32" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN32" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO32" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AR32" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS32" t="n">
+      <c r="AT32" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
@@ -6722,7 +6706,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6731,26 +6715,26 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1.17</v>
+        <v>0.34</v>
       </c>
       <c r="D33" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>59.4</v>
+        <v>59.8</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -6759,37 +6743,37 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -6798,10 +6782,10 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>-15</v>
+        <v>-51</v>
       </c>
       <c r="U33" t="n">
-        <v>-34</v>
+        <v>-28</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -6816,25 +6800,25 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>-22</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="AB33" t="n">
-        <v>29.69</v>
+        <v>301.18</v>
       </c>
       <c r="AC33" t="b">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>-1.74</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -6853,60 +6837,60 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ33" t="n">
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK33" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK33" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AL33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM33" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN33" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO33" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AR33" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS33" t="n">
+      <c r="AT33" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU33" t="inlineStr">
         <is>
@@ -6922,7 +6906,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6931,26 +6915,26 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>60.1</v>
+        <v>59.6</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-0.84</v>
+        <v>-0.51</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -6959,49 +6943,49 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21.99</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>27</v>
+        <v>-26</v>
       </c>
       <c r="U34" t="n">
-        <v>-2</v>
+        <v>-27</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -7016,25 +7000,25 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>34.85</v>
+        <v>98.67</v>
       </c>
       <c r="AB34" t="n">
-        <v>32.26</v>
+        <v>353.44</v>
       </c>
       <c r="AC34" t="b">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.08</v>
+        <v>-0.72</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -7053,60 +7037,60 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ34" t="n">
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK34" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK34" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AL34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM34" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN34" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO34" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AR34" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS34" t="n">
+      <c r="AT34" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU34" t="inlineStr">
         <is>
@@ -7122,7 +7106,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7131,26 +7115,26 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.67</v>
+        <v>-1.17</v>
       </c>
       <c r="D35" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.05</v>
+        <v>0.77</v>
       </c>
       <c r="H35" t="n">
-        <v>60</v>
+        <v>59.4</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-0.67</v>
+        <v>-0.17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -7159,49 +7143,49 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>49</v>
+        <v>-15</v>
       </c>
       <c r="U35" t="n">
-        <v>16</v>
+        <v>-34</v>
       </c>
       <c r="V35" t="b">
         <v>0</v>
@@ -7216,25 +7200,25 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>41.08</v>
+        <v>-32.9</v>
       </c>
       <c r="AB35" t="n">
-        <v>33.51</v>
+        <v>417.14</v>
       </c>
       <c r="AC35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.23</v>
+        <v>-1.08</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -7253,60 +7237,60 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ35" t="n">
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK35" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK35" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AL35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM35" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN35" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO35" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AR35" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS35" t="n">
+      <c r="AT35" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU35" t="inlineStr">
         <is>
@@ -7322,7 +7306,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7331,26 +7315,26 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1.16</v>
+        <v>0.17</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.34</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
-        <v>59.6</v>
+        <v>60.1</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>-1.35</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -7359,49 +7343,49 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>21.99</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="U36" t="n">
-        <v>41</v>
+        <v>-2</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -7416,25 +7400,25 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>45.25</v>
+        <v>298.24</v>
       </c>
       <c r="AB36" t="n">
-        <v>31.98</v>
+        <v>529.65</v>
       </c>
       <c r="AC36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.41</v>
+        <v>-0.44</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -7453,60 +7437,60 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ36" t="n">
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK36" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK36" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AL36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM36" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN36" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO36" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AR36" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS36" t="n">
+      <c r="AT36" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU36" t="inlineStr">
         <is>
@@ -7522,7 +7506,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7531,26 +7515,26 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="H37" t="n">
-        <v>60.3</v>
+        <v>60</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-1.17</v>
+        <v>-1.18</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -7559,49 +7543,49 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="U37" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -7616,25 +7600,25 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>44.05</v>
+        <v>389.4</v>
       </c>
       <c r="AB37" t="n">
-        <v>32.5</v>
+        <v>587.5</v>
       </c>
       <c r="AC37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.36</v>
+        <v>-0.34</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -7653,60 +7637,60 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ37" t="n">
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK37" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK37" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AL37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM37" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN37" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO37" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AR37" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS37" t="n">
+      <c r="AT37" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT37" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU37" t="inlineStr">
         <is>
@@ -7722,7 +7706,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7731,26 +7715,26 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.33</v>
+        <v>-1.16</v>
       </c>
       <c r="D38" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H38" t="n">
-        <v>60.4</v>
+        <v>59.6</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-1.34</v>
+        <v>-0.51</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -7759,49 +7743,49 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="U38" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -7816,25 +7800,25 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>47.4</v>
+        <v>374.79</v>
       </c>
       <c r="AB38" t="n">
-        <v>35.13</v>
+        <v>637.02</v>
       </c>
       <c r="AC38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.35</v>
+        <v>-0.41</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -7853,60 +7837,60 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ38" t="n">
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK38" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK38" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AL38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM38" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN38" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO38" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AR38" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS38" t="n">
+      <c r="AT38" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT38" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU38" t="inlineStr">
         <is>
@@ -7922,7 +7906,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7931,26 +7915,26 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.19</v>
+        <v>-0.17</v>
       </c>
       <c r="D39" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="H39" t="n">
-        <v>59.6</v>
+        <v>60.3</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>-1.69</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -7959,55 +7943,55 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>38.08</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="U39" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
       </c>
       <c r="W39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -8016,25 +8000,25 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>29.45</v>
+        <v>624.5700000000001</v>
       </c>
       <c r="AB39" t="n">
-        <v>21.88</v>
+        <v>702.58</v>
       </c>
       <c r="AC39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.35</v>
+        <v>-0.11</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -8053,60 +8037,60 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ39" t="n">
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK39" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK39" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AL39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM39" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN39" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO39" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AR39" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS39" t="n">
+      <c r="AT39" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT39" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU39" t="inlineStr">
         <is>
@@ -8122,7 +8106,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8131,26 +8115,26 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="D40" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>58.9</v>
+        <v>60.4</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>1.17</v>
+        <v>-1.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -8159,146 +8143,154 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-6.39</t>
+          <t>32.69</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="U40" t="n">
+        <v>47</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AA40" t="n">
+        <v>940.13</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>722.08</v>
+      </c>
+      <c r="AC40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>茂生農經</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>農業科技業</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK40" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="AL40" t="n">
         <v>13</v>
       </c>
-      <c r="V40" t="b">
-        <v>0</v>
-      </c>
-      <c r="W40" t="b">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AA40" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="AC40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ40" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AM40" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AN40" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN40" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO40" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AR40" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS40" t="n">
+      <c r="AT40" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT40" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU40" t="inlineStr">
         <is>
@@ -8314,7 +8306,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8323,26 +8315,26 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>58.3</v>
+        <v>59.6</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>2.18</v>
+        <v>-0.51</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -8351,74 +8343,82 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-17.07</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="U41" t="n">
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
       </c>
       <c r="W41" t="b">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>-1.18</v>
+        <v>684.6</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.84</v>
+        <v>667.5700000000001</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>-1.1</v>
+        <v>0.03</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -8437,60 +8437,60 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AJ41" t="n">
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK41" t="n">
         <v>16.54</v>
       </c>
-      <c r="AK41" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AL41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM41" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>5.37%</t>
         </is>
       </c>
-      <c r="AN41" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>2464</t>
-        </is>
+      <c r="AO41" t="n">
+        <v>72.59</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
           <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AR41" t="inlineStr">
         <is>
           <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
         <is>
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="AS41" t="n">
+      <c r="AT41" t="n">
         <v>35.38</v>
-      </c>
-      <c r="AT41" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
       </c>
       <c r="AU41" t="inlineStr">
         <is>

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.57</v>
+        <v>1.13</v>
       </c>
       <c r="D2" t="n">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -715,49 +715,49 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>166.27</t>
+          <t>119.28</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>-36</v>
+        <v>-42</v>
       </c>
       <c r="U2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -769,20 +769,20 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>180.6</v>
+        <v>247.44</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.44</v>
+        <v>85.84</v>
       </c>
       <c r="AC2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.97</v>
+        <v>1.88</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -801,24 +801,24 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK2" t="n">
         <v>0.95</v>
       </c>
       <c r="AL2" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -831,11 +831,11 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -879,26 +879,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="D3" t="n">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>0.57</v>
+        <v>1.12</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -907,32 +907,32 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>341.35</t>
+          <t>166.27</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -942,14 +942,14 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-31</v>
+        <v>-36</v>
       </c>
       <c r="U3" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -961,20 +961,20 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>-21.84</v>
+        <v>180.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.65</v>
+        <v>45.44</v>
       </c>
       <c r="AC3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>-2.87</v>
+        <v>2.97</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -993,24 +993,24 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK3" t="n">
         <v>0.95</v>
       </c>
       <c r="AL3" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1071,26 +1071,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.66</v>
+        <v>0.86</v>
       </c>
       <c r="D4" t="n">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.35</v>
+        <v>17.5</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1099,32 +1099,32 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3059.01</t>
+          <t>341.35</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -1153,20 +1153,20 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>-329.22</v>
+        <v>-21.84</v>
       </c>
       <c r="AB4" t="n">
-        <v>20.02</v>
+        <v>11.65</v>
       </c>
       <c r="AC4" t="b">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-17.44</v>
+        <v>-2.87</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1185,24 +1185,24 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK4" t="n">
         <v>0.95</v>
       </c>
       <c r="AL4" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
         </is>
       </c>
       <c r="AO4" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1263,26 +1263,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.84</v>
+        <v>-3.66</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>17.35</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-2.27</v>
+        <v>2.53</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1291,49 +1291,49 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>668.61</t>
+          <t>3059.01</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-7</v>
+        <v>-34</v>
       </c>
       <c r="U5" t="n">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1345,20 +1345,20 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>120.18</v>
+        <v>-329.22</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.32</v>
+        <v>20.02</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.12</v>
+        <v>-17.44</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1377,24 +1377,24 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK5" t="n">
         <v>0.95</v>
       </c>
       <c r="AL5" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="AO5" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1455,26 +1455,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.71</v>
+        <v>1.28</v>
       </c>
       <c r="H6" t="n">
-        <v>17.85</v>
+        <v>18</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-1.42</v>
+        <v>-1.12</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1483,49 +1483,49 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>238.08</t>
+          <t>668.61</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="U6" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1537,20 +1537,20 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>63.59</v>
+        <v>120.18</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.11</v>
+        <v>107.32</v>
       </c>
       <c r="AC6" t="b">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.39</v>
+        <v>0.12</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1569,24 +1569,24 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK6" t="n">
         <v>0.95</v>
       </c>
       <c r="AL6" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1647,26 +1647,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H7" t="n">
         <v>17.85</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-1.42</v>
+        <v>-0.28</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1675,49 +1675,49 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>142.30</t>
+          <t>238.08</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -1729,20 +1729,20 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>260.23</v>
+        <v>63.59</v>
       </c>
       <c r="AB7" t="n">
-        <v>114.24</v>
+        <v>104.11</v>
       </c>
       <c r="AC7" t="b">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.28</v>
+        <v>-0.39</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1771,14 +1771,14 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK7" t="n">
         <v>0.95</v>
       </c>
       <c r="AL7" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1830,7 +1830,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17.65</v>
+        <v>17.85</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
@@ -1867,49 +1867,49 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>142.30</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>179.36</v>
+        <v>260.23</v>
       </c>
       <c r="AB8" t="n">
-        <v>77.73999999999999</v>
+        <v>114.24</v>
       </c>
       <c r="AC8" t="b">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1953,24 +1953,24 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK8" t="n">
         <v>0.95</v>
       </c>
       <c r="AL8" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
@@ -1983,11 +1983,11 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2022,7 +2022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2031,26 +2031,26 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17.4</v>
+        <v>17.65</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1.14</v>
+        <v>0.84</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2059,46 +2059,46 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>60.77</t>
+          <t>89.09</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
         <v>7</v>
@@ -2117,16 +2117,16 @@
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>100.38</v>
+        <v>179.36</v>
       </c>
       <c r="AB9" t="n">
-        <v>52.34</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2150,19 +2150,19 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK9" t="n">
         <v>0.95</v>
       </c>
       <c r="AL9" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2223,26 +2223,26 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2251,49 +2251,49 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-3.40</t>
+          <t>-2.90</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>47.54</t>
+          <t>60.77</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -2305,20 +2305,20 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>-15.5</v>
+        <v>100.38</v>
       </c>
       <c r="AB10" t="n">
-        <v>40.33</v>
+        <v>52.34</v>
       </c>
       <c r="AC10" t="b">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>-1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2337,24 +2337,24 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK10" t="n">
         <v>0.95</v>
       </c>
       <c r="AL10" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
@@ -2367,11 +2367,11 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2406,7 +2406,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2418,12 +2418,12 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2.27</v>
+        <v>3.37</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2443,52 +2443,52 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>43.31</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="U11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -2497,20 +2497,20 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>97.33</v>
+        <v>-15.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>54.29</v>
+        <v>40.33</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.79</v>
+        <v>-1.38</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2539,14 +2539,14 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK11" t="n">
         <v>0.95</v>
       </c>
       <c r="AL11" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2559,11 +2559,11 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2598,89 +2598,89 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>6578</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2</v>
+        <v>17.2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>89</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>-3.84</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-61.29</t>
+          <t>43.31</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>77</v>
+        <v>-8</v>
       </c>
       <c r="U12" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="V12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -2689,24 +2689,24 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>-63.17</v>
+        <v>97.33</v>
       </c>
       <c r="AB12" t="n">
-        <v>-14.19</v>
+        <v>54.29</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>-3.45</v>
+        <v>0.79</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>惠光</t>
+          <t>達邦蛋白</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2721,51 +2721,51 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK12" t="n">
-        <v>5.03</v>
+        <v>0.95</v>
       </c>
       <c r="AL12" t="n">
-        <v>28.78</v>
+        <v>178</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>26.26%</t>
+          <t>21.93%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>-0.35%</t>
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
+          <t>水解黃豆(月生)(月太)蛋白100.00% (2024年)</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>惠光-農業科技業-上櫃</t>
+          <t>達邦蛋白-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -2774,23 +2774,23 @@
         </is>
       </c>
       <c r="AT12" t="n">
-        <v>27.88</v>
+        <v>15.23</v>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
+          <t>** 食品 - 原物料</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2802,16 +2802,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="H13" t="n">
         <v>28.2</v>
@@ -2827,49 +2827,49 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-53.19</t>
+          <t>-69.14</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="U13" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2881,20 +2881,20 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>-11.19</v>
+        <v>-80.34999999999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>-1.94</v>
+        <v>-27.42</v>
       </c>
       <c r="AC13" t="b">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-4.77</v>
+        <v>-1.93</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2991,19 +2991,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="H14" t="n">
         <v>28.2</v>
@@ -3019,49 +3019,49 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-44.37</t>
+          <t>-61.29</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="U14" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -3073,20 +3073,20 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>30.25</v>
+        <v>-63.17</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.37</v>
+        <v>-14.19</v>
       </c>
       <c r="AC14" t="b">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>80.76000000000001</v>
+        <v>-3.45</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3183,26 +3183,26 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="H15" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-1.06</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3211,49 +3211,49 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-34.21</t>
+          <t>-53.19</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="U15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -3265,20 +3265,20 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>146.33</v>
+        <v>-11.19</v>
       </c>
       <c r="AB15" t="n">
-        <v>-7.1</v>
+        <v>-1.94</v>
       </c>
       <c r="AC15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>21.61</v>
+        <v>-4.77</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3375,19 +3375,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.71</v>
+        <v>-1.07</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H16" t="n">
         <v>28.2</v>
@@ -3403,49 +3403,49 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-34.92</t>
+          <t>-44.37</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T16" t="n">
+        <v>60</v>
+      </c>
+      <c r="U16" t="n">
         <v>18</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-14</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -3457,20 +3457,20 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>-78.56</v>
+        <v>30.25</v>
       </c>
       <c r="AB16" t="n">
-        <v>-45.46</v>
+        <v>0.37</v>
       </c>
       <c r="AC16" t="b">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.73</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3567,26 +3567,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.18</v>
+        <v>1.07</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H17" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-0.71</v>
+        <v>-1.06</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3595,49 +3595,49 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-23.69</t>
+          <t>-34.21</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="U17" t="n">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -3649,20 +3649,20 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>-70.45</v>
+        <v>146.33</v>
       </c>
       <c r="AB17" t="n">
-        <v>-37.18</v>
+        <v>-7.1</v>
       </c>
       <c r="AC17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.89</v>
+        <v>21.61</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="AO17" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3762,23 +3762,23 @@
         <v>-0.71</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
-        <v>28.45</v>
+        <v>28.2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-0.89</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3787,49 +3787,49 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-16.78</t>
+          <t>-34.92</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="U18" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -3841,20 +3841,20 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>-34.93</v>
+        <v>-78.56</v>
       </c>
       <c r="AB18" t="n">
-        <v>-28.87</v>
+        <v>-45.46</v>
       </c>
       <c r="AC18" t="b">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.21</v>
+        <v>-0.73</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3873,12 +3873,12 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3951,26 +3951,26 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>28.65</v>
+        <v>28.4</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-1.6</v>
+        <v>-0.71</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3979,49 +3979,49 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-9.42</t>
+          <t>-23.69</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -4033,20 +4033,20 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>24.89</v>
+        <v>-70.45</v>
       </c>
       <c r="AB19" t="n">
-        <v>-27.35</v>
+        <v>-37.18</v>
       </c>
       <c r="AC19" t="b">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.91</v>
+        <v>-0.89</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4065,12 +4065,12 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4143,26 +4143,26 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.35</v>
+        <v>-0.71</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>28.6</v>
+        <v>28.45</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-1.42</v>
+        <v>-0.89</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4181,39 +4181,39 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-6.56</t>
+          <t>-16.78</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>11</v>
+        <v>-19</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -4225,20 +4225,20 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>-38.29</v>
+        <v>-34.93</v>
       </c>
       <c r="AB20" t="n">
-        <v>-40.41</v>
+        <v>-28.87</v>
       </c>
       <c r="AC20" t="b">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.05</v>
+        <v>-0.21</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4257,12 +4257,12 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4335,26 +4335,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.05</v>
+        <v>0.17</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.5</v>
+        <v>28.65</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-1.06</v>
+        <v>-1.6</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4363,82 +4363,74 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-9.42</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T21" t="n">
+        <v>8</v>
+      </c>
+      <c r="U21" t="n">
         <v>3</v>
       </c>
-      <c r="U21" t="n">
-        <v>11</v>
-      </c>
       <c r="V21" t="b">
         <v>0</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>-72.76000000000001</v>
+        <v>24.89</v>
       </c>
       <c r="AB21" t="n">
-        <v>-40.94</v>
+        <v>-27.35</v>
       </c>
       <c r="AC21" t="b">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.78</v>
+        <v>1.91</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -4457,12 +4449,12 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -4487,7 +4479,7 @@
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -4526,86 +4518,86 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>6508</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-6.75</v>
+        <v>0.35</v>
       </c>
       <c r="D22" t="n">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5</v>
+        <v>28.6</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.42</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-7.23</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>-6.56</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>41</v>
+        <v>-12</v>
       </c>
       <c r="U22" t="n">
-        <v>-49</v>
+        <v>11</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -4613,36 +4605,28 @@
       <c r="W22" t="b">
         <v>0</v>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>-1582.44</v>
+        <v>-38.29</v>
       </c>
       <c r="AB22" t="n">
-        <v>424.23</v>
+        <v>-40.41</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>-4.73</v>
+        <v>0.05</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>惠光</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -4657,49 +4641,51 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AK22" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AL22" t="inlineStr"/>
+        <v>5.03</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>28.78</v>
+      </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>26.26%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AO22" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
@@ -4708,7 +4694,7 @@
         </is>
       </c>
       <c r="AT22" t="n">
-        <v>12.24</v>
+        <v>27.88</v>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
@@ -4717,93 +4703,93 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>6508</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-2.33</v>
+        <v>-1.05</v>
       </c>
       <c r="D23" t="n">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>25.2</v>
+        <v>28.5</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-7.23</v>
+        <v>-1.06</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-3.57</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>-52</v>
+        <v>11</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -4813,34 +4799,34 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>-482.28</v>
+        <v>-72.76000000000001</v>
       </c>
       <c r="AB23" t="n">
-        <v>925.89</v>
+        <v>-40.94</v>
       </c>
       <c r="AC23" t="b">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>-1.52</v>
+        <v>-0.78</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>瑞基</t>
+          <t>惠光</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4855,49 +4841,51 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AK23" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AL23" t="inlineStr"/>
+        <v>5.03</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>28.78</v>
+      </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>26.26%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AO23" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
+          <t>植物保護劑73.60%、地工合成材料26.40% (2024年)</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>瑞基-農業科技業-上櫃</t>
+          <t>惠光-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
@@ -4906,7 +4894,7 @@
         </is>
       </c>
       <c r="AT23" t="n">
-        <v>12.24</v>
+        <v>27.88</v>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
@@ -4915,14 +4903,14 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
+          <t>** 石化及塑橡膠 - 塑膠製品、農藥** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4931,77 +4919,77 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.7</v>
+        <v>-1.49</v>
       </c>
       <c r="D24" t="n">
-        <v>975</v>
+        <v>101</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="H24" t="n">
-        <v>25.8</v>
+        <v>23.15</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-9.789999999999999</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-5.74</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>-17.17</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -5009,32 +4997,24 @@
       <c r="W24" t="b">
         <v>0</v>
       </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>1041.79</v>
+        <v>-1852.49</v>
       </c>
       <c r="AB24" t="n">
-        <v>1277.93</v>
+        <v>-31.12</v>
       </c>
       <c r="AC24" t="b">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.18</v>
+        <v>-58.53</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -5053,12 +5033,12 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5081,11 +5061,11 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5120,7 +5100,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5129,77 +5109,77 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.76</v>
+        <v>-6.75</v>
       </c>
       <c r="D25" t="n">
-        <v>633</v>
+        <v>352</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="H25" t="n">
-        <v>25.15</v>
+        <v>23.5</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-7.02</v>
+        <v>-1.51</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>-7.23</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>-4.12</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>-4.48</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="U25" t="n">
-        <v>-40</v>
+        <v>-49</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
@@ -5219,20 +5199,20 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>-349.3</v>
+        <v>-1582.44</v>
       </c>
       <c r="AB25" t="n">
-        <v>1336.97</v>
+        <v>424.23</v>
       </c>
       <c r="AC25" t="b">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>-1.26</v>
+        <v>-4.73</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -5251,12 +5231,12 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5279,11 +5259,11 @@
         </is>
       </c>
       <c r="AO25" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -5318,7 +5298,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5327,77 +5307,77 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-4.55</v>
+        <v>-2.33</v>
       </c>
       <c r="D26" t="n">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="H26" t="n">
-        <v>22.9</v>
+        <v>25.2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>2.55</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>-3.57</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-7.74</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="U26" t="n">
-        <v>42</v>
+        <v>-52</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -5417,20 +5397,20 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>-1285.12</v>
+        <v>-482.28</v>
       </c>
       <c r="AB26" t="n">
-        <v>1758.54</v>
+        <v>925.89</v>
       </c>
       <c r="AC26" t="b">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>-1.73</v>
+        <v>-1.52</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -5449,12 +5429,12 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -5477,11 +5457,11 @@
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -5516,7 +5496,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5525,77 +5505,77 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.8100000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="D27" t="n">
-        <v>290</v>
+        <v>975</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="H27" t="n">
-        <v>24</v>
+        <v>25.8</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-2.13</v>
+        <v>-11.45</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-5.77</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>28.46</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="U27" t="n">
-        <v>68</v>
+        <v>-45</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -5615,20 +5595,20 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>42.47</v>
+        <v>1041.79</v>
       </c>
       <c r="AB27" t="n">
-        <v>2519.45</v>
+        <v>1277.93</v>
       </c>
       <c r="AC27" t="b">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.98</v>
+        <v>-0.18</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -5647,12 +5627,12 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -5675,11 +5655,11 @@
         </is>
       </c>
       <c r="AO27" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -5714,7 +5694,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5723,77 +5703,77 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-6.92</v>
+        <v>9.76</v>
       </c>
       <c r="D28" t="n">
-        <v>730</v>
+        <v>633</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2</v>
+        <v>25.15</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-2.98</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-10.74</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="U28" t="n">
-        <v>80</v>
+        <v>-40</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -5813,20 +5793,20 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>1720.53</v>
+        <v>-349.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>3138.7</v>
+        <v>1336.97</v>
       </c>
       <c r="AC28" t="b">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.45</v>
+        <v>-1.26</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -5845,12 +5825,12 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -5873,11 +5853,11 @@
         </is>
       </c>
       <c r="AO28" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -5912,7 +5892,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5921,77 +5901,77 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-3.79</v>
+        <v>-4.55</v>
       </c>
       <c r="D29" t="n">
-        <v>958</v>
+        <v>395</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="H29" t="n">
-        <v>26</v>
+        <v>22.9</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>-10.64</v>
+        <v>1.08</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-7.74</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="U29" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -6011,20 +5991,20 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>5270.14</v>
+        <v>-1285.12</v>
       </c>
       <c r="AB29" t="n">
-        <v>3493.24</v>
+        <v>1758.54</v>
       </c>
       <c r="AC29" t="b">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.51</v>
+        <v>-1.73</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -6043,12 +6023,12 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -6071,11 +6051,11 @@
         </is>
       </c>
       <c r="AO29" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -6098,7 +6078,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
@@ -6110,7 +6090,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6119,77 +6099,77 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.21</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>4205</v>
+        <v>290</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.14</v>
+        <v>0.96</v>
       </c>
       <c r="H30" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-14.89</v>
+        <v>-3.67</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>-5.77</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>100.86</t>
+          <t>28.46</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="U30" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -6209,20 +6189,20 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>10849.98</v>
+        <v>42.47</v>
       </c>
       <c r="AB30" t="n">
-        <v>3049.01</v>
+        <v>2519.45</v>
       </c>
       <c r="AC30" t="b">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.56</v>
+        <v>-0.98</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6241,12 +6221,12 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -6269,11 +6249,11 @@
         </is>
       </c>
       <c r="AO30" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -6296,7 +6276,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
@@ -6308,7 +6288,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6317,77 +6297,77 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.65</v>
+        <v>-6.92</v>
       </c>
       <c r="D31" t="n">
-        <v>1302</v>
+        <v>730</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="H31" t="n">
-        <v>26.15</v>
+        <v>24.2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-11.28</v>
+        <v>-4.54</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>107.77</t>
+          <t>48.24</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="U31" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -6407,20 +6387,20 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>3669.81</v>
+        <v>1720.53</v>
       </c>
       <c r="AB31" t="n">
-        <v>1098.77</v>
+        <v>3138.7</v>
       </c>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.34</v>
+        <v>-0.45</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -6439,12 +6419,12 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -6467,11 +6447,11 @@
         </is>
       </c>
       <c r="AO31" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6494,7 +6474,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
@@ -6506,86 +6486,86 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.84</v>
+        <v>-3.79</v>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>958</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="H32" t="n">
-        <v>59.3</v>
+        <v>26</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-12.31</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-6.96</t>
+          <t>77.76</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-49</v>
+        <v>140</v>
       </c>
       <c r="U32" t="n">
-        <v>-20</v>
+        <v>88</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -6595,7 +6575,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -6605,24 +6585,24 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>-96.81</v>
+        <v>5270.14</v>
       </c>
       <c r="AB32" t="n">
-        <v>221.59</v>
+        <v>3493.24</v>
       </c>
       <c r="AC32" t="b">
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>-1.44</v>
+        <v>0.51</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>茂生農經</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
@@ -6637,155 +6617,153 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK32" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>13</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>14.48%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AO32" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>茂生農經-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="AT32" t="n">
-        <v>35.38</v>
+        <v>12.24</v>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.34</v>
+        <v>3.21</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>4205</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="H33" t="n">
-        <v>59.8</v>
+        <v>27</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-0.84</v>
+        <v>-16.63</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>-51</v>
+        <v>136</v>
       </c>
       <c r="U33" t="n">
-        <v>-28</v>
+        <v>77</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -6795,7 +6773,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -6805,24 +6783,24 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>92.15000000000001</v>
+        <v>10849.98</v>
       </c>
       <c r="AB33" t="n">
-        <v>301.18</v>
+        <v>3049.01</v>
       </c>
       <c r="AC33" t="b">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.6899999999999999</v>
+        <v>2.56</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>茂生農經</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
@@ -6837,155 +6815,153 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK33" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>13</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>14.48%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AO33" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>茂生農經-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="AT33" t="n">
-        <v>35.38</v>
+        <v>12.24</v>
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.34</v>
+        <v>9.65</v>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>1302</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>30.96</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="H34" t="n">
-        <v>59.6</v>
+        <v>26.15</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-0.51</v>
+        <v>-12.96</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>107.77</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>-26</v>
+        <v>89</v>
       </c>
       <c r="U34" t="n">
-        <v>-27</v>
+        <v>39</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -6995,7 +6971,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -7005,24 +6981,24 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>98.67</v>
+        <v>3669.81</v>
       </c>
       <c r="AB34" t="n">
-        <v>353.44</v>
+        <v>1098.77</v>
       </c>
       <c r="AC34" t="b">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.72</v>
+        <v>2.34</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>茂生農經</t>
+          <t>瑞基</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
@@ -7037,76 +7013,74 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK34" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>13</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>14.48%</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="AO34" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
+          <t>檢驗試劑87.44%、檢測機9.39%、其他產品3.17% (2024年)</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>茂生農經-農業科技業-上櫃</t>
+          <t>瑞基-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="AT34" t="n">
-        <v>35.38</v>
+        <v>12.24</v>
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 其他 - 農業科技業</t>
+          <t>** 其他 - 農業科技業** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7115,26 +7089,26 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1.17</v>
+        <v>0.34</v>
       </c>
       <c r="D35" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -7143,49 +7117,49 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>-10.78</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>-15</v>
+        <v>-42</v>
       </c>
       <c r="U35" t="n">
-        <v>-34</v>
+        <v>-6</v>
       </c>
       <c r="V35" t="b">
         <v>0</v>
@@ -7193,32 +7167,24 @@
       <c r="W35" t="b">
         <v>0</v>
       </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>-32.9</v>
+        <v>-11.34</v>
       </c>
       <c r="AB35" t="n">
-        <v>417.14</v>
+        <v>175</v>
       </c>
       <c r="AC35" t="b">
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>-1.08</v>
+        <v>-1.06</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -7247,14 +7213,14 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK35" t="n">
         <v>16.54</v>
       </c>
       <c r="AL35" t="n">
-        <v>13</v>
+        <v>13.05</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -7267,11 +7233,11 @@
         </is>
       </c>
       <c r="AO35" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -7306,7 +7272,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7315,26 +7281,26 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.17</v>
+        <v>-0.84</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>60.1</v>
+        <v>59.3</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-1.35</v>
+        <v>0.34</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -7343,49 +7309,49 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21.99</t>
+          <t>-6.96</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>27</v>
+        <v>-49</v>
       </c>
       <c r="U36" t="n">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -7405,20 +7371,20 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>298.24</v>
+        <v>-96.81</v>
       </c>
       <c r="AB36" t="n">
-        <v>529.65</v>
+        <v>221.59</v>
       </c>
       <c r="AC36" t="b">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.44</v>
+        <v>-1.44</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -7437,24 +7403,24 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK36" t="n">
         <v>16.54</v>
       </c>
       <c r="AL36" t="n">
-        <v>13</v>
+        <v>13.05</v>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
@@ -7467,11 +7433,11 @@
         </is>
       </c>
       <c r="AO36" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -7506,7 +7472,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7515,26 +7481,26 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>60</v>
+        <v>59.8</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-1.18</v>
+        <v>-0.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -7543,12 +7509,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7558,34 +7524,34 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>49</v>
+        <v>-51</v>
       </c>
       <c r="U37" t="n">
-        <v>16</v>
+        <v>-28</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -7605,20 +7571,20 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>389.4</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="AB37" t="n">
-        <v>587.5</v>
+        <v>301.18</v>
       </c>
       <c r="AC37" t="b">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.34</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -7637,24 +7603,24 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK37" t="n">
         <v>16.54</v>
       </c>
       <c r="AL37" t="n">
-        <v>13</v>
+        <v>13.05</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -7667,11 +7633,11 @@
         </is>
       </c>
       <c r="AO37" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -7706,7 +7672,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7715,26 +7681,26 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1.16</v>
+        <v>0.34</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>59.6</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-0.51</v>
+        <v>-0.17</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -7743,49 +7709,49 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>75</v>
+        <v>-26</v>
       </c>
       <c r="U38" t="n">
-        <v>41</v>
+        <v>-27</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -7805,20 +7771,20 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>374.79</v>
+        <v>98.67</v>
       </c>
       <c r="AB38" t="n">
-        <v>637.02</v>
+        <v>353.44</v>
       </c>
       <c r="AC38" t="b">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.41</v>
+        <v>-0.72</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -7837,7 +7803,7 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
@@ -7847,14 +7813,14 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK38" t="n">
         <v>16.54</v>
       </c>
       <c r="AL38" t="n">
-        <v>13</v>
+        <v>13.05</v>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
@@ -7867,11 +7833,11 @@
         </is>
       </c>
       <c r="AO38" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
@@ -7906,7 +7872,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7915,26 +7881,26 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.17</v>
+        <v>-1.17</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.38</v>
+        <v>0.77</v>
       </c>
       <c r="H39" t="n">
-        <v>60.3</v>
+        <v>59.4</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>-1.69</v>
+        <v>0.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -7943,49 +7909,49 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>57</v>
+        <v>-15</v>
       </c>
       <c r="U39" t="n">
-        <v>49</v>
+        <v>-34</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
@@ -8005,20 +7971,20 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>624.5700000000001</v>
+        <v>-32.9</v>
       </c>
       <c r="AB39" t="n">
-        <v>702.58</v>
+        <v>417.14</v>
       </c>
       <c r="AC39" t="b">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.11</v>
+        <v>-1.08</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -8037,24 +8003,24 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK39" t="n">
         <v>16.54</v>
       </c>
       <c r="AL39" t="n">
-        <v>13</v>
+        <v>13.05</v>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
@@ -8067,11 +8033,11 @@
         </is>
       </c>
       <c r="AO39" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
@@ -8106,7 +8072,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8115,26 +8081,26 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.33</v>
+        <v>0.17</v>
       </c>
       <c r="D40" t="n">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
-        <v>60.4</v>
+        <v>60.1</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-1.85</v>
+        <v>-1.01</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -8143,49 +8109,49 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>21.99</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
       <c r="T40" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U40" t="n">
-        <v>47</v>
+        <v>-2</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -8205,20 +8171,20 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>940.13</v>
+        <v>298.24</v>
       </c>
       <c r="AB40" t="n">
-        <v>722.08</v>
+        <v>529.65</v>
       </c>
       <c r="AC40" t="b">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.3</v>
+        <v>-0.44</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -8237,24 +8203,24 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK40" t="n">
         <v>16.54</v>
       </c>
       <c r="AL40" t="n">
-        <v>13</v>
+        <v>13.05</v>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
@@ -8267,11 +8233,11 @@
         </is>
       </c>
       <c r="AO40" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
@@ -8306,7 +8272,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8315,26 +8281,26 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.19</v>
+        <v>0.67</v>
       </c>
       <c r="D41" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="H41" t="n">
-        <v>59.6</v>
+        <v>60</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>-0.51</v>
+        <v>-0.84</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -8343,55 +8309,55 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="U41" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
       </c>
       <c r="W41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -8405,20 +8371,20 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>684.6</v>
+        <v>389.4</v>
       </c>
       <c r="AB41" t="n">
-        <v>667.5700000000001</v>
+        <v>587.5</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.03</v>
+        <v>-0.34</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -8437,24 +8403,24 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK41" t="n">
         <v>16.54</v>
       </c>
       <c r="AL41" t="n">
-        <v>13</v>
+        <v>13.05</v>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
@@ -8467,11 +8433,11 @@
         </is>
       </c>
       <c r="AO41" t="n">
-        <v>72.59</v>
+        <v>73.28</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
@@ -8498,6 +8464,806 @@
         </is>
       </c>
       <c r="AV41" t="inlineStr">
+        <is>
+          <t>** 其他 - 農業科技業</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="D42" t="n">
+        <v>15</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H42" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>-1.17</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>75</v>
+      </c>
+      <c r="U42" t="n">
+        <v>41</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AA42" t="n">
+        <v>374.79</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>637.02</v>
+      </c>
+      <c r="AC42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>茂生農經</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>農業科技業</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="AK42" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>14.48%</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+      <c r="AO42" t="n">
+        <v>73.28</v>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>茂生農經-農業科技業-上櫃</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>農業科技業右上</t>
+        </is>
+      </c>
+      <c r="AT42" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>** 其他 - 農業科技業</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H43" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>57</v>
+      </c>
+      <c r="U43" t="n">
+        <v>49</v>
+      </c>
+      <c r="V43" t="b">
+        <v>0</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AA43" t="n">
+        <v>624.5700000000001</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>702.58</v>
+      </c>
+      <c r="AC43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>茂生農經</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>農業科技業</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="AK43" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>14.48%</t>
+        </is>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+      <c r="AO43" t="n">
+        <v>73.28</v>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>茂生農經-農業科技業-上櫃</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>農業科技業右上</t>
+        </is>
+      </c>
+      <c r="AT43" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>** 其他 - 農業科技業</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>-1.98</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>40</v>
+      </c>
+      <c r="U44" t="n">
+        <v>47</v>
+      </c>
+      <c r="V44" t="b">
+        <v>0</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AA44" t="n">
+        <v>940.13</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>722.08</v>
+      </c>
+      <c r="AC44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>茂生農經</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>農業科技業</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="AK44" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>14.48%</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+      <c r="AO44" t="n">
+        <v>73.28</v>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>茂生農經-農業科技業-上櫃</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>農業科技業右上</t>
+        </is>
+      </c>
+      <c r="AT44" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>** 其他 - 農業科技業</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D45" t="n">
+        <v>49</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>14</v>
+      </c>
+      <c r="U45" t="n">
+        <v>27</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AA45" t="n">
+        <v>684.6</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>667.5700000000001</v>
+      </c>
+      <c r="AC45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>茂生農經</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>農業科技業</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="AK45" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>14.48%</t>
+        </is>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+      <c r="AO45" t="n">
+        <v>73.28</v>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>禽畜飼料51.62%、蛋品30.92%、養殖12.44%、大宗原物料買賣4.82%、其他0.19% (2024年)</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>茂生農經-農業科技業-上櫃</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>農業科技業右上</t>
+        </is>
+      </c>
+      <c r="AT45" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
         <is>
           <t>** 其他 - 農業科技業</t>
         </is>

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.13</v>
+        <v>0.84</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.8</v>
+        <v>17.95</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,54 +710,54 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>119.28</t>
+          <t>99.08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>-42</v>
+        <v>-44</v>
       </c>
       <c r="U2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -769,20 +769,20 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>247.44</v>
+        <v>306.72</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.84</v>
+        <v>130.01</v>
       </c>
       <c r="AC2" t="b">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -806,19 +806,19 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK2" t="n">
         <v>0.95</v>
       </c>
       <c r="AL2" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -831,11 +831,11 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -879,77 +879,77 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.57</v>
+        <v>1.13</v>
       </c>
       <c r="D3" t="n">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1.12</v>
+        <v>0.84</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>166.27</t>
+          <t>119.28</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-36</v>
+        <v>-42</v>
       </c>
       <c r="U3" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -961,20 +961,20 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>180.6</v>
+        <v>247.44</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.44</v>
+        <v>85.84</v>
       </c>
       <c r="AC3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.97</v>
+        <v>1.88</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -993,24 +993,24 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK3" t="n">
         <v>0.95</v>
       </c>
       <c r="AL3" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1071,60 +1071,60 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="D4" t="n">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>341.35</t>
+          <t>166.27</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-31</v>
+        <v>-36</v>
       </c>
       <c r="U4" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -1153,20 +1153,20 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>-21.84</v>
+        <v>180.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.65</v>
+        <v>45.44</v>
       </c>
       <c r="AC4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>-2.87</v>
+        <v>2.97</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1185,24 +1185,24 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK4" t="n">
         <v>0.95</v>
       </c>
       <c r="AL4" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
         </is>
       </c>
       <c r="AO4" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1263,60 +1263,60 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.66</v>
+        <v>0.86</v>
       </c>
       <c r="D5" t="n">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>17.35</v>
+        <v>17.5</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3059.01</t>
+          <t>341.35</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1326,14 +1326,14 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1345,20 +1345,20 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>-329.22</v>
+        <v>-21.84</v>
       </c>
       <c r="AB5" t="n">
-        <v>20.02</v>
+        <v>11.65</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>-17.44</v>
+        <v>-2.87</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1377,24 +1377,24 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK5" t="n">
         <v>0.95</v>
       </c>
       <c r="AL5" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="AO5" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1455,77 +1455,77 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.84</v>
+        <v>-3.66</v>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>17.35</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-1.12</v>
+        <v>3.34</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>668.61</t>
+          <t>3059.01</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-7</v>
+        <v>-34</v>
       </c>
       <c r="U6" t="n">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1537,20 +1537,20 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>120.18</v>
+        <v>-329.22</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.32</v>
+        <v>20.02</v>
       </c>
       <c r="AC6" t="b">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.12</v>
+        <v>-17.44</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1569,24 +1569,24 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK6" t="n">
         <v>0.95</v>
       </c>
       <c r="AL6" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.71</v>
+        <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>17.85</v>
+        <v>18</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
@@ -1670,54 +1670,54 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>238.08</t>
+          <t>668.61</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="U7" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -1729,20 +1729,20 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>63.59</v>
+        <v>120.18</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.11</v>
+        <v>107.32</v>
       </c>
       <c r="AC7" t="b">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.39</v>
+        <v>0.12</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1761,24 +1761,24 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK7" t="n">
         <v>0.95</v>
       </c>
       <c r="AL7" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1830,7 +1830,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1839,77 +1839,77 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H8" t="n">
         <v>17.85</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>142.30</t>
+          <t>238.08</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>260.23</v>
+        <v>63.59</v>
       </c>
       <c r="AB8" t="n">
-        <v>114.24</v>
+        <v>104.11</v>
       </c>
       <c r="AC8" t="b">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.28</v>
+        <v>-0.39</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK8" t="n">
         <v>0.95</v>
       </c>
       <c r="AL8" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
@@ -1983,11 +1983,11 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2022,7 +2022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2031,77 +2031,77 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17.65</v>
+        <v>17.85</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.84</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>142.30</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
@@ -2113,20 +2113,20 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>179.36</v>
+        <v>260.23</v>
       </c>
       <c r="AB9" t="n">
-        <v>77.73999999999999</v>
+        <v>114.24</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2145,24 +2145,24 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK9" t="n">
         <v>0.95</v>
       </c>
       <c r="AL9" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2223,74 +2223,74 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4</v>
+        <v>17.65</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>60.77</t>
+          <t>89.09</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
         <v>7</v>
@@ -2309,16 +2309,16 @@
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>100.38</v>
+        <v>179.36</v>
       </c>
       <c r="AB10" t="n">
-        <v>52.34</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="AC10" t="b">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2342,19 +2342,19 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK10" t="n">
         <v>0.95</v>
       </c>
       <c r="AL10" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
@@ -2367,11 +2367,11 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2406,7 +2406,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2415,77 +2415,77 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>3.37</v>
+        <v>3.06</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-3.40</t>
+          <t>-2.90</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>47.54</t>
+          <t>60.77</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -2497,20 +2497,20 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>-15.5</v>
+        <v>100.38</v>
       </c>
       <c r="AB11" t="n">
-        <v>40.33</v>
+        <v>52.34</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>-1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2529,24 +2529,24 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK11" t="n">
         <v>0.95</v>
       </c>
       <c r="AL11" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2559,11 +2559,11 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2610,12 +2610,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -2626,61 +2626,61 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>3.37</v>
+        <v>4.18</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>43.31</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="U12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -2689,20 +2689,20 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>97.33</v>
+        <v>-15.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>54.29</v>
+        <v>40.33</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.79</v>
+        <v>-1.38</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2731,14 +2731,14 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK12" t="n">
         <v>0.95</v>
       </c>
       <c r="AL12" t="n">
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -2790,7 +2790,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.43</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.05</v>
+        <v>0.86</v>
       </c>
       <c r="H13" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -2822,54 +2822,54 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-69.14</t>
+          <t>-107.92</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="U13" t="n">
-        <v>31</v>
+        <v>-27</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2881,20 +2881,20 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>-80.34999999999999</v>
+        <v>-147.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>-27.42</v>
+        <v>-51.49</v>
       </c>
       <c r="AC13" t="b">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.93</v>
+        <v>-1.87</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2918,19 +2918,19 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK13" t="n">
         <v>5.03</v>
       </c>
       <c r="AL13" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2943,11 +2943,11 @@
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -2982,7 +2982,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2994,32 +2994,32 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="H14" t="n">
         <v>28.2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.44</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3034,34 +3034,34 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-61.29</t>
+          <t>-69.14</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U14" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -3073,20 +3073,20 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>-63.17</v>
+        <v>-80.34999999999999</v>
       </c>
       <c r="AB14" t="n">
-        <v>-14.19</v>
+        <v>-27.42</v>
       </c>
       <c r="AC14" t="b">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-3.45</v>
+        <v>-1.93</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK14" t="n">
         <v>5.03</v>
       </c>
       <c r="AL14" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3174,7 +3174,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3186,42 +3186,42 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="H15" t="n">
         <v>28.2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-1.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3231,29 +3231,29 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-53.19</t>
+          <t>-61.29</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -3265,20 +3265,20 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>-11.19</v>
+        <v>-63.17</v>
       </c>
       <c r="AB15" t="n">
-        <v>-1.94</v>
+        <v>-14.19</v>
       </c>
       <c r="AC15" t="b">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>-4.77</v>
+        <v>-3.45</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -3307,14 +3307,14 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK15" t="n">
         <v>5.03</v>
       </c>
       <c r="AL15" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3366,7 +3366,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3375,77 +3375,77 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H16" t="n">
         <v>28.2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.44</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-44.37</t>
+          <t>-53.19</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="U16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -3457,20 +3457,20 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>30.25</v>
+        <v>-11.19</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.37</v>
+        <v>-1.94</v>
       </c>
       <c r="AC16" t="b">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>80.76000000000001</v>
+        <v>-4.77</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -3499,14 +3499,14 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK16" t="n">
         <v>5.03</v>
       </c>
       <c r="AL16" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
@@ -3519,11 +3519,11 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3567,77 +3567,77 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.07</v>
+        <v>-1.07</v>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-1.06</v>
+        <v>-1.44</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-34.21</t>
+          <t>-44.37</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -3649,20 +3649,20 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>146.33</v>
+        <v>30.25</v>
       </c>
       <c r="AB17" t="n">
-        <v>-7.1</v>
+        <v>0.37</v>
       </c>
       <c r="AC17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>21.61</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3681,24 +3681,24 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK17" t="n">
         <v>5.03</v>
       </c>
       <c r="AL17" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -3711,11 +3711,11 @@
         </is>
       </c>
       <c r="AO17" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -3750,7 +3750,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3759,77 +3759,77 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.71</v>
+        <v>1.07</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-2.52</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-34.92</t>
+          <t>-34.21</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="U18" t="n">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -3841,20 +3841,20 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>-78.56</v>
+        <v>146.33</v>
       </c>
       <c r="AB18" t="n">
-        <v>-45.46</v>
+        <v>-7.1</v>
       </c>
       <c r="AC18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.73</v>
+        <v>21.61</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3873,24 +3873,24 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK18" t="n">
         <v>5.03</v>
       </c>
       <c r="AL18" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -3942,7 +3942,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3951,35 +3951,35 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.18</v>
+        <v>-0.71</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-0.71</v>
+        <v>-1.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3989,36 +3989,36 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-23.69</t>
+          <t>-34.92</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U19" t="n">
         <v>-14</v>
@@ -4037,16 +4037,16 @@
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>-70.45</v>
+        <v>-78.56</v>
       </c>
       <c r="AB19" t="n">
-        <v>-37.18</v>
+        <v>-45.46</v>
       </c>
       <c r="AC19" t="b">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.89</v>
+        <v>-0.73</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4065,24 +4065,24 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK19" t="n">
         <v>5.03</v>
       </c>
       <c r="AL19" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -4095,11 +4095,11 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4134,7 +4134,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4143,77 +4143,77 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.71</v>
+        <v>-0.18</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>28.45</v>
+        <v>28.4</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-0.89</v>
+        <v>-2.16</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-16.78</t>
+          <t>-23.69</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="U20" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -4225,20 +4225,20 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>-34.93</v>
+        <v>-70.45</v>
       </c>
       <c r="AB20" t="n">
-        <v>-28.87</v>
+        <v>-37.18</v>
       </c>
       <c r="AC20" t="b">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.21</v>
+        <v>-0.89</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -4267,14 +4267,14 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK20" t="n">
         <v>5.03</v>
       </c>
       <c r="AL20" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
@@ -4287,11 +4287,11 @@
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4326,7 +4326,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4335,77 +4335,77 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.17</v>
+        <v>-0.71</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.65</v>
+        <v>28.45</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-1.6</v>
+        <v>-2.34</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-9.42</t>
+          <t>-16.78</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>-19</v>
       </c>
       <c r="V21" t="b">
         <v>0</v>
@@ -4417,20 +4417,20 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>24.89</v>
+        <v>-34.93</v>
       </c>
       <c r="AB21" t="n">
-        <v>-27.35</v>
+        <v>-28.87</v>
       </c>
       <c r="AC21" t="b">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.91</v>
+        <v>-0.21</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -4449,24 +4449,24 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK21" t="n">
         <v>5.03</v>
       </c>
       <c r="AL21" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4527,77 +4527,77 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>28.6</v>
+        <v>28.65</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-1.42</v>
+        <v>-3.06</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-6.56</t>
+          <t>-9.42</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="U22" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -4609,20 +4609,20 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>-38.29</v>
+        <v>24.89</v>
       </c>
       <c r="AB22" t="n">
-        <v>-40.41</v>
+        <v>-27.35</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.05</v>
+        <v>1.91</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -4651,14 +4651,14 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK22" t="n">
         <v>5.03</v>
       </c>
       <c r="AL22" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
@@ -4671,11 +4671,11 @@
         </is>
       </c>
       <c r="AO22" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -4710,7 +4710,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-1.05</v>
+        <v>0.35</v>
       </c>
       <c r="D23" t="n">
         <v>14</v>
@@ -4734,59 +4734,59 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-1.06</v>
+        <v>-2.88</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-6.56</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="U23" t="n">
         <v>11</v>
@@ -4797,32 +4797,24 @@
       <c r="W23" t="b">
         <v>0</v>
       </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>-72.76000000000001</v>
+        <v>-38.29</v>
       </c>
       <c r="AB23" t="n">
-        <v>-40.94</v>
+        <v>-40.41</v>
       </c>
       <c r="AC23" t="b">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.78</v>
+        <v>0.05</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -4841,24 +4833,24 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK23" t="n">
         <v>5.03</v>
       </c>
       <c r="AL23" t="n">
-        <v>28.78</v>
+        <v>28.37</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -4871,11 +4863,11 @@
         </is>
       </c>
       <c r="AO23" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -4910,7 +4902,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4919,22 +4911,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1.49</v>
+        <v>-1.69</v>
       </c>
       <c r="D24" t="n">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="H24" t="n">
-        <v>23.15</v>
+        <v>22.75</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
@@ -4942,54 +4934,54 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-3.52</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-5.74</t>
+          <t>-5.52</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-17.17</t>
+          <t>-29.80</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="U24" t="n">
-        <v>-48</v>
+        <v>-24</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -5001,20 +4993,20 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>-1852.49</v>
+        <v>-1943.47</v>
       </c>
       <c r="AB24" t="n">
-        <v>-31.12</v>
+        <v>-413.59</v>
       </c>
       <c r="AC24" t="b">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>-58.53</v>
+        <v>-3.7</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -5033,12 +5025,12 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5061,11 +5053,11 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5100,7 +5092,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5109,77 +5101,77 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-6.75</v>
+        <v>-1.49</v>
       </c>
       <c r="D25" t="n">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5</v>
+        <v>23.15</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-1.51</v>
+        <v>-1.76</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-7.23</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-5.74</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>-17.17</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
       <c r="T25" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U25" t="n">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
@@ -5187,32 +5179,24 @@
       <c r="W25" t="b">
         <v>0</v>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>-1582.44</v>
+        <v>-1852.49</v>
       </c>
       <c r="AB25" t="n">
-        <v>424.23</v>
+        <v>-31.12</v>
       </c>
       <c r="AC25" t="b">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>-4.73</v>
+        <v>-58.53</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -5231,12 +5215,12 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5259,11 +5243,11 @@
         </is>
       </c>
       <c r="AO25" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -5298,7 +5282,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5307,77 +5291,77 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-2.33</v>
+        <v>-6.75</v>
       </c>
       <c r="D26" t="n">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="H26" t="n">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-8.859999999999999</v>
+        <v>-3.3</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-3.57</t>
+          <t>-7.23</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-4.12</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>-4.48</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>-52</v>
+        <v>-49</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -5397,20 +5381,20 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>-482.28</v>
+        <v>-1582.44</v>
       </c>
       <c r="AB26" t="n">
-        <v>925.89</v>
+        <v>424.23</v>
       </c>
       <c r="AC26" t="b">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>-1.52</v>
+        <v>-4.73</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -5429,12 +5413,12 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -5457,11 +5441,11 @@
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -5496,7 +5480,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5505,60 +5489,60 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.7</v>
+        <v>-2.33</v>
       </c>
       <c r="D27" t="n">
-        <v>975</v>
+        <v>309</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="H27" t="n">
-        <v>25.8</v>
+        <v>25.2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-11.45</v>
+        <v>-10.77</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>-3.57</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5568,14 +5552,14 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U27" t="n">
-        <v>-45</v>
+        <v>-52</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -5595,20 +5579,20 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>1041.79</v>
+        <v>-482.28</v>
       </c>
       <c r="AB27" t="n">
-        <v>1277.93</v>
+        <v>925.89</v>
       </c>
       <c r="AC27" t="b">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.18</v>
+        <v>-1.52</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -5632,7 +5616,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -5655,11 +5639,11 @@
         </is>
       </c>
       <c r="AO27" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -5694,7 +5678,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5703,77 +5687,77 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.76</v>
+        <v>2.7</v>
       </c>
       <c r="D28" t="n">
-        <v>633</v>
+        <v>975</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="H28" t="n">
-        <v>25.15</v>
+        <v>25.8</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-8.640000000000001</v>
+        <v>-13.41</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="U28" t="n">
-        <v>-40</v>
+        <v>-45</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -5793,20 +5777,20 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>-349.3</v>
+        <v>1041.79</v>
       </c>
       <c r="AB28" t="n">
-        <v>1336.97</v>
+        <v>1277.93</v>
       </c>
       <c r="AC28" t="b">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>-1.26</v>
+        <v>-0.18</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -5825,12 +5809,12 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -5853,11 +5837,11 @@
         </is>
       </c>
       <c r="AO28" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -5892,7 +5876,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5901,77 +5885,77 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-4.55</v>
+        <v>9.76</v>
       </c>
       <c r="D29" t="n">
-        <v>395</v>
+        <v>633</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="H29" t="n">
-        <v>22.9</v>
+        <v>25.15</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>1.08</v>
+        <v>-10.55</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-7.74</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="U29" t="n">
-        <v>42</v>
+        <v>-40</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -5991,20 +5975,20 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>-1285.12</v>
+        <v>-349.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>1758.54</v>
+        <v>1336.97</v>
       </c>
       <c r="AC29" t="b">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>-1.73</v>
+        <v>-1.26</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -6023,12 +6007,12 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -6051,11 +6035,11 @@
         </is>
       </c>
       <c r="AO29" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -6090,7 +6074,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6099,77 +6083,77 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-4.55</v>
       </c>
       <c r="D30" t="n">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="H30" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-3.67</v>
+        <v>-0.66</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-5.77</t>
+          <t>-7.74</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>28.46</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="U30" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -6189,20 +6173,20 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>42.47</v>
+        <v>-1285.12</v>
       </c>
       <c r="AB30" t="n">
-        <v>2519.45</v>
+        <v>1758.54</v>
       </c>
       <c r="AC30" t="b">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.98</v>
+        <v>-1.73</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6221,12 +6205,12 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -6249,11 +6233,11 @@
         </is>
       </c>
       <c r="AO30" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -6288,7 +6272,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6297,77 +6281,77 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-6.92</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>730</v>
+        <v>290</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-4.54</v>
+        <v>-5.49</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-10.74</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-5.77</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>28.46</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="U31" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -6387,20 +6371,20 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>1720.53</v>
+        <v>42.47</v>
       </c>
       <c r="AB31" t="n">
-        <v>3138.7</v>
+        <v>2519.45</v>
       </c>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.45</v>
+        <v>-0.98</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -6419,12 +6403,12 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -6447,11 +6431,11 @@
         </is>
       </c>
       <c r="AO31" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6486,7 +6470,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6495,77 +6479,77 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-3.79</v>
+        <v>-6.92</v>
       </c>
       <c r="D32" t="n">
-        <v>958</v>
+        <v>730</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="H32" t="n">
-        <v>26</v>
+        <v>24.2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-12.31</v>
+        <v>-6.37</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>48.24</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="U32" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -6585,20 +6569,20 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>5270.14</v>
+        <v>1720.53</v>
       </c>
       <c r="AB32" t="n">
-        <v>3493.24</v>
+        <v>3138.7</v>
       </c>
       <c r="AC32" t="b">
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.51</v>
+        <v>-0.45</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -6617,12 +6601,12 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -6645,11 +6629,11 @@
         </is>
       </c>
       <c r="AO32" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -6672,7 +6656,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
@@ -6684,7 +6668,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6693,77 +6677,77 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.21</v>
+        <v>-3.79</v>
       </c>
       <c r="D33" t="n">
-        <v>4205</v>
+        <v>958</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-16.63</v>
+        <v>-14.29</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>100.86</t>
+          <t>77.76</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U33" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -6783,20 +6767,20 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>10849.98</v>
+        <v>5270.14</v>
       </c>
       <c r="AB33" t="n">
-        <v>3049.01</v>
+        <v>3493.24</v>
       </c>
       <c r="AC33" t="b">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.56</v>
+        <v>0.51</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -6815,12 +6799,12 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -6843,11 +6827,11 @@
         </is>
       </c>
       <c r="AO33" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
@@ -6882,7 +6866,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6891,77 +6875,77 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.65</v>
+        <v>3.21</v>
       </c>
       <c r="D34" t="n">
-        <v>1302</v>
+        <v>4205</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="H34" t="n">
-        <v>26.15</v>
+        <v>27</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-12.96</v>
+        <v>-18.68</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>73</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>107.77</t>
+          <t>100.86</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="U34" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -6981,20 +6965,20 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>3669.81</v>
+        <v>10849.98</v>
       </c>
       <c r="AB34" t="n">
-        <v>1098.77</v>
+        <v>3049.01</v>
       </c>
       <c r="AC34" t="b">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -7013,12 +6997,12 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -7041,11 +7025,11 @@
         </is>
       </c>
       <c r="AO34" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -7080,7 +7064,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7089,22 +7073,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>59.5</v>
+        <v>59</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -7112,54 +7096,54 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-10.78</t>
+          <t>-20.30</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>-42</v>
+        <v>-17</v>
       </c>
       <c r="U35" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="V35" t="b">
         <v>0</v>
@@ -7171,20 +7155,20 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>-11.34</v>
+        <v>-115.1</v>
       </c>
       <c r="AB35" t="n">
-        <v>175</v>
+        <v>116.98</v>
       </c>
       <c r="AC35" t="b">
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>-1.06</v>
+        <v>-1.98</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -7208,19 +7192,19 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK35" t="n">
         <v>16.54</v>
       </c>
       <c r="AL35" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -7233,11 +7217,11 @@
         </is>
       </c>
       <c r="AO35" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -7272,7 +7256,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7281,50 +7265,50 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.84</v>
+        <v>0.34</v>
       </c>
       <c r="D36" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.3</v>
+        <v>59.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>0.34</v>
+        <v>-0.85</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -7334,24 +7318,24 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-6.96</t>
+          <t>-10.78</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="U36" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -7359,32 +7343,24 @@
       <c r="W36" t="b">
         <v>0</v>
       </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>-96.81</v>
+        <v>-11.34</v>
       </c>
       <c r="AB36" t="n">
-        <v>221.59</v>
+        <v>175</v>
       </c>
       <c r="AC36" t="b">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>-1.44</v>
+        <v>-1.06</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -7403,7 +7379,7 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
@@ -7413,14 +7389,14 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK36" t="n">
         <v>16.54</v>
       </c>
       <c r="AL36" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
@@ -7433,11 +7409,11 @@
         </is>
       </c>
       <c r="AO36" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -7472,7 +7448,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7481,77 +7457,77 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>59.8</v>
+        <v>59.3</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>-6.96</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>-51</v>
+        <v>-49</v>
       </c>
       <c r="U37" t="n">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -7571,20 +7547,20 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>92.15000000000001</v>
+        <v>-96.81</v>
       </c>
       <c r="AB37" t="n">
-        <v>301.18</v>
+        <v>221.59</v>
       </c>
       <c r="AC37" t="b">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.44</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -7603,24 +7579,24 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK37" t="n">
         <v>16.54</v>
       </c>
       <c r="AL37" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -7633,11 +7609,11 @@
         </is>
       </c>
       <c r="AO37" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -7672,7 +7648,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7684,62 +7660,62 @@
         <v>0.34</v>
       </c>
       <c r="D38" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>59.6</v>
+        <v>59.8</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-0.17</v>
+        <v>-1.36</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -7748,10 +7724,10 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>-26</v>
+        <v>-51</v>
       </c>
       <c r="U38" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -7771,20 +7747,20 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>98.67</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="AB38" t="n">
-        <v>353.44</v>
+        <v>301.18</v>
       </c>
       <c r="AC38" t="b">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.72</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -7803,24 +7779,24 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK38" t="n">
         <v>16.54</v>
       </c>
       <c r="AL38" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
@@ -7833,11 +7809,11 @@
         </is>
       </c>
       <c r="AO38" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
@@ -7872,7 +7848,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7881,65 +7857,65 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-1.17</v>
+        <v>0.34</v>
       </c>
       <c r="D39" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>59.4</v>
+        <v>59.6</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>0.17</v>
+        <v>-1.02</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -7948,10 +7924,10 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>-15</v>
+        <v>-26</v>
       </c>
       <c r="U39" t="n">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
@@ -7971,20 +7947,20 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>-32.9</v>
+        <v>98.67</v>
       </c>
       <c r="AB39" t="n">
-        <v>417.14</v>
+        <v>353.44</v>
       </c>
       <c r="AC39" t="b">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>-1.08</v>
+        <v>-0.72</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -8003,7 +7979,7 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
@@ -8013,14 +7989,14 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK39" t="n">
         <v>16.54</v>
       </c>
       <c r="AL39" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
@@ -8033,11 +8009,11 @@
         </is>
       </c>
       <c r="AO39" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
@@ -8072,7 +8048,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8081,77 +8057,77 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.17</v>
+        <v>-1.17</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="H40" t="n">
-        <v>60.1</v>
+        <v>59.4</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-1.01</v>
+        <v>-0.68</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21.99</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>27</v>
+        <v>-15</v>
       </c>
       <c r="U40" t="n">
-        <v>-2</v>
+        <v>-34</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -8171,20 +8147,20 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>298.24</v>
+        <v>-32.9</v>
       </c>
       <c r="AB40" t="n">
-        <v>529.65</v>
+        <v>417.14</v>
       </c>
       <c r="AC40" t="b">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.44</v>
+        <v>-1.08</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -8203,24 +8179,24 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK40" t="n">
         <v>16.54</v>
       </c>
       <c r="AL40" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
@@ -8233,11 +8209,11 @@
         </is>
       </c>
       <c r="AO40" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
@@ -8272,7 +8248,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8281,40 +8257,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D41" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
-        <v>60</v>
+        <v>60.1</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>-0.84</v>
+        <v>-1.86</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -8324,34 +8300,34 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>21.99</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="U41" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -8371,20 +8347,20 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>389.4</v>
+        <v>298.24</v>
       </c>
       <c r="AB41" t="n">
-        <v>587.5</v>
+        <v>529.65</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.34</v>
+        <v>-0.44</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -8403,7 +8379,7 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
@@ -8413,14 +8389,14 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK41" t="n">
         <v>16.54</v>
       </c>
       <c r="AL41" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
@@ -8433,11 +8409,11 @@
         </is>
       </c>
       <c r="AO41" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
@@ -8472,7 +8448,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8481,77 +8457,77 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.16</v>
+        <v>0.67</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.34</v>
+        <v>1.05</v>
       </c>
       <c r="H42" t="n">
-        <v>59.6</v>
+        <v>60</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-0.17</v>
+        <v>-1.69</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="U42" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="V42" t="b">
         <v>0</v>
@@ -8571,20 +8547,20 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AA42" t="n">
-        <v>374.79</v>
+        <v>389.4</v>
       </c>
       <c r="AB42" t="n">
-        <v>637.02</v>
+        <v>587.5</v>
       </c>
       <c r="AC42" t="b">
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.41</v>
+        <v>-0.34</v>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
@@ -8603,24 +8579,24 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK42" t="n">
         <v>16.54</v>
       </c>
       <c r="AL42" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
@@ -8633,11 +8609,11 @@
         </is>
       </c>
       <c r="AO42" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
@@ -8672,7 +8648,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8681,60 +8657,60 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.17</v>
+        <v>-1.16</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="H43" t="n">
-        <v>60.3</v>
+        <v>59.6</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>-1.34</v>
+        <v>-1.02</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -8744,14 +8720,14 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="U43" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="V43" t="b">
         <v>0</v>
@@ -8771,20 +8747,20 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AA43" t="n">
-        <v>624.5700000000001</v>
+        <v>374.79</v>
       </c>
       <c r="AB43" t="n">
-        <v>702.58</v>
+        <v>637.02</v>
       </c>
       <c r="AC43" t="b">
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.11</v>
+        <v>-0.41</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -8803,24 +8779,24 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK43" t="n">
         <v>16.54</v>
       </c>
       <c r="AL43" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
@@ -8833,11 +8809,11 @@
         </is>
       </c>
       <c r="AO43" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
@@ -8872,7 +8848,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8881,77 +8857,77 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.33</v>
+        <v>-0.17</v>
       </c>
       <c r="D44" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="H44" t="n">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>-1.51</v>
+        <v>-2.2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>38.08</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="U44" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V44" t="b">
         <v>0</v>
@@ -8971,20 +8947,20 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AA44" t="n">
-        <v>940.13</v>
+        <v>624.5700000000001</v>
       </c>
       <c r="AB44" t="n">
-        <v>722.08</v>
+        <v>702.58</v>
       </c>
       <c r="AC44" t="b">
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.3</v>
+        <v>-0.11</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -9003,24 +8979,24 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK44" t="n">
         <v>16.54</v>
       </c>
       <c r="AL44" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
@@ -9033,11 +9009,11 @@
         </is>
       </c>
       <c r="AO44" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
@@ -9072,7 +9048,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9081,83 +9057,83 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="D45" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>59.6</v>
+        <v>60.4</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-0.17</v>
+        <v>-2.37</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="U45" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
       </c>
       <c r="W45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -9171,20 +9147,20 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AA45" t="n">
-        <v>684.6</v>
+        <v>940.13</v>
       </c>
       <c r="AB45" t="n">
-        <v>667.5700000000001</v>
+        <v>722.08</v>
       </c>
       <c r="AC45" t="b">
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -9203,24 +9179,24 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK45" t="n">
         <v>16.54</v>
       </c>
       <c r="AL45" t="n">
-        <v>13.05</v>
+        <v>12.94</v>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
@@ -9233,11 +9209,11 @@
         </is>
       </c>
       <c r="AO45" t="n">
-        <v>73.28</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D2" t="n">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.95</v>
+        <v>18.1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -710,54 +710,54 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>87.71</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>-44</v>
+        <v>-26</v>
       </c>
       <c r="U2" t="n">
-        <v>34</v>
+        <v>-7</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -769,20 +769,20 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>306.72</v>
+        <v>262.47</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.01</v>
+        <v>156.5</v>
       </c>
       <c r="AC2" t="b">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.36</v>
+        <v>0.68</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -801,24 +801,24 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK2" t="n">
         <v>0.95</v>
       </c>
       <c r="AL2" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -831,11 +831,11 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -879,77 +879,77 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.13</v>
+        <v>0.84</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.8</v>
+        <v>17.95</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>119.28</t>
+          <t>99.08</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-42</v>
+        <v>-44</v>
       </c>
       <c r="U3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -961,20 +961,20 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>247.44</v>
+        <v>306.72</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.84</v>
+        <v>130.01</v>
       </c>
       <c r="AC3" t="b">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -998,19 +998,19 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK3" t="n">
         <v>0.95</v>
       </c>
       <c r="AL3" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1071,77 +1071,77 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.57</v>
+        <v>1.13</v>
       </c>
       <c r="D4" t="n">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>166.27</t>
+          <t>119.28</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-36</v>
+        <v>-42</v>
       </c>
       <c r="U4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -1153,20 +1153,20 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>180.6</v>
+        <v>247.44</v>
       </c>
       <c r="AB4" t="n">
-        <v>45.44</v>
+        <v>85.84</v>
       </c>
       <c r="AC4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.97</v>
+        <v>1.88</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1185,24 +1185,24 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK4" t="n">
         <v>0.95</v>
       </c>
       <c r="AL4" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
         </is>
       </c>
       <c r="AO4" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1263,60 +1263,60 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="D5" t="n">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>341.35</t>
+          <t>166.27</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1326,14 +1326,14 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-31</v>
+        <v>-36</v>
       </c>
       <c r="U5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1345,20 +1345,20 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>-21.84</v>
+        <v>180.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.65</v>
+        <v>45.44</v>
       </c>
       <c r="AC5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>-2.87</v>
+        <v>2.97</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1377,24 +1377,24 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK5" t="n">
         <v>0.95</v>
       </c>
       <c r="AL5" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="AO5" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1455,60 +1455,60 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.66</v>
+        <v>0.86</v>
       </c>
       <c r="D6" t="n">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17.35</v>
+        <v>17.5</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3059.01</t>
+          <t>341.35</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1518,14 +1518,14 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1537,20 +1537,20 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>-329.22</v>
+        <v>-21.84</v>
       </c>
       <c r="AB6" t="n">
-        <v>20.02</v>
+        <v>11.65</v>
       </c>
       <c r="AC6" t="b">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-17.44</v>
+        <v>-2.87</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1569,24 +1569,24 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK6" t="n">
         <v>0.95</v>
       </c>
       <c r="AL6" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1647,77 +1647,77 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.84</v>
+        <v>-3.66</v>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>17.35</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-0.28</v>
+        <v>4.14</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>668.61</t>
+          <t>3059.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-7</v>
+        <v>-34</v>
       </c>
       <c r="U7" t="n">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -1729,20 +1729,20 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>120.18</v>
+        <v>-329.22</v>
       </c>
       <c r="AB7" t="n">
-        <v>107.32</v>
+        <v>20.02</v>
       </c>
       <c r="AC7" t="b">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.12</v>
+        <v>-17.44</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1761,24 +1761,24 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK7" t="n">
         <v>0.95</v>
       </c>
       <c r="AL7" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
@@ -1830,7 +1830,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1839,77 +1839,77 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D8" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.71</v>
+        <v>1.28</v>
       </c>
       <c r="H8" t="n">
-        <v>17.85</v>
+        <v>18</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>238.08</t>
+          <t>668.61</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="U8" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>63.59</v>
+        <v>120.18</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.11</v>
+        <v>107.32</v>
       </c>
       <c r="AC8" t="b">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.39</v>
+        <v>0.12</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1953,24 +1953,24 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK8" t="n">
         <v>0.95</v>
       </c>
       <c r="AL8" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
@@ -1983,11 +1983,11 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
@@ -2022,7 +2022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2031,77 +2031,77 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H9" t="n">
         <v>17.85</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>142.30</t>
+          <t>238.08</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
@@ -2113,20 +2113,20 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>260.23</v>
+        <v>63.59</v>
       </c>
       <c r="AB9" t="n">
-        <v>114.24</v>
+        <v>104.11</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.28</v>
+        <v>-0.39</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -2155,14 +2155,14 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK9" t="n">
         <v>0.95</v>
       </c>
       <c r="AL9" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2223,77 +2223,77 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.65</v>
+        <v>17.85</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>142.30</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -2305,20 +2305,20 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>179.36</v>
+        <v>260.23</v>
       </c>
       <c r="AB10" t="n">
-        <v>77.73999999999999</v>
+        <v>114.24</v>
       </c>
       <c r="AC10" t="b">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2337,24 +2337,24 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK10" t="n">
         <v>0.95</v>
       </c>
       <c r="AL10" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
@@ -2367,11 +2367,11 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
@@ -2406,7 +2406,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2415,74 +2415,74 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17.4</v>
+        <v>17.65</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>3.06</v>
+        <v>2.49</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>60.77</t>
+          <t>89.09</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
         <v>7</v>
@@ -2501,16 +2501,16 @@
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>100.38</v>
+        <v>179.36</v>
       </c>
       <c r="AB11" t="n">
-        <v>52.34</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2534,19 +2534,19 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK11" t="n">
         <v>0.95</v>
       </c>
       <c r="AL11" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2559,11 +2559,11 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2607,77 +2607,77 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>4.18</v>
+        <v>3.87</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-3.40</t>
+          <t>-2.90</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>47.54</t>
+          <t>60.77</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="U12" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -2689,20 +2689,20 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>-15.5</v>
+        <v>100.38</v>
       </c>
       <c r="AB12" t="n">
-        <v>40.33</v>
+        <v>52.34</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2721,24 +2721,24 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK12" t="n">
         <v>0.95</v>
       </c>
       <c r="AL12" t="n">
-        <v>179.5</v>
+        <v>181</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
@@ -2790,7 +2790,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2799,19 +2799,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.43</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10.34</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="H13" t="n">
         <v>27.8</v>
@@ -2822,54 +2822,54 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-107.92</t>
+          <t>-162.94</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2881,20 +2881,20 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>-147.75</v>
+        <v>-174.65</v>
       </c>
       <c r="AB13" t="n">
-        <v>-51.49</v>
+        <v>-76.12</v>
       </c>
       <c r="AC13" t="b">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.87</v>
+        <v>-1.29</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2991,77 +2991,77 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.43</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.05</v>
+        <v>0.86</v>
       </c>
       <c r="H14" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-1.44</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-69.14</t>
+          <t>-107.92</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="U14" t="n">
-        <v>31</v>
+        <v>-27</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -3073,20 +3073,20 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>-80.34999999999999</v>
+        <v>-147.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>-27.42</v>
+        <v>-51.49</v>
       </c>
       <c r="AC14" t="b">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-1.93</v>
+        <v>-1.87</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3186,16 +3186,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="H15" t="n">
         <v>28.2</v>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3226,34 +3226,34 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-61.29</t>
+          <t>-69.14</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U15" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -3265,20 +3265,20 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>-63.17</v>
+        <v>-80.34999999999999</v>
       </c>
       <c r="AB15" t="n">
-        <v>-14.19</v>
+        <v>-27.42</v>
       </c>
       <c r="AC15" t="b">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>-3.45</v>
+        <v>-1.93</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3378,16 +3378,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="H16" t="n">
         <v>28.2</v>
@@ -3398,22 +3398,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3423,29 +3423,29 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-53.19</t>
+          <t>-61.29</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -3457,20 +3457,20 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>-11.19</v>
+        <v>-63.17</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.94</v>
+        <v>-14.19</v>
       </c>
       <c r="AC16" t="b">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>-4.77</v>
+        <v>-3.45</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3567,19 +3567,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H17" t="n">
         <v>28.2</v>
@@ -3590,54 +3590,54 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-44.37</t>
+          <t>-53.19</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="U17" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -3649,20 +3649,20 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>30.25</v>
+        <v>-11.19</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.37</v>
+        <v>-1.94</v>
       </c>
       <c r="AC17" t="b">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>80.76000000000001</v>
+        <v>-4.77</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="AO17" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3759,77 +3759,77 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.07</v>
+        <v>-1.07</v>
       </c>
       <c r="D18" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-2.52</v>
+        <v>-1.44</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-34.21</t>
+          <t>-44.37</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -3841,20 +3841,20 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>146.33</v>
+        <v>30.25</v>
       </c>
       <c r="AB18" t="n">
-        <v>-7.1</v>
+        <v>0.37</v>
       </c>
       <c r="AC18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>21.61</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3873,12 +3873,12 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3951,77 +3951,77 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.71</v>
+        <v>1.07</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-1.44</v>
+        <v>-2.52</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-34.92</t>
+          <t>-34.21</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="U19" t="n">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -4033,20 +4033,20 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>-78.56</v>
+        <v>146.33</v>
       </c>
       <c r="AB19" t="n">
-        <v>-45.46</v>
+        <v>-7.1</v>
       </c>
       <c r="AC19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.73</v>
+        <v>21.61</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4065,12 +4065,12 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4143,35 +4143,35 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.18</v>
+        <v>-0.71</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-2.16</v>
+        <v>-1.44</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4181,36 +4181,36 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-23.69</t>
+          <t>-34.92</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U20" t="n">
         <v>-14</v>
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>-70.45</v>
+        <v>-78.56</v>
       </c>
       <c r="AB20" t="n">
-        <v>-37.18</v>
+        <v>-45.46</v>
       </c>
       <c r="AC20" t="b">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.89</v>
+        <v>-0.73</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4257,12 +4257,12 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4335,77 +4335,77 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.71</v>
+        <v>-0.18</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.45</v>
+        <v>28.4</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-2.34</v>
+        <v>-2.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-16.78</t>
+          <t>-23.69</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="U21" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="V21" t="b">
         <v>0</v>
@@ -4417,20 +4417,20 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>-34.93</v>
+        <v>-70.45</v>
       </c>
       <c r="AB21" t="n">
-        <v>-28.87</v>
+        <v>-37.18</v>
       </c>
       <c r="AC21" t="b">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.21</v>
+        <v>-0.89</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4527,77 +4527,77 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.17</v>
+        <v>-0.71</v>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>28.65</v>
+        <v>28.45</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-3.06</v>
+        <v>-2.34</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-9.42</t>
+          <t>-16.78</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>-19</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -4609,20 +4609,20 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>24.89</v>
+        <v>-34.93</v>
       </c>
       <c r="AB22" t="n">
-        <v>-27.35</v>
+        <v>-28.87</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.91</v>
+        <v>-0.21</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -4641,12 +4641,12 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="AO22" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4719,77 +4719,77 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>28.6</v>
+        <v>28.65</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-2.88</v>
+        <v>-3.06</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-6.56</t>
+          <t>-9.42</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="U23" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -4801,20 +4801,20 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>-38.29</v>
+        <v>24.89</v>
       </c>
       <c r="AB23" t="n">
-        <v>-40.41</v>
+        <v>-27.35</v>
       </c>
       <c r="AC23" t="b">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.05</v>
+        <v>1.91</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="AO23" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4911,22 +4911,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1.69</v>
+        <v>0.65</v>
       </c>
       <c r="D24" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="H24" t="n">
-        <v>22.75</v>
+        <v>22.9</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
@@ -4934,54 +4934,54 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-3.52</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-5.52</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-29.80</t>
+          <t>-38.56</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="U24" t="n">
-        <v>-24</v>
+        <v>-54</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -4993,20 +4993,20 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>-1943.47</v>
+        <v>-1709.34</v>
       </c>
       <c r="AB24" t="n">
-        <v>-413.59</v>
+        <v>-672.74</v>
       </c>
       <c r="AC24" t="b">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>-3.7</v>
+        <v>-1.54</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -5025,12 +5025,12 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5053,11 +5053,11 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5092,7 +5092,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5101,77 +5101,77 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1.49</v>
+        <v>-1.69</v>
       </c>
       <c r="D25" t="n">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="H25" t="n">
-        <v>23.15</v>
+        <v>22.75</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-1.76</v>
+        <v>0.66</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-3.52</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-5.74</t>
+          <t>-5.52</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-17.17</t>
+          <t>-29.80</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="U25" t="n">
-        <v>-48</v>
+        <v>-24</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
@@ -5183,20 +5183,20 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>-1852.49</v>
+        <v>-1943.47</v>
       </c>
       <c r="AB25" t="n">
-        <v>-31.12</v>
+        <v>-413.59</v>
       </c>
       <c r="AC25" t="b">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>-58.53</v>
+        <v>-3.7</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -5215,12 +5215,12 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5243,11 +5243,11 @@
         </is>
       </c>
       <c r="AO25" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -5282,7 +5282,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5291,77 +5291,77 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-6.75</v>
+        <v>-1.49</v>
       </c>
       <c r="D26" t="n">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="H26" t="n">
-        <v>23.5</v>
+        <v>23.15</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-3.3</v>
+        <v>-1.09</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-7.23</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-5.74</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>-17.17</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U26" t="n">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -5369,32 +5369,24 @@
       <c r="W26" t="b">
         <v>0</v>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>-1582.44</v>
+        <v>-1852.49</v>
       </c>
       <c r="AB26" t="n">
-        <v>424.23</v>
+        <v>-31.12</v>
       </c>
       <c r="AC26" t="b">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>-4.73</v>
+        <v>-58.53</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -5413,12 +5405,12 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -5441,11 +5433,11 @@
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -5480,7 +5472,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5489,77 +5481,77 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-2.33</v>
+        <v>-6.75</v>
       </c>
       <c r="D27" t="n">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="H27" t="n">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-10.77</v>
+        <v>-2.62</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-3.57</t>
+          <t>-7.23</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-4.12</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>-4.48</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U27" t="n">
-        <v>-52</v>
+        <v>-49</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -5579,20 +5571,20 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>-482.28</v>
+        <v>-1582.44</v>
       </c>
       <c r="AB27" t="n">
-        <v>925.89</v>
+        <v>424.23</v>
       </c>
       <c r="AC27" t="b">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>-1.52</v>
+        <v>-4.73</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -5611,12 +5603,12 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -5639,11 +5631,11 @@
         </is>
       </c>
       <c r="AO27" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -5678,7 +5670,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5687,60 +5679,60 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.7</v>
+        <v>-2.33</v>
       </c>
       <c r="D28" t="n">
-        <v>975</v>
+        <v>309</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="H28" t="n">
-        <v>25.8</v>
+        <v>25.2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-13.41</v>
+        <v>-10.04</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>-3.57</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -5750,14 +5742,14 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U28" t="n">
-        <v>-45</v>
+        <v>-52</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -5777,20 +5769,20 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>1041.79</v>
+        <v>-482.28</v>
       </c>
       <c r="AB28" t="n">
-        <v>1277.93</v>
+        <v>925.89</v>
       </c>
       <c r="AC28" t="b">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.18</v>
+        <v>-1.52</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -5814,7 +5806,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -5837,11 +5829,11 @@
         </is>
       </c>
       <c r="AO28" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -5876,7 +5868,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5885,77 +5877,77 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.76</v>
+        <v>2.7</v>
       </c>
       <c r="D29" t="n">
-        <v>633</v>
+        <v>975</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="H29" t="n">
-        <v>25.15</v>
+        <v>25.8</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>-10.55</v>
+        <v>-12.66</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="U29" t="n">
-        <v>-40</v>
+        <v>-45</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -5975,20 +5967,20 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>-349.3</v>
+        <v>1041.79</v>
       </c>
       <c r="AB29" t="n">
-        <v>1336.97</v>
+        <v>1277.93</v>
       </c>
       <c r="AC29" t="b">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>-1.26</v>
+        <v>-0.18</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -6007,12 +5999,12 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -6035,11 +6027,11 @@
         </is>
       </c>
       <c r="AO29" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -6074,7 +6066,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6083,77 +6075,77 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-4.55</v>
+        <v>9.76</v>
       </c>
       <c r="D30" t="n">
-        <v>395</v>
+        <v>633</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="H30" t="n">
-        <v>22.9</v>
+        <v>25.15</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-0.66</v>
+        <v>-9.83</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-7.74</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="U30" t="n">
-        <v>42</v>
+        <v>-40</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -6173,20 +6165,20 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>-1285.12</v>
+        <v>-349.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>1758.54</v>
+        <v>1336.97</v>
       </c>
       <c r="AC30" t="b">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>-1.73</v>
+        <v>-1.26</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6205,12 +6197,12 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -6233,11 +6225,11 @@
         </is>
       </c>
       <c r="AO30" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -6272,7 +6264,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6281,77 +6273,77 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-4.55</v>
       </c>
       <c r="D31" t="n">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="H31" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-5.49</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-5.77</t>
+          <t>-7.74</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28.46</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="U31" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -6371,20 +6363,20 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>42.47</v>
+        <v>-1285.12</v>
       </c>
       <c r="AB31" t="n">
-        <v>2519.45</v>
+        <v>1758.54</v>
       </c>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.98</v>
+        <v>-1.73</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -6403,12 +6395,12 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -6431,11 +6423,11 @@
         </is>
       </c>
       <c r="AO31" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6470,7 +6462,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6479,77 +6471,77 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-6.92</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>730</v>
+        <v>290</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="H32" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-6.37</v>
+        <v>-4.8</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-10.74</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-5.77</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>28.46</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="U32" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -6569,20 +6561,20 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>1720.53</v>
+        <v>42.47</v>
       </c>
       <c r="AB32" t="n">
-        <v>3138.7</v>
+        <v>2519.45</v>
       </c>
       <c r="AC32" t="b">
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.45</v>
+        <v>-0.98</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -6601,12 +6593,12 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -6629,11 +6621,11 @@
         </is>
       </c>
       <c r="AO32" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -6668,7 +6660,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6677,77 +6669,77 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-3.79</v>
+        <v>-6.92</v>
       </c>
       <c r="D33" t="n">
-        <v>958</v>
+        <v>730</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="H33" t="n">
-        <v>26</v>
+        <v>24.2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-14.29</v>
+        <v>-5.68</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>48.24</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="U33" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -6767,20 +6759,20 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>5270.14</v>
+        <v>1720.53</v>
       </c>
       <c r="AB33" t="n">
-        <v>3493.24</v>
+        <v>3138.7</v>
       </c>
       <c r="AC33" t="b">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.51</v>
+        <v>-0.45</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -6799,12 +6791,12 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -6827,11 +6819,11 @@
         </is>
       </c>
       <c r="AO33" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
@@ -6854,7 +6846,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
@@ -6866,7 +6858,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6875,77 +6867,77 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.21</v>
+        <v>-3.79</v>
       </c>
       <c r="D34" t="n">
-        <v>4205</v>
+        <v>958</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-18.68</v>
+        <v>-13.54</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>100.86</t>
+          <t>77.76</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U34" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -6965,20 +6957,20 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>10849.98</v>
+        <v>5270.14</v>
       </c>
       <c r="AB34" t="n">
-        <v>3049.01</v>
+        <v>3493.24</v>
       </c>
       <c r="AC34" t="b">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.56</v>
+        <v>0.51</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -6997,12 +6989,12 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -7025,11 +7017,11 @@
         </is>
       </c>
       <c r="AO34" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -7064,7 +7056,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7073,22 +7065,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -7101,49 +7093,49 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-20.30</t>
+          <t>-20.57</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="U35" t="n">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="V35" t="b">
         <v>0</v>
@@ -7155,20 +7147,20 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>-115.1</v>
+        <v>-47.08</v>
       </c>
       <c r="AB35" t="n">
-        <v>116.98</v>
+        <v>84.17</v>
       </c>
       <c r="AC35" t="b">
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>-1.98</v>
+        <v>-1.56</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -7192,19 +7184,19 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK35" t="n">
         <v>16.54</v>
       </c>
       <c r="AL35" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -7217,11 +7209,11 @@
         </is>
       </c>
       <c r="AO35" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -7256,7 +7248,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7265,26 +7257,26 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.5</v>
+        <v>59</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -7293,49 +7285,49 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-10.78</t>
+          <t>-20.30</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>-42</v>
+        <v>-17</v>
       </c>
       <c r="U36" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -7347,20 +7339,20 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>-11.34</v>
+        <v>-115.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>175</v>
+        <v>116.98</v>
       </c>
       <c r="AC36" t="b">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>-1.06</v>
+        <v>-1.98</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -7384,19 +7376,19 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK36" t="n">
         <v>16.54</v>
       </c>
       <c r="AL36" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
@@ -7409,11 +7401,11 @@
         </is>
       </c>
       <c r="AO36" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -7448,7 +7440,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7457,26 +7449,26 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.84</v>
+        <v>0.34</v>
       </c>
       <c r="D37" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>59.3</v>
+        <v>59.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -7485,22 +7477,22 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -7510,24 +7502,24 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-6.96</t>
+          <t>-10.78</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="U37" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -7535,32 +7527,24 @@
       <c r="W37" t="b">
         <v>0</v>
       </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>-96.81</v>
+        <v>-11.34</v>
       </c>
       <c r="AB37" t="n">
-        <v>221.59</v>
+        <v>175</v>
       </c>
       <c r="AC37" t="b">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>-1.44</v>
+        <v>-1.06</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -7579,7 +7563,7 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -7589,14 +7573,14 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK37" t="n">
         <v>16.54</v>
       </c>
       <c r="AL37" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -7609,11 +7593,11 @@
         </is>
       </c>
       <c r="AO37" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -7648,7 +7632,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7657,26 +7641,26 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>59.8</v>
+        <v>59.3</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-1.36</v>
+        <v>0.34</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -7685,49 +7669,49 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>-6.96</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>-51</v>
+        <v>-49</v>
       </c>
       <c r="U38" t="n">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -7747,20 +7731,20 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>92.15000000000001</v>
+        <v>-96.81</v>
       </c>
       <c r="AB38" t="n">
-        <v>301.18</v>
+        <v>221.59</v>
       </c>
       <c r="AC38" t="b">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.44</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -7779,24 +7763,24 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK38" t="n">
         <v>16.54</v>
       </c>
       <c r="AL38" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
@@ -7809,11 +7793,11 @@
         </is>
       </c>
       <c r="AO38" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
@@ -7848,7 +7832,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7860,23 +7844,23 @@
         <v>0.34</v>
       </c>
       <c r="D39" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>59.6</v>
+        <v>59.8</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>-1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -7885,37 +7869,37 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -7924,10 +7908,10 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>-26</v>
+        <v>-51</v>
       </c>
       <c r="U39" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
@@ -7947,20 +7931,20 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>98.67</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="AB39" t="n">
-        <v>353.44</v>
+        <v>301.18</v>
       </c>
       <c r="AC39" t="b">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.72</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -7979,24 +7963,24 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK39" t="n">
         <v>16.54</v>
       </c>
       <c r="AL39" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
@@ -8009,11 +7993,11 @@
         </is>
       </c>
       <c r="AO39" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
@@ -8048,7 +8032,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8057,26 +8041,26 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1.17</v>
+        <v>0.34</v>
       </c>
       <c r="D40" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>59.4</v>
+        <v>59.6</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-0.68</v>
+        <v>-0.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -8085,37 +8069,37 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -8124,10 +8108,10 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>-15</v>
+        <v>-26</v>
       </c>
       <c r="U40" t="n">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -8147,20 +8131,20 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>-32.9</v>
+        <v>98.67</v>
       </c>
       <c r="AB40" t="n">
-        <v>417.14</v>
+        <v>353.44</v>
       </c>
       <c r="AC40" t="b">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>-1.08</v>
+        <v>-0.72</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -8179,7 +8163,7 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
@@ -8189,14 +8173,14 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK40" t="n">
         <v>16.54</v>
       </c>
       <c r="AL40" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
@@ -8209,11 +8193,11 @@
         </is>
       </c>
       <c r="AO40" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
@@ -8248,7 +8232,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8257,26 +8241,26 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.17</v>
+        <v>-1.17</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="H41" t="n">
-        <v>60.1</v>
+        <v>59.4</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>-1.86</v>
+        <v>0.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -8285,49 +8269,49 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>21.99</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>27</v>
+        <v>-15</v>
       </c>
       <c r="U41" t="n">
-        <v>-2</v>
+        <v>-34</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -8347,20 +8331,20 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>298.24</v>
+        <v>-32.9</v>
       </c>
       <c r="AB41" t="n">
-        <v>529.65</v>
+        <v>417.14</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.44</v>
+        <v>-1.08</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -8379,24 +8363,24 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK41" t="n">
         <v>16.54</v>
       </c>
       <c r="AL41" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
@@ -8409,11 +8393,11 @@
         </is>
       </c>
       <c r="AO41" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
@@ -8448,7 +8432,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8457,26 +8441,26 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D42" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
-        <v>60</v>
+        <v>60.1</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-1.69</v>
+        <v>-1.01</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -8485,12 +8469,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -8500,34 +8484,34 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>21.99</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="U42" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="V42" t="b">
         <v>0</v>
@@ -8547,20 +8531,20 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA42" t="n">
-        <v>389.4</v>
+        <v>298.24</v>
       </c>
       <c r="AB42" t="n">
-        <v>587.5</v>
+        <v>529.65</v>
       </c>
       <c r="AC42" t="b">
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.34</v>
+        <v>-0.44</v>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
@@ -8579,7 +8563,7 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
@@ -8589,14 +8573,14 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK42" t="n">
         <v>16.54</v>
       </c>
       <c r="AL42" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
@@ -8609,11 +8593,11 @@
         </is>
       </c>
       <c r="AO42" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
@@ -8648,7 +8632,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8657,26 +8641,26 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1.16</v>
+        <v>0.67</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.34</v>
+        <v>1.05</v>
       </c>
       <c r="H43" t="n">
-        <v>59.6</v>
+        <v>60</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>-1.02</v>
+        <v>-0.84</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -8685,49 +8669,49 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="U43" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="V43" t="b">
         <v>0</v>
@@ -8747,20 +8731,20 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AA43" t="n">
-        <v>374.79</v>
+        <v>389.4</v>
       </c>
       <c r="AB43" t="n">
-        <v>637.02</v>
+        <v>587.5</v>
       </c>
       <c r="AC43" t="b">
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.41</v>
+        <v>-0.34</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -8779,24 +8763,24 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK43" t="n">
         <v>16.54</v>
       </c>
       <c r="AL43" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
@@ -8809,11 +8793,11 @@
         </is>
       </c>
       <c r="AO43" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
@@ -8848,7 +8832,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8857,26 +8841,26 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.17</v>
+        <v>-1.16</v>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="H44" t="n">
-        <v>60.3</v>
+        <v>59.6</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>-2.2</v>
+        <v>-0.17</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -8885,32 +8869,32 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -8920,14 +8904,14 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="U44" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="V44" t="b">
         <v>0</v>
@@ -8947,20 +8931,20 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AA44" t="n">
-        <v>624.5700000000001</v>
+        <v>374.79</v>
       </c>
       <c r="AB44" t="n">
-        <v>702.58</v>
+        <v>637.02</v>
       </c>
       <c r="AC44" t="b">
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>-0.11</v>
+        <v>-0.41</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -8979,24 +8963,24 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK44" t="n">
         <v>16.54</v>
       </c>
       <c r="AL44" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
@@ -9009,11 +8993,11 @@
         </is>
       </c>
       <c r="AO44" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
@@ -9048,7 +9032,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9057,26 +9041,26 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.33</v>
+        <v>-0.17</v>
       </c>
       <c r="D45" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="H45" t="n">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-2.37</v>
+        <v>-1.34</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -9085,49 +9069,49 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>38.08</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="U45" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
@@ -9147,20 +9131,20 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AA45" t="n">
-        <v>940.13</v>
+        <v>624.5700000000001</v>
       </c>
       <c r="AB45" t="n">
-        <v>722.08</v>
+        <v>702.58</v>
       </c>
       <c r="AC45" t="b">
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.3</v>
+        <v>-0.11</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -9179,24 +9163,24 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AK45" t="n">
         <v>16.54</v>
       </c>
       <c r="AL45" t="n">
-        <v>12.94</v>
+        <v>13.05</v>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
@@ -9209,11 +9193,11 @@
         </is>
       </c>
       <c r="AO45" t="n">
-        <v>73.59999999999999</v>
+        <v>74.14</v>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,22 +687,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.83</v>
+        <v>-0.83</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18.1</v>
+        <v>17.95</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -715,49 +715,49 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>87.71</t>
+          <t>65.37</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="U2" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -769,20 +769,20 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>262.47</v>
+        <v>-87.81999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.5</v>
+        <v>107.64</v>
       </c>
       <c r="AC2" t="b">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.68</v>
+        <v>-1.82</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -801,24 +801,24 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK2" t="n">
         <v>0.95</v>
       </c>
       <c r="AL2" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -831,11 +831,11 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -879,26 +879,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.95</v>
+        <v>18.1</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>0.83</v>
+        <v>-0.84</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -907,49 +907,49 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>87.71</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-44</v>
+        <v>-26</v>
       </c>
       <c r="U3" t="n">
-        <v>34</v>
+        <v>-7</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -961,20 +961,20 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>306.72</v>
+        <v>262.47</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.01</v>
+        <v>156.5</v>
       </c>
       <c r="AC3" t="b">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.36</v>
+        <v>0.68</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -993,24 +993,24 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK3" t="n">
         <v>0.95</v>
       </c>
       <c r="AL3" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1071,26 +1071,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.13</v>
+        <v>0.84</v>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.8</v>
+        <v>17.95</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1099,49 +1099,49 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>119.28</t>
+          <t>99.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-42</v>
+        <v>-44</v>
       </c>
       <c r="U4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -1153,20 +1153,20 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>247.44</v>
+        <v>306.72</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.84</v>
+        <v>130.01</v>
       </c>
       <c r="AC4" t="b">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1190,19 +1190,19 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK4" t="n">
         <v>0.95</v>
       </c>
       <c r="AL4" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
         </is>
       </c>
       <c r="AO4" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1263,26 +1263,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.57</v>
+        <v>1.13</v>
       </c>
       <c r="D5" t="n">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>2.76</v>
+        <v>0.84</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1291,49 +1291,49 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>166.27</t>
+          <t>119.28</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-36</v>
+        <v>-42</v>
       </c>
       <c r="U5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1345,20 +1345,20 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>180.6</v>
+        <v>247.44</v>
       </c>
       <c r="AB5" t="n">
-        <v>45.44</v>
+        <v>85.84</v>
       </c>
       <c r="AC5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.97</v>
+        <v>1.88</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1377,24 +1377,24 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK5" t="n">
         <v>0.95</v>
       </c>
       <c r="AL5" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="AO5" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1455,26 +1455,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="D6" t="n">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>3.31</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1483,32 +1483,32 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>341.35</t>
+          <t>166.27</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1518,14 +1518,14 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-31</v>
+        <v>-36</v>
       </c>
       <c r="U6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1537,20 +1537,20 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>-21.84</v>
+        <v>180.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.65</v>
+        <v>45.44</v>
       </c>
       <c r="AC6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>-2.87</v>
+        <v>2.97</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1569,24 +1569,24 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK6" t="n">
         <v>0.95</v>
       </c>
       <c r="AL6" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1647,26 +1647,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.66</v>
+        <v>0.86</v>
       </c>
       <c r="D7" t="n">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.35</v>
+        <v>17.5</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>4.14</v>
+        <v>2.51</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1675,32 +1675,32 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3059.01</t>
+          <t>341.35</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1710,14 +1710,14 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="U7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -1729,20 +1729,20 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>-329.22</v>
+        <v>-21.84</v>
       </c>
       <c r="AB7" t="n">
-        <v>20.02</v>
+        <v>11.65</v>
       </c>
       <c r="AC7" t="b">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>-17.44</v>
+        <v>-2.87</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1761,24 +1761,24 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK7" t="n">
         <v>0.95</v>
       </c>
       <c r="AL7" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1830,7 +1830,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1839,26 +1839,26 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.84</v>
+        <v>-3.66</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>17.35</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.55</v>
+        <v>3.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1867,49 +1867,49 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>668.61</t>
+          <t>3059.01</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>-7</v>
+        <v>-34</v>
       </c>
       <c r="U8" t="n">
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>120.18</v>
+        <v>-329.22</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.32</v>
+        <v>20.02</v>
       </c>
       <c r="AC8" t="b">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.12</v>
+        <v>-17.44</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1953,24 +1953,24 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK8" t="n">
         <v>0.95</v>
       </c>
       <c r="AL8" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
@@ -1983,11 +1983,11 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2022,7 +2022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2031,26 +2031,26 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.71</v>
+        <v>1.28</v>
       </c>
       <c r="H9" t="n">
-        <v>17.85</v>
+        <v>18</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1.38</v>
+        <v>-0.28</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2059,49 +2059,49 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>238.08</t>
+          <t>668.61</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="U9" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
@@ -2113,20 +2113,20 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>63.59</v>
+        <v>120.18</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.11</v>
+        <v>107.32</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.39</v>
+        <v>0.12</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -2145,24 +2145,24 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK9" t="n">
         <v>0.95</v>
       </c>
       <c r="AL9" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2223,26 +2223,26 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H10" t="n">
         <v>17.85</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2251,49 +2251,49 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>142.30</t>
+          <t>238.08</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -2305,20 +2305,20 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>260.23</v>
+        <v>63.59</v>
       </c>
       <c r="AB10" t="n">
-        <v>114.24</v>
+        <v>104.11</v>
       </c>
       <c r="AC10" t="b">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.28</v>
+        <v>-0.39</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -2347,14 +2347,14 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK10" t="n">
         <v>0.95</v>
       </c>
       <c r="AL10" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
@@ -2367,11 +2367,11 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
@@ -2406,7 +2406,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2415,26 +2415,26 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17.65</v>
+        <v>17.85</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2443,49 +2443,49 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>142.30</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -2497,20 +2497,20 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>179.36</v>
+        <v>260.23</v>
       </c>
       <c r="AB11" t="n">
-        <v>77.73999999999999</v>
+        <v>114.24</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -2529,24 +2529,24 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK11" t="n">
         <v>0.95</v>
       </c>
       <c r="AL11" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2559,11 +2559,11 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2607,26 +2607,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>17.4</v>
+        <v>17.65</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>3.87</v>
+        <v>1.67</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -2635,46 +2635,46 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>188</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>60.77</t>
+          <t>89.09</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>100.38</v>
+        <v>179.36</v>
       </c>
       <c r="AB12" t="n">
-        <v>52.34</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="AC12" t="b">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2726,19 +2726,19 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK12" t="n">
         <v>0.95</v>
       </c>
       <c r="AL12" t="n">
-        <v>181</v>
+        <v>179.5</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
@@ -2790,7 +2790,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="H13" t="n">
-        <v>27.8</v>
+        <v>27.75</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -2827,49 +2827,49 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-162.94</t>
+          <t>-286.03</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="U13" t="n">
-        <v>-24</v>
+        <v>-6</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2881,20 +2881,20 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>-174.65</v>
+        <v>-219.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>-76.12</v>
+        <v>-104.86</v>
       </c>
       <c r="AC13" t="b">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.29</v>
+        <v>-1.1</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2930,7 +2930,7 @@
         <v>5.03</v>
       </c>
       <c r="AL13" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2943,11 +2943,11 @@
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -2982,7 +2982,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2991,26 +2991,26 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.43</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10.34</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="H14" t="n">
         <v>27.8</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -3019,49 +3019,49 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-107.92</t>
+          <t>-162.94</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -3073,20 +3073,20 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>-147.75</v>
+        <v>-174.65</v>
       </c>
       <c r="AB14" t="n">
-        <v>-51.49</v>
+        <v>-76.12</v>
       </c>
       <c r="AC14" t="b">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-1.87</v>
+        <v>-1.29</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>5.03</v>
       </c>
       <c r="AL14" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
@@ -3135,11 +3135,11 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3174,7 +3174,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3183,26 +3183,26 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-1.43</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.05</v>
+        <v>0.86</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-1.44</v>
+        <v>-0.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3211,49 +3211,49 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-69.14</t>
+          <t>-107.92</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="U15" t="n">
-        <v>31</v>
+        <v>-27</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -3265,20 +3265,20 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>-80.34999999999999</v>
+        <v>-147.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>-27.42</v>
+        <v>-51.49</v>
       </c>
       <c r="AC15" t="b">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>-1.93</v>
+        <v>-1.87</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3314,7 +3314,7 @@
         <v>5.03</v>
       </c>
       <c r="AL15" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3366,7 +3366,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3378,23 +3378,23 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="H16" t="n">
         <v>28.2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-1.44</v>
+        <v>-1.62</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3418,34 +3418,34 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-61.29</t>
+          <t>-69.14</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U16" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -3457,20 +3457,20 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>-63.17</v>
+        <v>-80.34999999999999</v>
       </c>
       <c r="AB16" t="n">
-        <v>-14.19</v>
+        <v>-27.42</v>
       </c>
       <c r="AC16" t="b">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>-3.45</v>
+        <v>-1.93</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -3506,7 +3506,7 @@
         <v>5.03</v>
       </c>
       <c r="AL16" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
@@ -3519,11 +3519,11 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3570,23 +3570,23 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="H17" t="n">
         <v>28.2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-1.44</v>
+        <v>-1.62</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3595,17 +3595,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3615,29 +3615,29 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-53.19</t>
+          <t>-61.29</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -3649,20 +3649,20 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>-11.19</v>
+        <v>-63.17</v>
       </c>
       <c r="AB17" t="n">
-        <v>-1.94</v>
+        <v>-14.19</v>
       </c>
       <c r="AC17" t="b">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>-4.77</v>
+        <v>-3.45</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3698,7 +3698,7 @@
         <v>5.03</v>
       </c>
       <c r="AL17" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -3711,11 +3711,11 @@
         </is>
       </c>
       <c r="AO17" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -3750,7 +3750,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3759,26 +3759,26 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H18" t="n">
         <v>28.2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>-1.44</v>
+        <v>-1.62</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3787,49 +3787,49 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-44.37</t>
+          <t>-53.19</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="U18" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -3841,20 +3841,20 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>30.25</v>
+        <v>-11.19</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.37</v>
+        <v>-1.94</v>
       </c>
       <c r="AC18" t="b">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>80.76000000000001</v>
+        <v>-4.77</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3890,7 +3890,7 @@
         <v>5.03</v>
       </c>
       <c r="AL18" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -3942,7 +3942,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3951,26 +3951,26 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.07</v>
+        <v>-1.07</v>
       </c>
       <c r="D19" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="H19" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-2.52</v>
+        <v>-1.62</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -3979,49 +3979,49 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-34.21</t>
+          <t>-44.37</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -4033,20 +4033,20 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>146.33</v>
+        <v>30.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>-7.1</v>
+        <v>0.37</v>
       </c>
       <c r="AC19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>21.61</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -4065,12 +4065,12 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4082,7 +4082,7 @@
         <v>5.03</v>
       </c>
       <c r="AL19" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -4095,11 +4095,11 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4134,7 +4134,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4143,26 +4143,26 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.71</v>
+        <v>1.07</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-1.44</v>
+        <v>-2.7</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -4171,49 +4171,49 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-34.92</t>
+          <t>-34.21</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="U20" t="n">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -4225,20 +4225,20 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>-78.56</v>
+        <v>146.33</v>
       </c>
       <c r="AB20" t="n">
-        <v>-45.46</v>
+        <v>-7.1</v>
       </c>
       <c r="AC20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.73</v>
+        <v>21.61</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -4257,12 +4257,12 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -4274,7 +4274,7 @@
         <v>5.03</v>
       </c>
       <c r="AL20" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
@@ -4287,11 +4287,11 @@
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4326,7 +4326,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4335,26 +4335,26 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.18</v>
+        <v>-0.71</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-2.16</v>
+        <v>-1.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -4373,36 +4373,36 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-23.69</t>
+          <t>-34.92</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U21" t="n">
         <v>-14</v>
@@ -4421,16 +4421,16 @@
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>-70.45</v>
+        <v>-78.56</v>
       </c>
       <c r="AB21" t="n">
-        <v>-37.18</v>
+        <v>-45.46</v>
       </c>
       <c r="AC21" t="b">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.89</v>
+        <v>-0.73</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -4449,12 +4449,12 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -4466,7 +4466,7 @@
         <v>5.03</v>
       </c>
       <c r="AL21" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4527,22 +4527,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.71</v>
+        <v>-0.18</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>28.45</v>
+        <v>28.4</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
@@ -4555,49 +4555,49 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-16.78</t>
+          <t>-23.69</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="U22" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -4609,20 +4609,20 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>-34.93</v>
+        <v>-70.45</v>
       </c>
       <c r="AB22" t="n">
-        <v>-28.87</v>
+        <v>-37.18</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.21</v>
+        <v>-0.89</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -4658,7 +4658,7 @@
         <v>5.03</v>
       </c>
       <c r="AL22" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
@@ -4671,11 +4671,11 @@
         </is>
       </c>
       <c r="AO22" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -4710,7 +4710,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4719,26 +4719,26 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.17</v>
+        <v>-0.71</v>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>28.65</v>
+        <v>28.45</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>-3.06</v>
+        <v>-2.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -4747,49 +4747,49 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-9.42</t>
+          <t>-16.78</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>-19</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -4801,20 +4801,20 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>24.89</v>
+        <v>-34.93</v>
       </c>
       <c r="AB23" t="n">
-        <v>-27.35</v>
+        <v>-28.87</v>
       </c>
       <c r="AC23" t="b">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.91</v>
+        <v>-0.21</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -4833,12 +4833,12 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -4850,7 +4850,7 @@
         <v>5.03</v>
       </c>
       <c r="AL23" t="n">
-        <v>28.37</v>
+        <v>28.32</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -4863,11 +4863,11 @@
         </is>
       </c>
       <c r="AO23" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4911,22 +4911,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.65</v>
+        <v>-3.93</v>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="H24" t="n">
-        <v>22.9</v>
+        <v>22</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
@@ -4934,54 +4934,54 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-3.76</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-4.02</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-38.56</t>
+          <t>-55.00</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U24" t="n">
-        <v>-54</v>
+        <v>-58</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -4993,20 +4993,20 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-58</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>-1709.34</v>
+        <v>-1825.44</v>
       </c>
       <c r="AB24" t="n">
-        <v>-672.74</v>
+        <v>-903.28</v>
       </c>
       <c r="AC24" t="b">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>-1.54</v>
+        <v>-1.02</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5053,11 +5053,11 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5092,7 +5092,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5101,77 +5101,77 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1.69</v>
+        <v>0.65</v>
       </c>
       <c r="D25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="H25" t="n">
-        <v>22.75</v>
+        <v>22.9</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>0.66</v>
+        <v>-4.09</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-3.52</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-5.52</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-29.80</t>
+          <t>-38.56</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="U25" t="n">
-        <v>-24</v>
+        <v>-54</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
@@ -5183,20 +5183,20 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>-1943.47</v>
+        <v>-1709.34</v>
       </c>
       <c r="AB25" t="n">
-        <v>-413.59</v>
+        <v>-672.74</v>
       </c>
       <c r="AC25" t="b">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>-3.7</v>
+        <v>-1.54</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -5215,12 +5215,12 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5243,11 +5243,11 @@
         </is>
       </c>
       <c r="AO25" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -5282,7 +5282,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5291,77 +5291,77 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1.49</v>
+        <v>-1.69</v>
       </c>
       <c r="D26" t="n">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="H26" t="n">
-        <v>23.15</v>
+        <v>22.75</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-1.09</v>
+        <v>-3.41</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-3.52</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-5.74</t>
+          <t>-5.52</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-17.17</t>
+          <t>-29.80</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="U26" t="n">
-        <v>-48</v>
+        <v>-24</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -5373,20 +5373,20 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>-1852.49</v>
+        <v>-1943.47</v>
       </c>
       <c r="AB26" t="n">
-        <v>-31.12</v>
+        <v>-413.59</v>
       </c>
       <c r="AC26" t="b">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>-58.53</v>
+        <v>-3.7</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -5405,12 +5405,12 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -5433,11 +5433,11 @@
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -5472,7 +5472,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5481,77 +5481,77 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-6.75</v>
+        <v>-1.49</v>
       </c>
       <c r="D27" t="n">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="H27" t="n">
-        <v>23.5</v>
+        <v>23.15</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-2.62</v>
+        <v>-5.23</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-7.23</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-5.74</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>-17.17</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U27" t="n">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -5559,32 +5559,24 @@
       <c r="W27" t="b">
         <v>0</v>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-48</t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>-1582.44</v>
+        <v>-1852.49</v>
       </c>
       <c r="AB27" t="n">
-        <v>424.23</v>
+        <v>-31.12</v>
       </c>
       <c r="AC27" t="b">
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>-4.73</v>
+        <v>-58.53</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -5603,12 +5595,12 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -5631,11 +5623,11 @@
         </is>
       </c>
       <c r="AO27" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -5670,7 +5662,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5679,77 +5671,77 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-2.33</v>
+        <v>-6.75</v>
       </c>
       <c r="D28" t="n">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="H28" t="n">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-10.04</v>
+        <v>-6.82</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-3.57</t>
+          <t>-7.23</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-4.12</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>-4.48</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>-52</v>
+        <v>-49</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -5769,20 +5761,20 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>-482.28</v>
+        <v>-1582.44</v>
       </c>
       <c r="AB28" t="n">
-        <v>925.89</v>
+        <v>424.23</v>
       </c>
       <c r="AC28" t="b">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>-1.52</v>
+        <v>-4.73</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -5801,12 +5793,12 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -5829,11 +5821,11 @@
         </is>
       </c>
       <c r="AO28" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -5868,7 +5860,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5877,60 +5869,60 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.7</v>
+        <v>-2.33</v>
       </c>
       <c r="D29" t="n">
-        <v>975</v>
+        <v>309</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="H29" t="n">
-        <v>25.8</v>
+        <v>25.2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>-12.66</v>
+        <v>-14.55</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>-3.57</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -5940,14 +5932,14 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U29" t="n">
-        <v>-45</v>
+        <v>-52</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -5967,20 +5959,20 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AA29" t="n">
-        <v>1041.79</v>
+        <v>-482.28</v>
       </c>
       <c r="AB29" t="n">
-        <v>1277.93</v>
+        <v>925.89</v>
       </c>
       <c r="AC29" t="b">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.18</v>
+        <v>-1.52</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -6004,7 +5996,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -6027,11 +6019,11 @@
         </is>
       </c>
       <c r="AO29" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -6066,7 +6058,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6075,77 +6067,77 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.76</v>
+        <v>2.7</v>
       </c>
       <c r="D30" t="n">
-        <v>633</v>
+        <v>975</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="H30" t="n">
-        <v>25.15</v>
+        <v>25.8</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-9.83</v>
+        <v>-17.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="U30" t="n">
-        <v>-40</v>
+        <v>-45</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -6165,20 +6157,20 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>-349.3</v>
+        <v>1041.79</v>
       </c>
       <c r="AB30" t="n">
-        <v>1336.97</v>
+        <v>1277.93</v>
       </c>
       <c r="AC30" t="b">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>-1.26</v>
+        <v>-0.18</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -6197,12 +6189,12 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -6225,11 +6217,11 @@
         </is>
       </c>
       <c r="AO30" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -6264,7 +6256,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6273,77 +6265,77 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-4.55</v>
+        <v>9.76</v>
       </c>
       <c r="D31" t="n">
-        <v>395</v>
+        <v>633</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="H31" t="n">
-        <v>22.9</v>
+        <v>25.15</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-14.32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-7.74</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="U31" t="n">
-        <v>42</v>
+        <v>-40</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -6363,20 +6355,20 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>-1285.12</v>
+        <v>-349.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>1758.54</v>
+        <v>1336.97</v>
       </c>
       <c r="AC31" t="b">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>-1.73</v>
+        <v>-1.26</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -6395,12 +6387,12 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -6423,11 +6415,11 @@
         </is>
       </c>
       <c r="AO31" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6462,7 +6454,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6471,77 +6463,77 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-4.55</v>
       </c>
       <c r="D32" t="n">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="H32" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-4.8</v>
+        <v>-4.09</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-5.77</t>
+          <t>-7.74</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>28.46</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="U32" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -6561,20 +6553,20 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA32" t="n">
-        <v>42.47</v>
+        <v>-1285.12</v>
       </c>
       <c r="AB32" t="n">
-        <v>2519.45</v>
+        <v>1758.54</v>
       </c>
       <c r="AC32" t="b">
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.98</v>
+        <v>-1.73</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -6593,12 +6585,12 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -6621,11 +6613,11 @@
         </is>
       </c>
       <c r="AO32" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -6660,7 +6652,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6669,77 +6661,77 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-6.92</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>730</v>
+        <v>290</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="H33" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-5.68</v>
+        <v>-9.09</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-10.74</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-5.77</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>28.46</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="U33" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -6759,20 +6751,20 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>1720.53</v>
+        <v>42.47</v>
       </c>
       <c r="AB33" t="n">
-        <v>3138.7</v>
+        <v>2519.45</v>
       </c>
       <c r="AC33" t="b">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.45</v>
+        <v>-0.98</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -6791,12 +6783,12 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -6819,11 +6811,11 @@
         </is>
       </c>
       <c r="AO33" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
@@ -6858,7 +6850,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6867,77 +6859,77 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-3.79</v>
+        <v>-6.92</v>
       </c>
       <c r="D34" t="n">
-        <v>958</v>
+        <v>730</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="H34" t="n">
-        <v>26</v>
+        <v>24.2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-13.54</v>
+        <v>-10</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>119</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-10.74</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>48.24</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="U34" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -6957,20 +6949,20 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>5270.14</v>
+        <v>1720.53</v>
       </c>
       <c r="AB34" t="n">
-        <v>3493.24</v>
+        <v>3138.7</v>
       </c>
       <c r="AC34" t="b">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.51</v>
+        <v>-0.45</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -6989,12 +6981,12 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -7017,11 +7009,11 @@
         </is>
       </c>
       <c r="AO34" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -7044,7 +7036,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
@@ -7056,7 +7048,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7065,22 +7057,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.83</v>
+        <v>-0.34</v>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -7088,54 +7080,54 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-20.57</t>
+          <t>-23.87</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>-27</v>
+        <v>-5</v>
       </c>
       <c r="U35" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="V35" t="b">
         <v>0</v>
@@ -7147,20 +7139,20 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AA35" t="n">
-        <v>-47.08</v>
+        <v>-88.59</v>
       </c>
       <c r="AB35" t="n">
-        <v>84.17</v>
+        <v>49.61</v>
       </c>
       <c r="AC35" t="b">
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>-1.56</v>
+        <v>-2.79</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -7179,7 +7171,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
@@ -7189,14 +7181,14 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK35" t="n">
         <v>16.54</v>
       </c>
       <c r="AL35" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -7209,11 +7201,11 @@
         </is>
       </c>
       <c r="AO35" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -7248,7 +7240,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7257,77 +7249,77 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>0.84</v>
+        <v>-0.34</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-20.30</t>
+          <t>-20.57</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="U36" t="n">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -7339,20 +7331,20 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA36" t="n">
-        <v>-115.1</v>
+        <v>-47.08</v>
       </c>
       <c r="AB36" t="n">
-        <v>116.98</v>
+        <v>84.17</v>
       </c>
       <c r="AC36" t="b">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>-1.98</v>
+        <v>-1.56</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -7376,19 +7368,19 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK36" t="n">
         <v>16.54</v>
       </c>
       <c r="AL36" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
@@ -7401,11 +7393,11 @@
         </is>
       </c>
       <c r="AO36" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -7440,7 +7432,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7449,77 +7441,77 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>59.5</v>
+        <v>59</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-10.78</t>
+          <t>-20.30</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>-42</v>
+        <v>-17</v>
       </c>
       <c r="U37" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -7531,20 +7523,20 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>-11.34</v>
+        <v>-115.1</v>
       </c>
       <c r="AB37" t="n">
-        <v>175</v>
+        <v>116.98</v>
       </c>
       <c r="AC37" t="b">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>-1.06</v>
+        <v>-1.98</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -7568,19 +7560,19 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK37" t="n">
         <v>16.54</v>
       </c>
       <c r="AL37" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -7593,11 +7585,11 @@
         </is>
       </c>
       <c r="AO37" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -7632,7 +7624,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7641,50 +7633,50 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.84</v>
+        <v>0.34</v>
       </c>
       <c r="D38" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>59.3</v>
+        <v>59.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>0.34</v>
+        <v>-0.34</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -7694,24 +7686,24 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-6.96</t>
+          <t>-10.78</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="U38" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -7719,32 +7711,24 @@
       <c r="W38" t="b">
         <v>0</v>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>-96.81</v>
+        <v>-11.34</v>
       </c>
       <c r="AB38" t="n">
-        <v>221.59</v>
+        <v>175</v>
       </c>
       <c r="AC38" t="b">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.44</v>
+        <v>-1.06</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -7763,7 +7747,7 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
@@ -7773,14 +7757,14 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK38" t="n">
         <v>16.54</v>
       </c>
       <c r="AL38" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
@@ -7793,11 +7777,11 @@
         </is>
       </c>
       <c r="AO38" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
@@ -7832,7 +7816,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7841,77 +7825,77 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.34</v>
+        <v>-0.84</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>59.8</v>
+        <v>59.3</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>-6.96</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>-51</v>
+        <v>-49</v>
       </c>
       <c r="U39" t="n">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
@@ -7931,20 +7915,20 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>92.15000000000001</v>
+        <v>-96.81</v>
       </c>
       <c r="AB39" t="n">
-        <v>301.18</v>
+        <v>221.59</v>
       </c>
       <c r="AC39" t="b">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.44</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -7963,24 +7947,24 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK39" t="n">
         <v>16.54</v>
       </c>
       <c r="AL39" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
@@ -7993,11 +7977,11 @@
         </is>
       </c>
       <c r="AO39" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
@@ -8032,7 +8016,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8044,62 +8028,62 @@
         <v>0.34</v>
       </c>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>59.6</v>
+        <v>59.8</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-0.17</v>
+        <v>-0.84</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -8108,10 +8092,10 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>-26</v>
+        <v>-51</v>
       </c>
       <c r="U40" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -8131,20 +8115,20 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>98.67</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="AB40" t="n">
-        <v>353.44</v>
+        <v>301.18</v>
       </c>
       <c r="AC40" t="b">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.72</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -8163,24 +8147,24 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK40" t="n">
         <v>16.54</v>
       </c>
       <c r="AL40" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
@@ -8193,11 +8177,11 @@
         </is>
       </c>
       <c r="AO40" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
@@ -8232,7 +8216,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8241,65 +8225,65 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1.17</v>
+        <v>0.34</v>
       </c>
       <c r="D41" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>59.4</v>
+        <v>59.6</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>0.17</v>
+        <v>-0.51</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -8308,10 +8292,10 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>-15</v>
+        <v>-26</v>
       </c>
       <c r="U41" t="n">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -8331,20 +8315,20 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AA41" t="n">
-        <v>-32.9</v>
+        <v>98.67</v>
       </c>
       <c r="AB41" t="n">
-        <v>417.14</v>
+        <v>353.44</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>-1.08</v>
+        <v>-0.72</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -8363,7 +8347,7 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
@@ -8373,14 +8357,14 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK41" t="n">
         <v>16.54</v>
       </c>
       <c r="AL41" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
@@ -8393,11 +8377,11 @@
         </is>
       </c>
       <c r="AO41" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
@@ -8432,7 +8416,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8441,77 +8425,77 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.17</v>
+        <v>-1.17</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="H42" t="n">
-        <v>60.1</v>
+        <v>59.4</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-1.01</v>
+        <v>-0.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>21.99</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>27</v>
+        <v>-15</v>
       </c>
       <c r="U42" t="n">
-        <v>-2</v>
+        <v>-34</v>
       </c>
       <c r="V42" t="b">
         <v>0</v>
@@ -8531,20 +8515,20 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="AA42" t="n">
-        <v>298.24</v>
+        <v>-32.9</v>
       </c>
       <c r="AB42" t="n">
-        <v>529.65</v>
+        <v>417.14</v>
       </c>
       <c r="AC42" t="b">
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.44</v>
+        <v>-1.08</v>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
@@ -8563,24 +8547,24 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK42" t="n">
         <v>16.54</v>
       </c>
       <c r="AL42" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
@@ -8593,11 +8577,11 @@
         </is>
       </c>
       <c r="AO42" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
@@ -8632,7 +8616,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8641,40 +8625,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D43" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
-        <v>60</v>
+        <v>60.1</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>-0.84</v>
+        <v>-1.35</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -8684,34 +8668,34 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>21.99</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="U43" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="V43" t="b">
         <v>0</v>
@@ -8731,20 +8715,20 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA43" t="n">
-        <v>389.4</v>
+        <v>298.24</v>
       </c>
       <c r="AB43" t="n">
-        <v>587.5</v>
+        <v>529.65</v>
       </c>
       <c r="AC43" t="b">
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.34</v>
+        <v>-0.44</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -8763,7 +8747,7 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
@@ -8773,14 +8757,14 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK43" t="n">
         <v>16.54</v>
       </c>
       <c r="AL43" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
@@ -8793,11 +8777,11 @@
         </is>
       </c>
       <c r="AO43" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
@@ -8832,7 +8816,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8841,77 +8825,77 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-1.16</v>
+        <v>0.67</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.34</v>
+        <v>1.05</v>
       </c>
       <c r="H44" t="n">
-        <v>59.6</v>
+        <v>60</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>-0.17</v>
+        <v>-1.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="U44" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="V44" t="b">
         <v>0</v>
@@ -8931,20 +8915,20 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AA44" t="n">
-        <v>374.79</v>
+        <v>389.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>637.02</v>
+        <v>587.5</v>
       </c>
       <c r="AC44" t="b">
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>-0.41</v>
+        <v>-0.34</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -8963,24 +8947,24 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK44" t="n">
         <v>16.54</v>
       </c>
       <c r="AL44" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
@@ -8993,11 +8977,11 @@
         </is>
       </c>
       <c r="AO44" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
@@ -9032,7 +9016,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -9041,60 +9025,60 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.17</v>
+        <v>-1.16</v>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="H45" t="n">
-        <v>60.3</v>
+        <v>59.6</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-1.34</v>
+        <v>-0.51</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -9104,14 +9088,14 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="U45" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
@@ -9131,20 +9115,20 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AA45" t="n">
-        <v>624.5700000000001</v>
+        <v>374.79</v>
       </c>
       <c r="AB45" t="n">
-        <v>702.58</v>
+        <v>637.02</v>
       </c>
       <c r="AC45" t="b">
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>-0.11</v>
+        <v>-0.41</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -9163,24 +9147,24 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AK45" t="n">
         <v>16.54</v>
       </c>
       <c r="AL45" t="n">
-        <v>13.05</v>
+        <v>13</v>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
@@ -9193,11 +9177,11 @@
         </is>
       </c>
       <c r="AO45" t="n">
-        <v>74.14</v>
+        <v>73.61</v>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">

--- a/Result/checksun/農業科技業.xlsx
+++ b/Result/checksun/農業科技業.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW45"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
     <row r="2">
       <c r="A2" 